--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66E41251-5297-4DAB-9CF9-508370B4D0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58351EAC-B35E-460B-84CD-C25B16792BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -379,7 +379,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,17 +458,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -849,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +960,7 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
-        <v>Victor Tay</v>
+        <v>Jimmy Wong</v>
       </c>
       <c r="C10" t="str" cm="1">
         <f t="array" ref="C10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
@@ -1006,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1161,7 +1151,7 @@
         <v>44817</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1173,7 +1163,7 @@
         <v>44657</v>
       </c>
       <c r="O3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3">
         <v>3</v>
@@ -1232,7 +1222,7 @@
         <v>44692</v>
       </c>
       <c r="K4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -1244,7 +1234,7 @@
         <v>44861</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1303,7 +1293,7 @@
         <v>44484</v>
       </c>
       <c r="K5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -1315,7 +1305,7 @@
         <v>44460</v>
       </c>
       <c r="O5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P5">
         <v>3</v>
@@ -1374,7 +1364,7 @@
         <v>44774</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1386,7 +1376,7 @@
         <v>44448</v>
       </c>
       <c r="O6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P6">
         <v>2</v>
@@ -1445,7 +1435,7 @@
         <v>44377</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1457,7 +1447,7 @@
         <v>44498</v>
       </c>
       <c r="O7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1516,7 +1506,7 @@
         <v>44490</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1587,7 +1577,7 @@
         <v>44749</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1599,7 +1589,7 @@
         <v>44573</v>
       </c>
       <c r="O9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1658,7 +1648,7 @@
         <v>44834</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1670,7 +1660,7 @@
         <v>44733</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1729,7 +1719,7 @@
         <v>44770</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1741,7 +1731,7 @@
         <v>44125</v>
       </c>
       <c r="O11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -1800,7 +1790,7 @@
         <v>44707</v>
       </c>
       <c r="K12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1812,7 +1802,7 @@
         <v>44368</v>
       </c>
       <c r="O12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P12">
         <v>3</v>
@@ -1862,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2">
-        <v>44362</v>
+        <v>44879</v>
       </c>
       <c r="K13">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1942,7 +1932,7 @@
         <v>44620</v>
       </c>
       <c r="K14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2013,7 +2003,7 @@
         <v>44819</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2025,7 +2015,7 @@
         <v>44770</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -2084,7 +2074,7 @@
         <v>44796</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -2096,7 +2086,7 @@
         <v>44754</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>3</v>
@@ -2146,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17" s="2">
-        <v>44322</v>
+        <v>44809</v>
       </c>
       <c r="K17">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -2167,7 +2157,7 @@
         <v>44120</v>
       </c>
       <c r="O17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P17">
         <v>3</v>
@@ -2226,19 +2216,19 @@
         <v>44418</v>
       </c>
       <c r="K18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="2">
-        <v>44060</v>
+        <v>44879</v>
       </c>
       <c r="O18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>2</v>
@@ -2297,7 +2287,7 @@
         <v>44837</v>
       </c>
       <c r="K19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2368,7 +2358,7 @@
         <v>44420</v>
       </c>
       <c r="K20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2380,7 +2370,7 @@
         <v>44739</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2439,7 +2429,7 @@
         <v>44376</v>
       </c>
       <c r="K21">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2451,7 +2441,7 @@
         <v>44509</v>
       </c>
       <c r="O21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2593,7 +2583,7 @@
         <v>44265</v>
       </c>
       <c r="O23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -2652,7 +2642,7 @@
         <v>44872</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2664,7 +2654,7 @@
         <v>44644</v>
       </c>
       <c r="O24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P24">
         <v>3</v>
@@ -2723,7 +2713,7 @@
         <v>44375</v>
       </c>
       <c r="K25">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2794,7 +2784,7 @@
         <v>44774</v>
       </c>
       <c r="K26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2806,7 +2796,7 @@
         <v>44851</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2865,7 +2855,7 @@
         <v>44873</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>2</v>
@@ -2877,7 +2867,7 @@
         <v>44862</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3007,7 +2997,7 @@
         <v>44855</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -3019,7 +3009,7 @@
         <v>44567</v>
       </c>
       <c r="O29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -3163,7 +3153,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F3:F29">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3240,7 +3230,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3341,7 +3331,7 @@
         <v>44861</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3376,7 +3366,7 @@
         <v>44754</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3411,7 +3401,7 @@
         <v>44509</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3437,16 +3427,16 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
-        <v>44460</v>
+        <v>44879</v>
       </c>
       <c r="K6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3481,7 +3471,7 @@
         <v>44851</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3516,7 +3506,7 @@
         <v>44498</v>
       </c>
       <c r="K8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3551,7 +3541,7 @@
         <v>44739</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3586,7 +3576,7 @@
         <v>44573</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3621,7 +3611,7 @@
         <v>44644</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -3656,7 +3646,7 @@
         <v>44862</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -3691,7 +3681,7 @@
         <v>44733</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -3726,7 +3716,7 @@
         <v>44770</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3761,7 +3751,7 @@
         <v>44657</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58351EAC-B35E-460B-84CD-C25B16792BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E07DF-95D2-4783-ACE2-125710B14016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
@@ -960,7 +960,7 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
-        <v>Jimmy Wong</v>
+        <v>Chris Chong</v>
       </c>
       <c r="C10" t="str" cm="1">
         <f t="array" ref="C10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" ref="E10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
-        <v>Brian Phua</v>
+        <v>Michael Sien</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
@@ -1222,7 +1222,7 @@
         <v>44692</v>
       </c>
       <c r="K4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -1255,7 +1255,7 @@
         <v>44861</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>44484</v>
       </c>
       <c r="K5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -1435,7 +1435,7 @@
         <v>44377</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1506,7 +1506,7 @@
         <v>44490</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>44749</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>44770</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1781,16 +1781,16 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="2">
-        <v>44707</v>
+        <v>44873</v>
       </c>
       <c r="K12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1814,16 +1814,16 @@
         <v>44433</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U12" s="2">
-        <v>44707</v>
+        <v>44873</v>
       </c>
       <c r="V12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>44620</v>
       </c>
       <c r="K14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>44796</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2216,7 +2216,7 @@
         <v>44418</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -2231,13 +2231,13 @@
         <v>1</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R18" s="2">
-        <v>44418</v>
+        <v>44879</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>44837</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -2358,7 +2358,7 @@
         <v>44420</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>44376</v>
       </c>
       <c r="K21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2713,7 +2713,7 @@
         <v>44375</v>
       </c>
       <c r="K25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2846,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="2">
-        <v>44873</v>
+        <v>44290</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="L27">
         <v>2</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5E07DF-95D2-4783-ACE2-125710B14016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042A01BC-34FB-40EA-B171-C036769368D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -996,11 +996,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:W29"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,7 +1163,7 @@
         <v>44657</v>
       </c>
       <c r="O3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P3">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>44861</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1296,25 +1296,25 @@
         <v>18</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N5" s="2">
-        <v>44460</v>
+        <v>44890</v>
       </c>
       <c r="O5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="2">
-        <v>44460</v>
+        <v>44890</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>43057</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>44498</v>
       </c>
       <c r="O7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>44573</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>44733</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -2015,7 +2015,7 @@
         <v>44770</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -2086,7 +2086,7 @@
         <v>44754</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P16">
         <v>3</v>
@@ -2228,7 +2228,7 @@
         <v>44879</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>3</v>
@@ -2370,7 +2370,7 @@
         <v>44739</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>44509</v>
       </c>
       <c r="O21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>44644</v>
       </c>
       <c r="O24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P24">
         <v>3</v>
@@ -2796,7 +2796,7 @@
         <v>44851</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>44862</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>4</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N29" s="2">
-        <v>44567</v>
+        <v>44890</v>
       </c>
       <c r="O29">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P29">
         <v>2</v>
@@ -3226,11 +3226,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3331,7 +3331,7 @@
         <v>44861</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>44754</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>39042</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>44509</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3436,7 +3436,7 @@
         <v>44879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3471,7 +3471,7 @@
         <v>44851</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3497,16 +3497,16 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
-        <v>44498</v>
+        <v>44890</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3541,7 +3541,7 @@
         <v>44739</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3576,7 +3576,7 @@
         <v>44573</v>
       </c>
       <c r="K10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3602,16 +3602,16 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="3">
-        <v>44644</v>
+        <v>44890</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -3646,7 +3646,7 @@
         <v>44862</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>44733</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -3716,7 +3716,7 @@
         <v>44770</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>44657</v>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L15">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042A01BC-34FB-40EA-B171-C036769368D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CA244-170D-4B4A-9A54-13039F083710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -837,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
-  <dimension ref="B1:H14"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -963,7 +963,7 @@
         <v>Chris Chong</v>
       </c>
       <c r="C10" t="str" cm="1">
-        <f t="array" ref="C10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
+        <f t="array" ref="C10:C11" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
         <v>Vance Kang</v>
       </c>
       <c r="D10" t="str" cm="1">
@@ -975,14 +975,24 @@
         <v>Michael Sien</v>
       </c>
     </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C11" t="str">
+        <v>Lee Xuan Yen</v>
+      </c>
+    </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C14" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
         <v>Vance Kang</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
+        <v>Lee Xuan Yen</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C15" t="str">
         <v>Kang Mi</v>
       </c>
     </row>
@@ -996,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1151,7 +1161,7 @@
         <v>44817</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1222,7 +1232,7 @@
         <v>44692</v>
       </c>
       <c r="K4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4">
         <v>2</v>
@@ -1293,7 +1303,7 @@
         <v>44484</v>
       </c>
       <c r="K5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -1364,7 +1374,7 @@
         <v>44774</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1435,7 +1445,7 @@
         <v>44377</v>
       </c>
       <c r="K7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>2</v>
@@ -1506,7 +1516,7 @@
         <v>44490</v>
       </c>
       <c r="K8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1577,7 +1587,7 @@
         <v>44749</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1648,7 +1658,7 @@
         <v>44834</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1719,7 +1729,7 @@
         <v>44770</v>
       </c>
       <c r="K11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1790,7 +1800,7 @@
         <v>44873</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1846,7 +1856,7 @@
         <v>43804</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1861,7 +1871,7 @@
         <v>44879</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1932,7 +1942,7 @@
         <v>44620</v>
       </c>
       <c r="K14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2003,7 +2013,7 @@
         <v>44819</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2074,7 +2084,7 @@
         <v>44796</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -2145,7 +2155,7 @@
         <v>44809</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -2216,7 +2226,7 @@
         <v>44418</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L18">
         <v>2</v>
@@ -2287,7 +2297,7 @@
         <v>44837</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2358,7 +2368,7 @@
         <v>44420</v>
       </c>
       <c r="K20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2420,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="2">
-        <v>44376</v>
+        <v>44900</v>
       </c>
       <c r="K21">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2642,7 +2652,7 @@
         <v>44872</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2784,7 +2794,7 @@
         <v>44774</v>
       </c>
       <c r="K26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2997,7 +3007,7 @@
         <v>44855</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -3226,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17CA244-170D-4B4A-9A54-13039F083710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B093789A-8CA7-430C-A94F-81CFB12AB93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -1791,16 +1791,16 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="2">
-        <v>44873</v>
+        <v>44900</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1815,22 +1815,22 @@
         <v>17</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" s="2">
-        <v>44433</v>
+        <v>44900</v>
       </c>
       <c r="S12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U12" s="2">
-        <v>44873</v>
+        <v>44900</v>
       </c>
       <c r="V12">
         <v>1</v>
@@ -1871,7 +1871,7 @@
         <v>44879</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2430,16 +2430,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" s="2">
-        <v>44900</v>
+        <v>44376</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2714,16 +2714,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="2">
-        <v>44375</v>
+        <v>44902</v>
       </c>
       <c r="K25">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="L25">
         <v>2</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B093789A-8CA7-430C-A94F-81CFB12AB93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEDF55F-DD70-44E3-950A-830EDBEA66DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
@@ -972,7 +972,7 @@
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" ref="E10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
-        <v>Michael Sien</v>
+        <v>Woo Kwan Wye</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
@@ -1161,7 +1161,7 @@
         <v>44817</v>
       </c>
       <c r="K3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3">
         <v>3</v>
@@ -1265,7 +1265,7 @@
         <v>44861</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1374,7 +1374,7 @@
         <v>44774</v>
       </c>
       <c r="K6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1578,16 +1578,16 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>44749</v>
+        <v>44900</v>
       </c>
       <c r="K9">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1602,25 +1602,25 @@
         <v>13</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="R9" s="2">
+        <v>44900</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9" s="2">
-        <v>44749</v>
+        <v>44900</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>44834</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1729,7 +1729,7 @@
         <v>44770</v>
       </c>
       <c r="K11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>44770</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1791,16 +1791,16 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="2">
-        <v>44900</v>
+        <v>44873</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -1815,25 +1815,25 @@
         <v>17</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R12" s="2">
-        <v>44900</v>
+        <v>44433</v>
       </c>
       <c r="S12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U12" s="2">
-        <v>44900</v>
+        <v>44873</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -2013,7 +2013,7 @@
         <v>44819</v>
       </c>
       <c r="K15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>44796</v>
       </c>
       <c r="K16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L16">
         <v>4</v>
@@ -2117,7 +2117,7 @@
         <v>44796</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -2155,7 +2155,7 @@
         <v>44809</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17">
         <v>2</v>
@@ -2297,7 +2297,7 @@
         <v>44837</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>44837</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>44872</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -2794,7 +2794,7 @@
         <v>44774</v>
       </c>
       <c r="K26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>44855</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <v>3</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEDF55F-DD70-44E3-950A-830EDBEA66DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E66E05F-7BF6-4BCD-B431-B14B99DB42EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -93,11 +93,25 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
         </ext>
       </extLst>
     </bk>
@@ -107,16 +121,22 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>S/N</t>
   </si>
@@ -371,6 +391,15 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>&lt;10+complexlist</t>
+  </si>
+  <si>
+    <t>&lt;10+complex_ct_all</t>
+  </si>
+  <si>
+    <t>&lt;10+complex_ct</t>
   </si>
 </sst>
 </file>
@@ -445,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -454,11 +483,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -523,8 +563,18 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
+    <v>8</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>8</v>
+    <v>5</v>
+    <v>1</v>
+  </rv>
+  <rv s="2">
     <v>13</v>
     <v>3</v>
   </rv>
@@ -532,7 +582,17 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="subType" t="i"/>
@@ -837,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -875,33 +935,33 @@
       </c>
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="str">
-        <f xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
-        <v>Vance Kang</v>
-      </c>
-      <c r="C2">
-        <f>VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
-        <v>44490</v>
-      </c>
-      <c r="F2" s="2">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
-        <v>31140</v>
-      </c>
-      <c r="G2" s="2">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
-        <v>31140</v>
-      </c>
-      <c r="H2">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
-        <v>1</v>
+      <c r="B2" s="5" t="e" vm="1">
+        <f ca="1" xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e" vm="1">
+        <f ca="1">VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e" vm="1">
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" s="2" t="e" vm="1">
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="2" t="e" vm="1">
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" s="2" t="e" vm="1">
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" t="e" vm="1">
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -909,13 +969,13 @@
         <f>D10</f>
         <v>N/A</v>
       </c>
-      <c r="F3" s="2">
-        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
-        <v>44657</v>
-      </c>
-      <c r="H3">
-        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
-        <v>1</v>
+      <c r="F3" s="2" t="e" vm="1">
+        <f ca="1">VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" t="e" vm="1">
+        <f ca="1">VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -959,30 +1019,35 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="str" cm="1">
-        <f t="array" ref="B10" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
-        <v>Chris Chong</v>
-      </c>
-      <c r="C10" t="str" cm="1">
-        <f t="array" ref="C10:C11" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
-        <v>Vance Kang</v>
+        <f t="array" ref="B10:B12" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
+        <v>Thung Sek Kwang</v>
+      </c>
+      <c r="C10" t="e" cm="1" vm="2">
+        <f t="array" aca="1" ref="C10" ca="1" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10" xml:space="preserve"> IF(C7="Y", _xlfn._xlws.FILTER('PO GBW List'!$B$3:$B$15, 'PO GBW List'!$K$3:$K$15 = MAX(_xlfn._xlws.FILTER('PO GBW List'!$K$3:$K$15,  ('PO GBW List'!$L$3:$L$15=1))) * ('PO GBW List'!$L$3:$L$15 = 1)), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="E10" t="str" cm="1">
+      <c r="E10" t="e" cm="1" vm="3">
         <f t="array" ref="E10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
-        <v>Woo Kwan Wye</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C11" t="str">
-        <v>Lee Xuan Yen</v>
+      <c r="B11" t="str">
+        <v>Chris Chong</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="str">
+        <v>Joanne</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <f t="array" ref="C13:C18" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
         <v>Vance Kang</v>
       </c>
     </row>
@@ -993,7 +1058,22 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
+        <v>Yau Yen Nee</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C16" t="str">
         <v>Kang Mi</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C17" t="str">
+        <v>Chris Chong</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="str">
+        <v>Joanne</v>
       </c>
     </row>
   </sheetData>
@@ -1004,13 +1084,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:W29"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1041,7 +1121,7 @@
     <col min="24" max="24" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1058,7 +1138,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1077,59 +1157,68 @@
       <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>65</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>72</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>37</v>
       </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
         <v>68</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>82</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1152,55 +1241,64 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2">
-        <v>44817</v>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44829</v>
+      </c>
+      <c r="N3">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
         <v>44657</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>11</v>
       </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-      <c r="R3" s="2">
-        <v>44817</v>
-      </c>
       <c r="S3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U3" s="2">
+        <v>44829</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
         <v>31140</v>
       </c>
-      <c r="V3">
-        <v>8</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y3">
+        <v>9</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1223,55 +1321,64 @@
         <v>1</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2">
         <v>44692</v>
       </c>
-      <c r="K4">
-        <v>16</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="N4">
+        <v>18</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
         <v>44861</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>5</v>
       </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>44861</v>
-      </c>
       <c r="S4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U4" s="2">
         <v>44861</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="X4" s="2">
+        <v>44861</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1294,55 +1401,64 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2">
         <v>44484</v>
       </c>
-      <c r="K5">
-        <v>19</v>
-      </c>
-      <c r="L5">
+      <c r="N5">
+        <v>22</v>
+      </c>
+      <c r="O5">
         <v>4</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5" s="2">
-        <v>44890</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
       </c>
       <c r="P5">
         <v>4</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
+        <v>44890</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>4</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5" s="2">
         <v>44890</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>31140</v>
       </c>
-      <c r="V5">
-        <v>8</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y5">
+        <v>9</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1365,55 +1481,64 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
         <v>44774</v>
       </c>
-      <c r="K6">
-        <v>13</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>44448</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>16</v>
       </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6" s="2">
         <v>44774</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
         <v>31140</v>
       </c>
-      <c r="V6">
-        <v>8</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y6">
+        <v>9</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1436,55 +1561,64 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="N7">
+        <v>24</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="2">
         <v>44498</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>15</v>
       </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7" s="2">
         <v>43850</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>4</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>4</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>44377</v>
       </c>
-      <c r="V7">
-        <v>7</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1507,55 +1641,64 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2">
         <v>44490</v>
       </c>
-      <c r="K8">
-        <v>18</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2">
+      <c r="N8">
+        <v>21</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
         <v>31140</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>23</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="e" vm="1">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
         <v>31140</v>
       </c>
-      <c r="V8">
-        <v>8</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y8">
+        <v>9</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1578,55 +1721,64 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
         <v>44900</v>
       </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
         <v>44573</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>13</v>
       </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <v>44900</v>
-      </c>
       <c r="S9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2">
         <v>44900</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="X9" s="2">
+        <v>44900</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1649,55 +1801,64 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10" s="2">
-        <v>44834</v>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>2</v>
       </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="M10" s="2">
+        <v>44840</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2">
         <v>44733</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>10</v>
       </c>
-      <c r="P10">
-        <v>2</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2">
-        <v>44834</v>
-      </c>
       <c r="S10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U10" s="2">
+        <v>44840</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
         <v>31140</v>
       </c>
-      <c r="V10">
-        <v>8</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y10">
+        <v>9</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1720,55 +1881,64 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>7</v>
       </c>
-      <c r="J11" s="2">
+      <c r="M11" s="2">
+        <v>44869</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>44125</v>
+      </c>
+      <c r="R11">
+        <v>19</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11" s="2">
+        <v>44869</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="X11" s="2">
         <v>44770</v>
       </c>
-      <c r="K11">
-        <v>15</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2">
-        <v>44125</v>
-      </c>
-      <c r="O11">
-        <v>19</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2">
-        <v>43509</v>
-      </c>
-      <c r="S11">
-        <v>8</v>
-      </c>
-      <c r="T11">
-        <v>8</v>
-      </c>
-      <c r="U11" s="2">
-        <v>44770</v>
-      </c>
-      <c r="V11">
-        <v>6</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y11">
+        <v>7</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1791,55 +1961,64 @@
         <v>1</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>8</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>8</v>
       </c>
-      <c r="J12" s="2">
+      <c r="M12" s="2">
         <v>44873</v>
       </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2">
         <v>44368</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>17</v>
       </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-      <c r="R12" s="2">
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12" s="2">
         <v>44433</v>
       </c>
-      <c r="S12">
+      <c r="V12">
         <v>7</v>
       </c>
-      <c r="T12">
+      <c r="W12">
         <v>7</v>
       </c>
-      <c r="U12" s="2">
+      <c r="X12" s="2">
         <v>44873</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y12">
+        <v>2</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1862,55 +2041,64 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
         <v>44879</v>
       </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
         <v>31140</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>23</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2" t="e" vm="1">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
         <v>31140</v>
       </c>
-      <c r="V13">
-        <v>8</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y13">
+        <v>9</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1936,52 +2124,61 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
         <v>44620</v>
       </c>
-      <c r="K14">
-        <v>17</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
         <v>31140</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>23</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2" t="e" vm="1">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
         <v>31140</v>
       </c>
-      <c r="V14">
-        <v>8</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y14">
+        <v>9</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2004,55 +2201,64 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
         <v>44819</v>
       </c>
-      <c r="K15">
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>44770</v>
+      </c>
+      <c r="R15">
+        <v>7</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15" s="2">
+        <v>44819</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>31140</v>
+      </c>
+      <c r="Y15">
         <v>9</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15" s="2">
-        <v>44770</v>
-      </c>
-      <c r="O15">
-        <v>7</v>
-      </c>
-      <c r="P15">
-        <v>2</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-      <c r="R15" s="2">
-        <v>44819</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>31140</v>
-      </c>
-      <c r="V15">
-        <v>8</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2075,55 +2281,64 @@
         <v>1</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
         <v>7</v>
       </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16" s="2">
+        <v>44797</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>44754</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>4</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16" s="2">
+        <v>44797</v>
+      </c>
+      <c r="V16">
+        <v>9</v>
+      </c>
+      <c r="W16">
+        <v>9</v>
+      </c>
+      <c r="X16" s="2">
         <v>44796</v>
       </c>
-      <c r="K16">
-        <v>12</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16" s="2">
-        <v>44754</v>
-      </c>
-      <c r="O16">
-        <v>8</v>
-      </c>
-      <c r="P16">
-        <v>3</v>
-      </c>
-      <c r="Q16">
-        <v>3</v>
-      </c>
-      <c r="R16" s="2">
-        <v>44754</v>
-      </c>
-      <c r="S16">
-        <v>9</v>
-      </c>
-      <c r="T16">
-        <v>9</v>
-      </c>
-      <c r="U16" s="2">
-        <v>44796</v>
-      </c>
-      <c r="V16">
-        <v>5</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y16">
+        <v>6</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2146,55 +2361,64 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="2">
         <v>44809</v>
       </c>
-      <c r="K17">
-        <v>11</v>
-      </c>
-      <c r="L17">
-        <v>2</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="2">
         <v>44120</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>20</v>
       </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
-      </c>
-      <c r="R17" s="2">
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17" s="2">
         <v>44809</v>
       </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
         <v>31140</v>
       </c>
-      <c r="V17">
-        <v>8</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y17">
+        <v>9</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2217,55 +2441,64 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18" s="2">
         <v>44418</v>
       </c>
-      <c r="K18">
-        <v>21</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="N18">
+        <v>23</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2">
         <v>44879</v>
       </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2">
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18" s="2">
         <v>44879</v>
       </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
         <v>31140</v>
       </c>
-      <c r="V18">
-        <v>8</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y18">
+        <v>9</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2282,61 +2515,70 @@
         <v>43448</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19" s="2">
-        <v>44837</v>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="K19">
         <v>7</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
+        <v>7</v>
+      </c>
+      <c r="M19" s="2">
+        <v>44837</v>
+      </c>
+      <c r="N19">
+        <v>10</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
         <v>31140</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>23</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
       <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="2">
+        <v>44728</v>
+      </c>
+      <c r="V19">
         <v>7</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>7</v>
       </c>
-      <c r="U19" s="2">
+      <c r="X19" s="2">
         <v>44837</v>
       </c>
-      <c r="V19">
-        <v>4</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2359,55 +2601,64 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20" s="2">
-        <v>44420</v>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2">
+        <v>3</v>
+      </c>
+      <c r="M20" s="2">
+        <v>44645</v>
+      </c>
+      <c r="N20">
+        <v>19</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
         <v>44739</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>9</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="2">
+        <v>44645</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
         <v>31140</v>
       </c>
-      <c r="V20">
-        <v>8</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y20">
+        <v>9</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2430,55 +2681,64 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" s="2">
-        <v>44376</v>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2">
+        <v>44743</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
         <v>44509</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>14</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="2" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="2">
+        <v>44743</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
         <v>31140</v>
       </c>
-      <c r="V21">
-        <v>8</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y21">
+        <v>9</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2506,50 +2766,59 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
         <v>31140</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>26</v>
       </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22" s="2">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2">
         <v>44040</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>22</v>
       </c>
-      <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
         <v>44040</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
         <v>31140</v>
       </c>
-      <c r="V22">
-        <v>8</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y22">
+        <v>9</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2572,55 +2841,64 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
         <v>44165</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>25</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" s="2">
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="2">
         <v>44265</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>18</v>
       </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23" s="2">
         <v>44265</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
         <v>31140</v>
       </c>
-      <c r="V23">
-        <v>8</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y23">
+        <v>9</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2643,55 +2921,64 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>4</v>
       </c>
-      <c r="J24" s="2">
+      <c r="M24" s="2">
         <v>44872</v>
       </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24" s="2">
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2">
         <v>44644</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>12</v>
       </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24" s="2">
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>3</v>
+      </c>
+      <c r="U24" s="2">
         <v>44265</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
         <v>31140</v>
       </c>
-      <c r="V24">
-        <v>8</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y24">
+        <v>9</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2714,55 +3001,64 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" s="2">
         <v>44902</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="2">
         <v>44049</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>21</v>
       </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2">
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>2</v>
+      </c>
+      <c r="U25" s="2">
         <v>44049</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
         <v>31140</v>
       </c>
-      <c r="V25">
-        <v>8</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y25">
+        <v>9</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2785,55 +3081,64 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26" s="2">
         <v>44774</v>
       </c>
-      <c r="K26">
-        <v>13</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="N26">
+        <v>15</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
         <v>44851</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>6</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2" t="e" vm="1">
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
         <v>31140</v>
       </c>
-      <c r="V26">
-        <v>8</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y26">
+        <v>9</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2856,55 +3161,64 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27" s="2">
-        <v>44290</v>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27" s="2">
+        <v>3</v>
+      </c>
+      <c r="M27" s="2">
+        <v>44909</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="2">
         <v>44862</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>4</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" s="2" t="e" vm="1">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27" s="2" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2">
-        <v>31140</v>
-      </c>
       <c r="V27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X27" s="2">
+        <v>44862</v>
+      </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2927,55 +3241,64 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
         <v>31140</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>26</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
         <v>31140</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>23</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2" t="e" vm="1">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" s="2" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
         <v>31140</v>
       </c>
-      <c r="V28">
-        <v>8</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y28">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3003,60 +3326,69 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
         <v>44855</v>
       </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29" s="2">
+      <c r="N29">
+        <v>8</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="2">
         <v>44890</v>
       </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>2</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-      <c r="R29" s="2">
-        <v>44567</v>
+      <c r="R29">
+        <v>1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U29" s="2">
+        <v>44713</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
         <v>31140</v>
       </c>
-      <c r="V29">
-        <v>8</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Y29">
+        <v>9</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3162,12 +3494,24 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3:F29">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J29">
+  <conditionalFormatting sqref="M3:M29">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3179,7 +3523,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N30">
+  <conditionalFormatting sqref="Q3:Q29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3191,7 +3535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N29">
+  <conditionalFormatting sqref="Q3:Q29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3203,7 +3547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U29">
+  <conditionalFormatting sqref="X3:X29">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3215,7 +3559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R29">
+  <conditionalFormatting sqref="U3:U29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E66E05F-7BF6-4BCD-B431-B14B99DB42EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA71BC-C401-4DC4-9F3E-59E766759D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
@@ -488,17 +488,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -900,7 +890,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1086,11 +1076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,7 +1249,7 @@
         <v>44829</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1339,7 +1329,7 @@
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1372,7 +1362,7 @@
         <v>44861</v>
       </c>
       <c r="Y4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1419,7 +1409,7 @@
         <v>44484</v>
       </c>
       <c r="N5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -1499,7 +1489,7 @@
         <v>44774</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1579,7 +1569,7 @@
         <v>44377</v>
       </c>
       <c r="N7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1659,7 +1649,7 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1772,7 +1762,7 @@
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -2012,7 +2002,7 @@
         <v>44873</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2139,7 +2129,7 @@
         <v>44620</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2219,7 +2209,7 @@
         <v>44819</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2299,7 +2289,7 @@
         <v>44797</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2379,7 +2369,7 @@
         <v>44809</v>
       </c>
       <c r="N17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -2459,7 +2449,7 @@
         <v>44418</v>
       </c>
       <c r="N18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -2530,16 +2520,16 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" s="2">
-        <v>44837</v>
+        <v>44909</v>
       </c>
       <c r="N19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2563,16 +2553,16 @@
         <v>44728</v>
       </c>
       <c r="V19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X19" s="2">
-        <v>44837</v>
+        <v>44909</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2619,7 +2609,7 @@
         <v>44645</v>
       </c>
       <c r="N20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2699,7 +2689,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -3099,7 +3089,7 @@
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3170,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" s="2">
-        <v>44909</v>
+        <v>44290</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3212,7 +3202,7 @@
         <v>44862</v>
       </c>
       <c r="Y27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z27">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA71BC-C401-4DC4-9F3E-59E766759D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576EEBB4-5AD9-43F8-933A-D77FB741D8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
@@ -1080,7 +1080,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:Z29"/>
+      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,7 +1249,7 @@
         <v>44829</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1261,7 +1261,7 @@
         <v>44657</v>
       </c>
       <c r="R3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -1329,7 +1329,7 @@
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1341,7 +1341,7 @@
         <v>44861</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>44484</v>
       </c>
       <c r="N5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -1421,7 +1421,7 @@
         <v>44890</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1489,7 +1489,7 @@
         <v>44774</v>
       </c>
       <c r="N6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>44448</v>
       </c>
       <c r="R6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1569,7 +1569,7 @@
         <v>44377</v>
       </c>
       <c r="N7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1581,7 +1581,7 @@
         <v>44498</v>
       </c>
       <c r="R7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1649,7 +1649,7 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>44900</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1741,7 +1741,7 @@
         <v>44573</v>
       </c>
       <c r="R9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1809,7 +1809,7 @@
         <v>44840</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -1821,7 +1821,7 @@
         <v>44733</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -1889,7 +1889,7 @@
         <v>44869</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>44125</v>
       </c>
       <c r="R11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S11">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -1981,7 +1981,7 @@
         <v>44368</v>
       </c>
       <c r="R12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2049,7 +2049,7 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>44620</v>
       </c>
       <c r="N14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>44819</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>44770</v>
       </c>
       <c r="R15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2289,7 +2289,7 @@
         <v>44797</v>
       </c>
       <c r="N16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2301,7 +2301,7 @@
         <v>44754</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -2369,7 +2369,7 @@
         <v>44809</v>
       </c>
       <c r="N17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -2381,7 +2381,7 @@
         <v>44120</v>
       </c>
       <c r="R17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -2449,7 +2449,7 @@
         <v>44418</v>
       </c>
       <c r="N18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -2461,7 +2461,7 @@
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2529,7 +2529,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>44645</v>
       </c>
       <c r="N20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>44739</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S20">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2701,7 +2701,7 @@
         <v>44509</v>
       </c>
       <c r="R21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2861,7 +2861,7 @@
         <v>44265</v>
       </c>
       <c r="R23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -2929,7 +2929,7 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -2941,7 +2941,7 @@
         <v>44644</v>
       </c>
       <c r="R24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3009,19 +3009,19 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="2">
-        <v>44049</v>
+        <v>44918</v>
       </c>
       <c r="R25">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3089,7 +3089,7 @@
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3101,7 +3101,7 @@
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3160,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27" s="2">
-        <v>44290</v>
+        <v>44914</v>
       </c>
       <c r="N27">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3181,7 +3181,7 @@
         <v>44862</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>44855</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3341,7 +3341,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S29">
         <v>3</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576EEBB4-5AD9-43F8-933A-D77FB741D8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F49C5-7CE3-4306-A1F2-E9C116DA7C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
@@ -488,7 +488,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1080,7 +1090,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P40" sqref="P40"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1249,7 +1259,7 @@
         <v>44829</v>
       </c>
       <c r="N3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1329,7 +1339,7 @@
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1409,7 +1419,7 @@
         <v>44484</v>
       </c>
       <c r="N5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -1489,7 +1499,7 @@
         <v>44774</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1560,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2">
-        <v>44377</v>
+        <v>44923</v>
       </c>
       <c r="N7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1649,7 +1659,7 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1729,7 +1739,7 @@
         <v>44900</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1809,7 +1819,7 @@
         <v>44840</v>
       </c>
       <c r="N10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -1889,7 +1899,7 @@
         <v>44869</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1969,7 +1979,7 @@
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -2049,7 +2059,7 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2129,7 +2139,7 @@
         <v>44620</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2209,7 +2219,7 @@
         <v>44819</v>
       </c>
       <c r="N15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2289,7 +2299,7 @@
         <v>44797</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2369,7 +2379,7 @@
         <v>44809</v>
       </c>
       <c r="N17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -2449,7 +2459,7 @@
         <v>44418</v>
       </c>
       <c r="N18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -2529,7 +2539,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2594,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2606,10 +2616,10 @@
         <v>3</v>
       </c>
       <c r="M20" s="2">
-        <v>44645</v>
+        <v>44923</v>
       </c>
       <c r="N20">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2624,13 +2634,13 @@
         <v>10</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" s="2">
-        <v>44645</v>
+        <v>44923</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2689,7 +2699,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2929,7 +2939,7 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -3009,7 +3019,7 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3089,7 +3099,7 @@
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3169,7 +3179,7 @@
         <v>44914</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3329,7 +3339,7 @@
         <v>44855</v>
       </c>
       <c r="N29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3497,7 +3507,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F29">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F49C5-7CE3-4306-A1F2-E9C116DA7C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033F441-BDD4-4885-B99E-D344364F8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -93,7 +93,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -108,28 +108,18 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -488,17 +478,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -563,18 +543,12 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
-    <v>8</v>
+    <v>13</v>
     <v>1</v>
   </rv>
   <rv s="1">
-    <v>0</v>
-    <v>8</v>
-    <v>5</v>
-    <v>1</v>
-  </rv>
-  <rv s="2">
     <v>13</v>
     <v>3</v>
   </rv>
@@ -582,16 +556,10 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="propagated" t="b"/>
-  </s>
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
   </s>
   <s t="_error">
     <k n="errorType" t="i"/>
@@ -889,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -897,7 +865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
-  <dimension ref="B1:H18"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -936,31 +904,31 @@
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="e" vm="1">
-        <f ca="1" xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
+        <f xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" t="e" vm="1">
-        <f ca="1">VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
+        <f>VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2" s="2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F2" s="2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G2" s="2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -970,11 +938,11 @@
         <v>N/A</v>
       </c>
       <c r="F3" s="2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
+        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H3" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
+        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1019,61 +987,131 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="str" cm="1">
-        <f t="array" ref="B10:B12" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
+        <f t="array" ref="B10:B11" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
         <v>Thung Sek Kwang</v>
       </c>
       <c r="C10" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="C10" ca="1" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
+        <f t="array" ref="C10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" ref="D10" xml:space="preserve"> IF(C7="Y", _xlfn._xlws.FILTER('PO GBW List'!$B$3:$B$15, 'PO GBW List'!$K$3:$K$15 = MAX(_xlfn._xlws.FILTER('PO GBW List'!$K$3:$K$15,  ('PO GBW List'!$L$3:$L$15=1))) * ('PO GBW List'!$L$3:$L$15 = 1)), "N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="E10" t="e" cm="1" vm="3">
-        <f t="array" ref="E10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
-        <v>#VALUE!</v>
+      <c r="E10" t="str" cm="1">
+        <f t="array" ref="E10:E29" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
+        <v>Catherine Wong</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
-        <v>Chris Chong</v>
+        <v>Joanne</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <v>Ng Kay Beng</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" t="str">
-        <v>Joanne</v>
+      <c r="E12" s="2" t="str">
+        <v>Richard Lim</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C18" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <f t="array" ref="C13:C16" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <v>Lee Xuan Yen</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <v>Vance Kang</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
-        <v>Lee Xuan Yen</v>
+        <v>Yau Yen Nee</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <v>Lim Meng May</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
-        <v>Yau Yen Nee</v>
+        <v>Kang Mi</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <v>Lee Xuan Yen</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C16" t="str">
-        <v>Kang Mi</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C17" t="str">
+        <v>Joanne</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <v>Yau Yen Nee</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="2" t="str">
+        <v>Lim Leng Boon</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="2" t="str">
+        <v>Victor Tay</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="2" t="str">
+        <v>Yan Chong Hui</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="str">
+        <v>Bong Sell Feng</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="2" t="str">
+        <v>Santoso</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="2" t="str">
+        <v>Thung Sek Kwang</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="2" t="str">
+        <v>Tran Chi Trung</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="2" t="str">
+        <v>Zhao Zhe</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="2" t="str">
+        <v>Jimmy Wong</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="2" t="str">
+        <v>Willie Chai</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="2" t="str">
         <v>Chris Chong</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" t="str">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="2" t="str">
         <v>Joanne</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="2" t="str">
+        <v>Chang Heng Choy</v>
       </c>
     </row>
   </sheetData>
@@ -1086,11 +1124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1259,7 +1297,7 @@
         <v>44829</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -1271,7 +1309,7 @@
         <v>44657</v>
       </c>
       <c r="R3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -1339,7 +1377,7 @@
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1351,7 +1389,7 @@
         <v>44861</v>
       </c>
       <c r="R4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1419,7 +1457,7 @@
         <v>44484</v>
       </c>
       <c r="N5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -1431,7 +1469,7 @@
         <v>44890</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1499,7 +1537,7 @@
         <v>44774</v>
       </c>
       <c r="N6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -1511,7 +1549,7 @@
         <v>44448</v>
       </c>
       <c r="R6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1555,7 +1593,7 @@
         <v>42013</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1579,7 +1617,7 @@
         <v>44923</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1591,7 +1629,7 @@
         <v>44498</v>
       </c>
       <c r="R7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1659,19 +1697,19 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>31140</v>
+        <v>44942</v>
       </c>
       <c r="R8">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1679,7 +1717,7 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" s="2" t="e" vm="3">
+      <c r="U8" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V8">
@@ -1739,7 +1777,7 @@
         <v>44900</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1751,7 +1789,7 @@
         <v>44573</v>
       </c>
       <c r="R9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1772,7 +1810,7 @@
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1819,7 +1857,7 @@
         <v>44840</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -1831,7 +1869,7 @@
         <v>44733</v>
       </c>
       <c r="R10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -1899,7 +1937,7 @@
         <v>44869</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1911,7 +1949,7 @@
         <v>44125</v>
       </c>
       <c r="R11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S11">
         <v>2</v>
@@ -1979,7 +2017,7 @@
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -1991,7 +2029,7 @@
         <v>44368</v>
       </c>
       <c r="R12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2012,7 +2050,7 @@
         <v>44873</v>
       </c>
       <c r="Y12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2059,7 +2097,7 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2071,7 +2109,7 @@
         <v>31140</v>
       </c>
       <c r="R13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2079,7 +2117,7 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" s="2" t="e" vm="3">
+      <c r="U13" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V13">
@@ -2139,7 +2177,7 @@
         <v>44620</v>
       </c>
       <c r="N14">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2151,7 +2189,7 @@
         <v>31140</v>
       </c>
       <c r="R14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2159,7 +2197,7 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" s="2" t="e" vm="3">
+      <c r="U14" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V14">
@@ -2219,7 +2257,7 @@
         <v>44819</v>
       </c>
       <c r="N15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -2231,7 +2269,7 @@
         <v>44770</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2299,7 +2337,7 @@
         <v>44797</v>
       </c>
       <c r="N16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2311,7 +2349,7 @@
         <v>44754</v>
       </c>
       <c r="R16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -2379,7 +2417,7 @@
         <v>44809</v>
       </c>
       <c r="N17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -2391,7 +2429,7 @@
         <v>44120</v>
       </c>
       <c r="R17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -2459,7 +2497,7 @@
         <v>44418</v>
       </c>
       <c r="N18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O18">
         <v>2</v>
@@ -2471,7 +2509,7 @@
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2539,7 +2577,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2551,7 +2589,7 @@
         <v>31140</v>
       </c>
       <c r="R19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -2572,7 +2610,7 @@
         <v>44909</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2619,7 +2657,7 @@
         <v>44923</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2631,7 +2669,7 @@
         <v>44739</v>
       </c>
       <c r="R20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S20">
         <v>2</v>
@@ -2699,7 +2737,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2711,7 +2749,7 @@
         <v>44509</v>
       </c>
       <c r="R21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2779,7 +2817,7 @@
         <v>31140</v>
       </c>
       <c r="N22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2791,7 +2829,7 @@
         <v>44040</v>
       </c>
       <c r="R22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2859,7 +2897,7 @@
         <v>44165</v>
       </c>
       <c r="N23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -2871,7 +2909,7 @@
         <v>44265</v>
       </c>
       <c r="R23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -2939,7 +2977,7 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -2951,7 +2989,7 @@
         <v>44644</v>
       </c>
       <c r="R24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3019,7 +3057,7 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3031,7 +3069,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3099,7 +3137,7 @@
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3111,7 +3149,7 @@
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3119,7 +3157,7 @@
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26" s="2" t="e" vm="3">
+      <c r="U26" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V26">
@@ -3179,7 +3217,7 @@
         <v>44914</v>
       </c>
       <c r="N27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3191,7 +3229,7 @@
         <v>44862</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3199,20 +3237,20 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27" s="2" t="e" vm="3">
+      <c r="U27" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2">
-        <v>44862</v>
+        <v>31140</v>
       </c>
       <c r="Y27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -3250,16 +3288,16 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>31140</v>
+        <v>44938</v>
       </c>
       <c r="N28">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3271,7 +3309,7 @@
         <v>31140</v>
       </c>
       <c r="R28">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3279,20 +3317,20 @@
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="2" t="e" vm="3">
+      <c r="U28" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2">
-        <v>31140</v>
+        <v>44938</v>
       </c>
       <c r="Y28">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3339,7 +3377,7 @@
         <v>44855</v>
       </c>
       <c r="N29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3351,7 +3389,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -3507,7 +3545,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F29">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3580,11 +3618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3685,7 +3723,7 @@
         <v>44861</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3720,7 +3758,7 @@
         <v>44754</v>
       </c>
       <c r="K4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3790,7 +3828,7 @@
         <v>44879</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3825,7 +3863,7 @@
         <v>44851</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3860,7 +3898,7 @@
         <v>44890</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3895,7 +3933,7 @@
         <v>44739</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3921,16 +3959,16 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>44573</v>
+        <v>44918</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -3965,7 +4003,7 @@
         <v>44890</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4000,7 +4038,7 @@
         <v>44862</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4026,16 +4064,16 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>44733</v>
+        <v>44942</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4070,7 +4108,7 @@
         <v>44770</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -4105,7 +4143,7 @@
         <v>44657</v>
       </c>
       <c r="K15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L15">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033F441-BDD4-4885-B99E-D344364F8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03934D54-A98B-47B9-AB60-BD32334449B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
@@ -1128,7 +1128,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1309,7 +1309,7 @@
         <v>44657</v>
       </c>
       <c r="R3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -1389,7 +1389,7 @@
         <v>44861</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>44890</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1549,7 +1549,7 @@
         <v>44448</v>
       </c>
       <c r="R6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1629,7 +1629,7 @@
         <v>44498</v>
       </c>
       <c r="R7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>44573</v>
       </c>
       <c r="R9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>44733</v>
       </c>
       <c r="R10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -1949,7 +1949,7 @@
         <v>44125</v>
       </c>
       <c r="R11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S11">
         <v>2</v>
@@ -2029,7 +2029,7 @@
         <v>44368</v>
       </c>
       <c r="R12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2269,7 +2269,7 @@
         <v>44770</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2349,7 +2349,7 @@
         <v>44754</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -2420,25 +2420,25 @@
         <v>16</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="2">
-        <v>44120</v>
+        <v>44946</v>
       </c>
       <c r="R17">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U17" s="2">
-        <v>44809</v>
+        <v>44946</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2669,7 +2669,7 @@
         <v>44739</v>
       </c>
       <c r="R20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S20">
         <v>2</v>
@@ -2749,7 +2749,7 @@
         <v>44509</v>
       </c>
       <c r="R21">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>44265</v>
       </c>
       <c r="R23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -2989,7 +2989,7 @@
         <v>44644</v>
       </c>
       <c r="R24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3069,7 +3069,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3149,7 +3149,7 @@
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>44862</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3389,7 +3389,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -3622,7 +3622,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3723,7 +3723,7 @@
         <v>44861</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3758,7 +3758,7 @@
         <v>44754</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3784,16 +3784,16 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>44509</v>
+        <v>44946</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3828,7 +3828,7 @@
         <v>44879</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3863,7 +3863,7 @@
         <v>44851</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3898,7 +3898,7 @@
         <v>44890</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>44739</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3968,7 +3968,7 @@
         <v>44918</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>44890</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4038,7 +4038,7 @@
         <v>44862</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         <v>44942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4108,7 +4108,7 @@
         <v>44770</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>44657</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03934D54-A98B-47B9-AB60-BD32334449B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABFB1E7-657A-414A-A862-08D4366F776A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -1018,8 +1018,8 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C16" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
-        <v>Lee Xuan Yen</v>
+        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <v>Yau Yen Nee</v>
       </c>
       <c r="E13" s="2" t="str">
         <v>Vance Kang</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
-        <v>Yau Yen Nee</v>
+        <v>Kang Mi</v>
       </c>
       <c r="E14" s="2" t="str">
         <v>Lim Meng May</v>
@@ -1035,16 +1035,13 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
-        <v>Kang Mi</v>
+        <v>Joanne</v>
       </c>
       <c r="E15" s="2" t="str">
         <v>Lee Xuan Yen</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C16" t="str">
-        <v>Joanne</v>
-      </c>
       <c r="E16" s="2" t="str">
         <v>Yau Yen Nee</v>
       </c>
@@ -1124,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1410,7 +1407,7 @@
         <v>44861</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1617,7 +1614,7 @@
         <v>44923</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>2</v>
@@ -1777,7 +1774,7 @@
         <v>44900</v>
       </c>
       <c r="N9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1810,7 +1807,7 @@
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1928,16 +1925,16 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M11" s="2">
-        <v>44869</v>
+        <v>44951</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1952,25 +1949,25 @@
         <v>22</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" s="2">
-        <v>44869</v>
+        <v>44951</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2">
-        <v>44770</v>
+        <v>44951</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -2017,7 +2014,7 @@
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -2050,7 +2047,7 @@
         <v>44873</v>
       </c>
       <c r="Y12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2097,28 +2094,28 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>31140</v>
+        <v>44946</v>
       </c>
       <c r="R13">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>44946</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2189,7 +2186,7 @@
         <v>31140</v>
       </c>
       <c r="R14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2370,7 +2367,7 @@
         <v>44796</v>
       </c>
       <c r="Y16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2420,25 +2417,25 @@
         <v>16</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="2">
-        <v>44946</v>
+        <v>44120</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17" s="2">
-        <v>44946</v>
+        <v>44809</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2577,7 +2574,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2589,7 +2586,7 @@
         <v>31140</v>
       </c>
       <c r="R19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -2610,7 +2607,7 @@
         <v>44909</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2657,7 +2654,7 @@
         <v>44923</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2829,7 +2826,7 @@
         <v>44040</v>
       </c>
       <c r="R22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2977,7 +2974,7 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24">
         <v>2</v>
@@ -3057,7 +3054,7 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3217,7 +3214,7 @@
         <v>44914</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3297,7 +3294,7 @@
         <v>44938</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3309,7 +3306,7 @@
         <v>31140</v>
       </c>
       <c r="R28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3330,7 +3327,7 @@
         <v>44938</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3618,7 +3615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,56 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABFB1E7-657A-414A-A862-08D4366F776A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE4B975-90AB-4D99-9537-BEA533841728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
-    <sheet name="Assignment" sheetId="6" r:id="rId1"/>
-    <sheet name="PO List" sheetId="1" r:id="rId2"/>
-    <sheet name="PO GBW List" sheetId="4" r:id="rId3"/>
+    <sheet name="PO List" sheetId="1" r:id="rId1"/>
+    <sheet name="PO GBW List" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Assignment!$A$2</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Assignment!$C$5</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Assignment!#REF!</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Assignment!$B$10</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'PO List'!$H$33</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Assignment!$J$5</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'PO List'!$H$33</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,20 +46,10 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="1">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -101,32 +57,17 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="1"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <cellMetadata count="1">
+  <valueMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
     <t>S/N</t>
   </si>
@@ -353,34 +294,7 @@
     <t>30_storey_all</t>
   </si>
   <si>
-    <t>COMPLEX</t>
-  </si>
-  <si>
-    <t>10-Storey</t>
-  </si>
-  <si>
-    <t>30-Storey</t>
-  </si>
-  <si>
-    <t>GBW</t>
-  </si>
-  <si>
-    <t>PPVC</t>
-  </si>
-  <si>
-    <t>Yrs_of Exp</t>
-  </si>
-  <si>
-    <t>PPVC_list</t>
-  </si>
-  <si>
     <t>ppvc_next</t>
-  </si>
-  <si>
-    <t>30-storey</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>&lt;10+complexlist</t>
@@ -400,7 +314,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,16 +322,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,14 +336,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -445,34 +345,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -543,12 +424,8 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <rv s="0">
-    <v>13</v>
-    <v>1</v>
-  </rv>
-  <rv s="1">
     <v>13</v>
     <v>3</v>
   </rv>
@@ -556,11 +433,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="propagated" t="b"/>
-  </s>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="subType" t="i"/>
@@ -864,260 +737,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
-  <dimension ref="B1:H29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="21.1796875" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="e" vm="1">
-        <f xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" t="e" vm="1">
-        <f>VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" s="2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="5" t="str">
-        <f>D10</f>
-        <v>N/A</v>
-      </c>
-      <c r="F3" s="2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" t="str" cm="1">
-        <f t="array" ref="B10:B11" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
-        <v>Thung Sek Kwang</v>
-      </c>
-      <c r="C10" t="e" cm="1" vm="2">
-        <f t="array" ref="C10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D10" t="str" cm="1">
-        <f t="array" ref="D10" xml:space="preserve"> IF(C7="Y", _xlfn._xlws.FILTER('PO GBW List'!$B$3:$B$15, 'PO GBW List'!$K$3:$K$15 = MAX(_xlfn._xlws.FILTER('PO GBW List'!$K$3:$K$15,  ('PO GBW List'!$L$3:$L$15=1))) * ('PO GBW List'!$L$3:$L$15 = 1)), "N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="E10" t="str" cm="1">
-        <f t="array" ref="E10:E29" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
-        <v>Catherine Wong</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" t="str">
-        <v>Joanne</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <v>Ng Kay Beng</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E12" s="2" t="str">
-        <v>Richard Lim</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
-        <v>Yau Yen Nee</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <v>Vance Kang</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C14" t="str">
-        <v>Kang Mi</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <v>Lim Meng May</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C15" t="str">
-        <v>Joanne</v>
-      </c>
-      <c r="E15" s="2" t="str">
-        <v>Lee Xuan Yen</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E16" s="2" t="str">
-        <v>Yau Yen Nee</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" s="2" t="str">
-        <v>Lim Leng Boon</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E18" s="2" t="str">
-        <v>Victor Tay</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E19" s="2" t="str">
-        <v>Yan Chong Hui</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E20" s="2" t="str">
-        <v>Bong Sell Feng</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E21" s="2" t="str">
-        <v>Santoso</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E22" s="2" t="str">
-        <v>Thung Sek Kwang</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E23" s="2" t="str">
-        <v>Tran Chi Trung</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E24" s="2" t="str">
-        <v>Zhao Zhe</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E25" s="2" t="str">
-        <v>Jimmy Wong</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E26" s="2" t="str">
-        <v>Willie Chai</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E27" s="2" t="str">
-        <v>Chris Chong</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E28" s="2" t="str">
-        <v>Joanne</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E29" s="2" t="str">
-        <v>Chang Heng Choy</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
@@ -1125,7 +744,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
+      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,17 +811,17 @@
       <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>85</v>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
         <v>64</v>
@@ -1247,7 +866,7 @@
         <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
         <v>69</v>
@@ -1294,16 +913,16 @@
         <v>44829</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="2">
-        <v>44657</v>
+        <v>44817</v>
       </c>
       <c r="R3">
         <v>14</v>
@@ -1374,7 +993,7 @@
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1386,7 +1005,7 @@
         <v>44861</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1454,19 +1073,19 @@
         <v>44484</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="2">
         <v>44890</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1531,22 +1150,22 @@
         <v>3</v>
       </c>
       <c r="M6" s="2">
+        <v>44385</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
         <v>44774</v>
       </c>
-      <c r="N6">
-        <v>18</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>44448</v>
-      </c>
       <c r="R6">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1614,19 +1233,19 @@
         <v>44923</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="2">
         <v>44498</v>
       </c>
       <c r="R7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1694,7 +1313,7 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1706,7 +1325,7 @@
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1714,7 +1333,7 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" s="2" t="e" vm="2">
+      <c r="U8" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="V8">
@@ -1771,22 +1390,22 @@
         <v>2</v>
       </c>
       <c r="M9" s="2">
+        <v>44749</v>
+      </c>
+      <c r="N9">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
         <v>44900</v>
       </c>
-      <c r="N9">
-        <v>8</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>44573</v>
-      </c>
       <c r="R9">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1854,19 +1473,19 @@
         <v>44840</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="2">
-        <v>44733</v>
+        <v>44834</v>
       </c>
       <c r="R10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -1931,22 +1550,22 @@
         <v>8</v>
       </c>
       <c r="M11" s="2">
+        <v>44869</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="2">
         <v>44951</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>44125</v>
-      </c>
       <c r="R11">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -2014,19 +1633,19 @@
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="2">
-        <v>44368</v>
+        <v>44433</v>
       </c>
       <c r="R12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2094,7 +1713,7 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -2106,7 +1725,7 @@
         <v>44946</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -2174,7 +1793,7 @@
         <v>44620</v>
       </c>
       <c r="N14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2194,7 +1813,7 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" s="2" t="e" vm="2">
+      <c r="U14" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="V14">
@@ -2251,22 +1870,22 @@
         <v>3</v>
       </c>
       <c r="M15" s="2">
+        <v>44182</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
         <v>44819</v>
       </c>
-      <c r="N15">
-        <v>15</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>44770</v>
-      </c>
       <c r="R15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2334,7 +1953,7 @@
         <v>44797</v>
       </c>
       <c r="N16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2346,7 +1965,7 @@
         <v>44754</v>
       </c>
       <c r="R16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -2411,22 +2030,22 @@
         <v>3</v>
       </c>
       <c r="M17" s="2">
+        <v>44260</v>
+      </c>
+      <c r="N17">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2">
         <v>44809</v>
       </c>
-      <c r="N17">
-        <v>16</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>44120</v>
-      </c>
       <c r="R17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -2491,22 +2110,22 @@
         <v>3</v>
       </c>
       <c r="M18" s="2">
-        <v>44418</v>
+        <v>44328</v>
       </c>
       <c r="N18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="2">
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2574,7 +2193,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2654,7 +2273,7 @@
         <v>44923</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2666,7 +2285,7 @@
         <v>44739</v>
       </c>
       <c r="R20">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S20">
         <v>2</v>
@@ -2734,7 +2353,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2746,7 +2365,7 @@
         <v>44509</v>
       </c>
       <c r="R21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2814,7 +2433,7 @@
         <v>31140</v>
       </c>
       <c r="N22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2891,22 +2510,22 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>44165</v>
+        <v>31140</v>
       </c>
       <c r="N23">
         <v>26</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="2">
         <v>44265</v>
       </c>
       <c r="R23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -2974,19 +2593,19 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="2">
         <v>44644</v>
       </c>
       <c r="R24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3054,7 +2673,7 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3066,7 +2685,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3134,7 +2753,7 @@
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3146,7 +2765,7 @@
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3154,7 +2773,7 @@
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26" s="2" t="e" vm="2">
+      <c r="U26" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="V26">
@@ -3214,7 +2833,7 @@
         <v>44914</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3226,7 +2845,7 @@
         <v>44862</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3234,7 +2853,7 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27" s="2" t="e" vm="2">
+      <c r="U27" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="V27">
@@ -3294,7 +2913,7 @@
         <v>44938</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3314,7 +2933,7 @@
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="2" t="e" vm="2">
+      <c r="U28" s="2" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="V28">
@@ -3330,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
@@ -3374,7 +2993,7 @@
         <v>44855</v>
       </c>
       <c r="N29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3386,7 +3005,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -3611,7 +3230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,29 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE4B975-90AB-4D99-9537-BEA533841728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36D427B-8203-4E64-A7DD-97F82519E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
-    <sheet name="PO List" sheetId="1" r:id="rId1"/>
-    <sheet name="PO GBW List" sheetId="4" r:id="rId2"/>
+    <sheet name="Assignment" sheetId="6" r:id="rId1"/>
+    <sheet name="PO List" sheetId="1" r:id="rId2"/>
+    <sheet name="PO GBW List" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Assignment!$A$2</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Assignment!$C$5</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Assignment!#REF!</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'PO List'!$H$33</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Assignment!$B$10</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'PO List'!$H$33</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Assignment!$J$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,10 +80,20 @@
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -57,17 +101,32 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="1">
+  <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>S/N</t>
   </si>
@@ -294,7 +353,34 @@
     <t>30_storey_all</t>
   </si>
   <si>
+    <t>COMPLEX</t>
+  </si>
+  <si>
+    <t>10-Storey</t>
+  </si>
+  <si>
+    <t>30-Storey</t>
+  </si>
+  <si>
+    <t>GBW</t>
+  </si>
+  <si>
+    <t>PPVC</t>
+  </si>
+  <si>
+    <t>Yrs_of Exp</t>
+  </si>
+  <si>
+    <t>PPVC_list</t>
+  </si>
+  <si>
     <t>ppvc_next</t>
+  </si>
+  <si>
+    <t>30-storey</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>&lt;10+complexlist</t>
@@ -314,7 +400,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +408,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +430,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -345,15 +445,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -424,8 +543,12 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
+    <v>13</v>
+    <v>1</v>
+  </rv>
+  <rv s="1">
     <v>13</v>
     <v>3</v>
   </rv>
@@ -433,7 +556,11 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="errorType" t="i"/>
+    <k n="propagated" t="b"/>
+  </s>
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="subType" t="i"/>
@@ -730,13 +857,267 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
+  <dimension ref="B1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="e" vm="1">
+        <f xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C2" t="e" vm="1">
+        <f>VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="e" vm="1">
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E2" s="2" t="e" vm="1">
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="2" t="e" vm="1">
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" s="2" t="e" vm="1">
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H2" t="e" vm="1">
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="5" t="str">
+        <f>D10</f>
+        <v>N/A</v>
+      </c>
+      <c r="F3" s="2" t="e" vm="1">
+        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H3" t="e" vm="1">
+        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="str" cm="1">
+        <f t="array" ref="B10:B11" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
+        <v>Thung Sek Kwang</v>
+      </c>
+      <c r="C10" t="e" cm="1" vm="2">
+        <f t="array" ref="C10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" ref="D10" xml:space="preserve"> IF(C7="Y", _xlfn._xlws.FILTER('PO GBW List'!$B$3:$B$15, 'PO GBW List'!$K$3:$K$15 = MAX(_xlfn._xlws.FILTER('PO GBW List'!$K$3:$K$15,  ('PO GBW List'!$L$3:$L$15=1))) * ('PO GBW List'!$L$3:$L$15 = 1)), "N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="E10" t="str" cm="1">
+        <f t="array" ref="E10:E29" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
+        <v>Catherine Wong</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="str">
+        <v>Joanne</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <v>Ng Kay Beng</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E12" s="2" t="str">
+        <v>Richard Lim</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C13" t="str" cm="1">
+        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <v>Yau Yen Nee</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <v>Vance Kang</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C14" t="str">
+        <v>Kang Mi</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <v>Lim Meng May</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C15" t="str">
+        <v>Joanne</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <v>Lee Xuan Yen</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E16" s="2" t="str">
+        <v>Yau Yen Nee</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="2" t="str">
+        <v>Lim Leng Boon</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="2" t="str">
+        <v>Victor Tay</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="2" t="str">
+        <v>Yan Chong Hui</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="str">
+        <v>Bong Sell Feng</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="2" t="str">
+        <v>Santoso</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="2" t="str">
+        <v>Thung Sek Kwang</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="2" t="str">
+        <v>Tran Chi Trung</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="2" t="str">
+        <v>Zhao Zhe</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="2" t="str">
+        <v>Jimmy Wong</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="2" t="str">
+        <v>Willie Chai</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="2" t="str">
+        <v>Chris Chong</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="2" t="str">
+        <v>Joanne</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="2" t="str">
+        <v>Chang Heng Choy</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
@@ -744,7 +1125,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R32" sqref="R32"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,17 +1192,17 @@
       <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>76</v>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
         <v>64</v>
@@ -866,7 +1247,7 @@
         <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Z2" t="s">
         <v>69</v>
@@ -1333,7 +1714,7 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" s="2" t="e" vm="1">
+      <c r="U8" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V8">
@@ -1813,7 +2194,7 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" s="2" t="e" vm="1">
+      <c r="U14" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V14">
@@ -2773,7 +3154,7 @@
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="U26" s="2" t="e" vm="1">
+      <c r="U26" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V26">
@@ -2853,7 +3234,7 @@
       <c r="T27">
         <v>0</v>
       </c>
-      <c r="U27" s="2" t="e" vm="1">
+      <c r="U27" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V27">
@@ -2933,7 +3314,7 @@
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="2" t="e" vm="1">
+      <c r="U28" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V28">
@@ -3230,7 +3611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36D427B-8203-4E64-A7DD-97F82519E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033F441-BDD4-4885-B99E-D344364F8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -857,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,8 +1018,8 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
-        <v>Yau Yen Nee</v>
+        <f t="array" ref="C13:C16" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <v>Lee Xuan Yen</v>
       </c>
       <c r="E13" s="2" t="str">
         <v>Vance Kang</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
-        <v>Kang Mi</v>
+        <v>Yau Yen Nee</v>
       </c>
       <c r="E14" s="2" t="str">
         <v>Lim Meng May</v>
@@ -1035,13 +1035,16 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
-        <v>Joanne</v>
+        <v>Kang Mi</v>
       </c>
       <c r="E15" s="2" t="str">
         <v>Lee Xuan Yen</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C16" t="str">
+        <v>Joanne</v>
+      </c>
       <c r="E16" s="2" t="str">
         <v>Yau Yen Nee</v>
       </c>
@@ -1121,11 +1124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
+      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,19 +1297,19 @@
         <v>44829</v>
       </c>
       <c r="N3">
+        <v>14</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>44657</v>
+      </c>
+      <c r="R3">
         <v>13</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>44817</v>
-      </c>
-      <c r="R3">
-        <v>14</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -1374,7 +1377,7 @@
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1386,7 +1389,7 @@
         <v>44861</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1407,7 +1410,7 @@
         <v>44861</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1454,19 +1457,19 @@
         <v>44484</v>
       </c>
       <c r="N5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="2">
         <v>44890</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1531,22 +1534,22 @@
         <v>3</v>
       </c>
       <c r="M6" s="2">
-        <v>44385</v>
+        <v>44774</v>
       </c>
       <c r="N6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>44774</v>
+        <v>44448</v>
       </c>
       <c r="R6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1617,16 +1620,16 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="2">
         <v>44498</v>
       </c>
       <c r="R7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1694,7 +1697,7 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1706,7 +1709,7 @@
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1771,22 +1774,22 @@
         <v>2</v>
       </c>
       <c r="M9" s="2">
-        <v>44749</v>
+        <v>44900</v>
       </c>
       <c r="N9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>44900</v>
+        <v>44573</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1807,7 +1810,7 @@
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1854,16 +1857,16 @@
         <v>44840</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="2">
-        <v>44834</v>
+        <v>44733</v>
       </c>
       <c r="R10">
         <v>12</v>
@@ -1925,49 +1928,49 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" s="2">
         <v>44869</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>44951</v>
+        <v>44125</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11" s="2">
-        <v>44951</v>
+        <v>44869</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X11" s="2">
-        <v>44951</v>
+        <v>44770</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -2014,19 +2017,19 @@
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12" s="2">
-        <v>44433</v>
+        <v>44368</v>
       </c>
       <c r="R12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2047,7 +2050,7 @@
         <v>44873</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2094,28 +2097,28 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>44946</v>
+        <v>31140</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>44946</v>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2174,7 +2177,7 @@
         <v>44620</v>
       </c>
       <c r="N14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2186,7 +2189,7 @@
         <v>31140</v>
       </c>
       <c r="R14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2251,22 +2254,22 @@
         <v>3</v>
       </c>
       <c r="M15" s="2">
-        <v>44182</v>
+        <v>44819</v>
       </c>
       <c r="N15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>44819</v>
+        <v>44770</v>
       </c>
       <c r="R15">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2334,7 +2337,7 @@
         <v>44797</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2346,7 +2349,7 @@
         <v>44754</v>
       </c>
       <c r="R16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -2367,7 +2370,7 @@
         <v>44796</v>
       </c>
       <c r="Y16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2411,22 +2414,22 @@
         <v>3</v>
       </c>
       <c r="M17" s="2">
-        <v>44260</v>
+        <v>44809</v>
       </c>
       <c r="N17">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="2">
-        <v>44809</v>
+        <v>44120</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -2491,22 +2494,22 @@
         <v>3</v>
       </c>
       <c r="M18" s="2">
-        <v>44328</v>
+        <v>44418</v>
       </c>
       <c r="N18">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="2">
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2586,7 +2589,7 @@
         <v>31140</v>
       </c>
       <c r="R19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -2607,7 +2610,7 @@
         <v>44909</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2666,7 +2669,7 @@
         <v>44739</v>
       </c>
       <c r="R20">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S20">
         <v>2</v>
@@ -2734,7 +2737,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2746,7 +2749,7 @@
         <v>44509</v>
       </c>
       <c r="R21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2814,7 +2817,7 @@
         <v>31140</v>
       </c>
       <c r="N22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2826,7 +2829,7 @@
         <v>44040</v>
       </c>
       <c r="R22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2891,22 +2894,22 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>31140</v>
+        <v>44165</v>
       </c>
       <c r="N23">
         <v>26</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>44265</v>
       </c>
       <c r="R23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -2974,19 +2977,19 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="2">
         <v>44644</v>
       </c>
       <c r="R24">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3066,7 +3069,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3134,7 +3137,7 @@
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3146,7 +3149,7 @@
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3226,7 +3229,7 @@
         <v>44862</v>
       </c>
       <c r="R27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3306,7 +3309,7 @@
         <v>31140</v>
       </c>
       <c r="R28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3327,10 +3330,10 @@
         <v>44938</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
@@ -3374,7 +3377,7 @@
         <v>44855</v>
       </c>
       <c r="N29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3386,7 +3389,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -3615,11 +3618,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:L15"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3720,7 +3723,7 @@
         <v>44861</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3755,7 +3758,7 @@
         <v>44754</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3781,16 +3784,16 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
-        <v>44946</v>
+        <v>44509</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3825,7 +3828,7 @@
         <v>44879</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3860,7 +3863,7 @@
         <v>44851</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3895,7 +3898,7 @@
         <v>44890</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3930,7 +3933,7 @@
         <v>44739</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3965,7 +3968,7 @@
         <v>44918</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4000,7 +4003,7 @@
         <v>44890</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4035,7 +4038,7 @@
         <v>44862</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4070,7 +4073,7 @@
         <v>44942</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4105,7 +4108,7 @@
         <v>44770</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -4140,7 +4143,7 @@
         <v>44657</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1033F441-BDD4-4885-B99E-D344364F8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36D427B-8203-4E64-A7DD-97F82519E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -857,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1018,8 +1018,8 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C16" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
-        <v>Lee Xuan Yen</v>
+        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <v>Yau Yen Nee</v>
       </c>
       <c r="E13" s="2" t="str">
         <v>Vance Kang</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
-        <v>Yau Yen Nee</v>
+        <v>Kang Mi</v>
       </c>
       <c r="E14" s="2" t="str">
         <v>Lim Meng May</v>
@@ -1035,16 +1035,13 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
-        <v>Kang Mi</v>
+        <v>Joanne</v>
       </c>
       <c r="E15" s="2" t="str">
         <v>Lee Xuan Yen</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C16" t="str">
-        <v>Joanne</v>
-      </c>
       <c r="E16" s="2" t="str">
         <v>Yau Yen Nee</v>
       </c>
@@ -1124,11 +1121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T36" sqref="T36"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,19 +1294,19 @@
         <v>44829</v>
       </c>
       <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>44817</v>
+      </c>
+      <c r="R3">
         <v>14</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>44657</v>
-      </c>
-      <c r="R3">
-        <v>13</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -1377,7 +1374,7 @@
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -1389,7 +1386,7 @@
         <v>44861</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1410,7 +1407,7 @@
         <v>44861</v>
       </c>
       <c r="Y4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1457,19 +1454,19 @@
         <v>44484</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="2">
         <v>44890</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1534,22 +1531,22 @@
         <v>3</v>
       </c>
       <c r="M6" s="2">
+        <v>44385</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
         <v>44774</v>
       </c>
-      <c r="N6">
-        <v>18</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>44448</v>
-      </c>
       <c r="R6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1620,16 +1617,16 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q7" s="2">
         <v>44498</v>
       </c>
       <c r="R7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -1697,7 +1694,7 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1709,7 +1706,7 @@
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1774,22 +1771,22 @@
         <v>2</v>
       </c>
       <c r="M9" s="2">
+        <v>44749</v>
+      </c>
+      <c r="N9">
+        <v>16</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="2">
         <v>44900</v>
       </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>44573</v>
-      </c>
       <c r="R9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1810,7 +1807,7 @@
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1857,16 +1854,16 @@
         <v>44840</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="2">
-        <v>44733</v>
+        <v>44834</v>
       </c>
       <c r="R10">
         <v>12</v>
@@ -1928,49 +1925,49 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M11" s="2">
         <v>44869</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="2">
-        <v>44125</v>
+        <v>44951</v>
       </c>
       <c r="R11">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" s="2">
-        <v>44869</v>
+        <v>44951</v>
       </c>
       <c r="V11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X11" s="2">
-        <v>44770</v>
+        <v>44951</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -2017,19 +2014,19 @@
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="2">
-        <v>44368</v>
+        <v>44433</v>
       </c>
       <c r="R12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2050,7 +2047,7 @@
         <v>44873</v>
       </c>
       <c r="Y12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2097,28 +2094,28 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>31140</v>
+        <v>44946</v>
       </c>
       <c r="R13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="U13" s="2">
+        <v>44946</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2177,7 +2174,7 @@
         <v>44620</v>
       </c>
       <c r="N14">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2189,7 +2186,7 @@
         <v>31140</v>
       </c>
       <c r="R14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2254,22 +2251,22 @@
         <v>3</v>
       </c>
       <c r="M15" s="2">
+        <v>44182</v>
+      </c>
+      <c r="N15">
+        <v>25</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
         <v>44819</v>
       </c>
-      <c r="N15">
-        <v>15</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>44770</v>
-      </c>
       <c r="R15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2337,7 +2334,7 @@
         <v>44797</v>
       </c>
       <c r="N16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O16">
         <v>4</v>
@@ -2349,7 +2346,7 @@
         <v>44754</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -2370,7 +2367,7 @@
         <v>44796</v>
       </c>
       <c r="Y16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2414,22 +2411,22 @@
         <v>3</v>
       </c>
       <c r="M17" s="2">
+        <v>44260</v>
+      </c>
+      <c r="N17">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2">
         <v>44809</v>
       </c>
-      <c r="N17">
-        <v>16</v>
-      </c>
-      <c r="O17">
-        <v>2</v>
-      </c>
-      <c r="P17">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>44120</v>
-      </c>
       <c r="R17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -2494,22 +2491,22 @@
         <v>3</v>
       </c>
       <c r="M18" s="2">
-        <v>44418</v>
+        <v>44328</v>
       </c>
       <c r="N18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="2">
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2589,7 +2586,7 @@
         <v>31140</v>
       </c>
       <c r="R19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -2610,7 +2607,7 @@
         <v>44909</v>
       </c>
       <c r="Y19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2669,7 +2666,7 @@
         <v>44739</v>
       </c>
       <c r="R20">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="S20">
         <v>2</v>
@@ -2737,7 +2734,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2749,7 +2746,7 @@
         <v>44509</v>
       </c>
       <c r="R21">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2817,7 +2814,7 @@
         <v>31140</v>
       </c>
       <c r="N22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -2829,7 +2826,7 @@
         <v>44040</v>
       </c>
       <c r="R22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2894,22 +2891,22 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>44165</v>
+        <v>31140</v>
       </c>
       <c r="N23">
         <v>26</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="2">
         <v>44265</v>
       </c>
       <c r="R23">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -2977,19 +2974,19 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q24" s="2">
         <v>44644</v>
       </c>
       <c r="R24">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3069,7 +3066,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3137,7 +3134,7 @@
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3149,7 +3146,7 @@
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3229,7 +3226,7 @@
         <v>44862</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3309,7 +3306,7 @@
         <v>31140</v>
       </c>
       <c r="R28">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3330,10 +3327,10 @@
         <v>44938</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.35">
@@ -3377,7 +3374,7 @@
         <v>44855</v>
       </c>
       <c r="N29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3389,7 +3386,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -3618,11 +3615,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3723,7 +3720,7 @@
         <v>44861</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3758,7 +3755,7 @@
         <v>44754</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3784,16 +3781,16 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>44509</v>
+        <v>44946</v>
       </c>
       <c r="K5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3828,7 +3825,7 @@
         <v>44879</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3863,7 +3860,7 @@
         <v>44851</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3898,7 +3895,7 @@
         <v>44890</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3933,7 +3930,7 @@
         <v>44739</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3968,7 +3965,7 @@
         <v>44918</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4003,7 +4000,7 @@
         <v>44890</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4038,7 +4035,7 @@
         <v>44862</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4073,7 +4070,7 @@
         <v>44942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4108,7 +4105,7 @@
         <v>44770</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -4143,7 +4140,7 @@
         <v>44657</v>
       </c>
       <c r="K15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36D427B-8203-4E64-A7DD-97F82519E4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB167C71-F2CE-4EF6-8860-F9BEDB55B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -1018,8 +1018,8 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
-        <v>Yau Yen Nee</v>
+        <f t="array" ref="C13:C16" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <v>Lee Xuan Yen</v>
       </c>
       <c r="E13" s="2" t="str">
         <v>Vance Kang</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
-        <v>Kang Mi</v>
+        <v>Yau Yen Nee</v>
       </c>
       <c r="E14" s="2" t="str">
         <v>Lim Meng May</v>
@@ -1035,13 +1035,16 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
-        <v>Joanne</v>
+        <v>Kang Mi</v>
       </c>
       <c r="E15" s="2" t="str">
         <v>Lee Xuan Yen</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C16" t="str">
+        <v>Joanne</v>
+      </c>
       <c r="E16" s="2" t="str">
         <v>Yau Yen Nee</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>44817</v>
       </c>
       <c r="R3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -1386,7 +1389,7 @@
         <v>44861</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1407,7 +1410,7 @@
         <v>44861</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1466,7 +1469,7 @@
         <v>44890</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1546,7 +1549,7 @@
         <v>44774</v>
       </c>
       <c r="R6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1617,25 +1620,25 @@
         <v>2</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" s="2">
-        <v>44498</v>
+        <v>44946</v>
       </c>
       <c r="R7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7" s="2">
-        <v>43850</v>
+        <v>44946</v>
       </c>
       <c r="V7">
         <v>4</v>
@@ -1706,7 +1709,7 @@
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1786,7 +1789,7 @@
         <v>44900</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1807,7 +1810,7 @@
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1866,7 +1869,7 @@
         <v>44834</v>
       </c>
       <c r="R10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -1946,7 +1949,7 @@
         <v>44951</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -1967,7 +1970,7 @@
         <v>44951</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -2026,7 +2029,7 @@
         <v>44433</v>
       </c>
       <c r="R12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2047,7 +2050,7 @@
         <v>44873</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2097,25 +2100,25 @@
         <v>7</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>44946</v>
+        <v>31140</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13" s="2">
-        <v>44946</v>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2186,7 +2189,7 @@
         <v>31140</v>
       </c>
       <c r="R14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2266,7 +2269,7 @@
         <v>44819</v>
       </c>
       <c r="R15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2325,10 +2328,10 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M16" s="2">
         <v>44797</v>
@@ -2337,37 +2340,37 @@
         <v>14</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="2">
-        <v>44754</v>
+        <v>44963</v>
       </c>
       <c r="R16">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U16" s="2">
-        <v>44797</v>
+        <v>44963</v>
       </c>
       <c r="V16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X16" s="2">
-        <v>44796</v>
+        <v>44963</v>
       </c>
       <c r="Y16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2426,7 +2429,7 @@
         <v>44809</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -2506,7 +2509,7 @@
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2586,7 +2589,7 @@
         <v>31140</v>
       </c>
       <c r="R19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S19">
         <v>1</v>
@@ -2607,7 +2610,7 @@
         <v>44909</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2826,7 +2829,7 @@
         <v>44040</v>
       </c>
       <c r="R22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2906,7 +2909,7 @@
         <v>44265</v>
       </c>
       <c r="R23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S23">
         <v>2</v>
@@ -3066,7 +3069,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3146,7 +3149,7 @@
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3226,7 +3229,7 @@
         <v>44862</v>
       </c>
       <c r="R27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3306,7 +3309,7 @@
         <v>31140</v>
       </c>
       <c r="R28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3327,7 +3330,7 @@
         <v>44938</v>
       </c>
       <c r="Y28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -3386,7 +3389,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S29">
         <v>3</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB167C71-F2CE-4EF6-8860-F9BEDB55B77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB1C0A-58D6-4185-91B6-694094C6C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -867,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1124,11 +1124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,7 +1297,7 @@
         <v>44829</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -1368,49 +1368,49 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" s="2">
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="2">
-        <v>44861</v>
+        <v>44967</v>
       </c>
       <c r="R4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" s="2">
-        <v>44861</v>
+        <v>44967</v>
       </c>
       <c r="V4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2">
-        <v>44861</v>
+        <v>44967</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1448,37 +1448,37 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" s="2">
         <v>44484</v>
       </c>
       <c r="N5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>44988</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
         <v>5</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>5</v>
       </c>
-      <c r="Q5" s="2">
-        <v>44890</v>
-      </c>
-      <c r="R5">
-        <v>7</v>
-      </c>
-      <c r="S5">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
       <c r="U5" s="2">
-        <v>44890</v>
+        <v>44988</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>44385</v>
       </c>
       <c r="N6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O6">
         <v>3</v>
@@ -1617,7 +1617,7 @@
         <v>44923</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -1629,7 +1629,7 @@
         <v>44946</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S7">
         <v>2</v>
@@ -1697,7 +1697,7 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1709,7 +1709,7 @@
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>44749</v>
       </c>
       <c r="N9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -1789,7 +1789,7 @@
         <v>44900</v>
       </c>
       <c r="R9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>44840</v>
       </c>
       <c r="N10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -1937,7 +1937,7 @@
         <v>44869</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -1949,7 +1949,7 @@
         <v>44951</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -1970,7 +1970,7 @@
         <v>44951</v>
       </c>
       <c r="Y11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -2017,7 +2017,7 @@
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12">
         <v>4</v>
@@ -2050,7 +2050,7 @@
         <v>44873</v>
       </c>
       <c r="Y12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>44620</v>
       </c>
       <c r="N14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>44797</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -2349,7 +2349,7 @@
         <v>44963</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>5</v>
@@ -2370,7 +2370,7 @@
         <v>44963</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" s="2">
-        <v>44328</v>
+        <v>44984</v>
       </c>
       <c r="N18">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>4</v>
@@ -2509,7 +2509,7 @@
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2577,7 +2577,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>44909</v>
       </c>
       <c r="Y19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>44923</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2737,7 +2737,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -2793,7 +2793,7 @@
         <v>34381</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24">
         <v>4</v>
@@ -3057,7 +3057,7 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3069,7 +3069,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3137,7 +3137,7 @@
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3217,7 +3217,7 @@
         <v>44914</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O27">
         <v>2</v>
@@ -3229,7 +3229,7 @@
         <v>44862</v>
       </c>
       <c r="R27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>44938</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>44938</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -3377,7 +3377,7 @@
         <v>44855</v>
       </c>
       <c r="N29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3389,7 +3389,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S29">
         <v>3</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB1C0A-58D6-4185-91B6-694094C6C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45110BC2-7098-453B-8A66-61F5CA73B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -867,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
   <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -1124,11 +1124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,7 +1297,7 @@
         <v>44829</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -1309,7 +1309,7 @@
         <v>44817</v>
       </c>
       <c r="R3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -1389,7 +1389,7 @@
         <v>44967</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -1410,7 +1410,7 @@
         <v>44967</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>44988</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -1549,7 +1549,7 @@
         <v>44774</v>
       </c>
       <c r="R6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1617,7 +1617,7 @@
         <v>44923</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -1629,7 +1629,7 @@
         <v>44946</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S7">
         <v>2</v>
@@ -1709,7 +1709,7 @@
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1789,7 +1789,7 @@
         <v>44900</v>
       </c>
       <c r="R9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1810,7 +1810,7 @@
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>44840</v>
       </c>
       <c r="N10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O10">
         <v>3</v>
@@ -1869,7 +1869,7 @@
         <v>44834</v>
       </c>
       <c r="R10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -1937,7 +1937,7 @@
         <v>44869</v>
       </c>
       <c r="N11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -1949,7 +1949,7 @@
         <v>44951</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -1970,7 +1970,7 @@
         <v>44951</v>
       </c>
       <c r="Y11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -2008,49 +2008,49 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M12" s="2">
         <v>44873</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="2">
-        <v>44433</v>
+        <v>44981</v>
       </c>
       <c r="R12">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U12" s="2">
-        <v>44433</v>
+        <v>44981</v>
       </c>
       <c r="V12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X12" s="2">
-        <v>44873</v>
+        <v>44981</v>
       </c>
       <c r="Y12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>44280</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>44819</v>
       </c>
       <c r="R15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2328,16 +2328,16 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16" s="2">
-        <v>44797</v>
+        <v>45007</v>
       </c>
       <c r="N16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -2349,7 +2349,7 @@
         <v>44963</v>
       </c>
       <c r="R16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S16">
         <v>5</v>
@@ -2361,16 +2361,16 @@
         <v>44963</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X16" s="2">
-        <v>44963</v>
+        <v>45007</v>
       </c>
       <c r="Y16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>44809</v>
       </c>
       <c r="R17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -2497,7 +2497,7 @@
         <v>44984</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <v>4</v>
@@ -2509,7 +2509,7 @@
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -2577,7 +2577,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2610,7 +2610,7 @@
         <v>44909</v>
       </c>
       <c r="Y19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>44923</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>44739</v>
       </c>
       <c r="R20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S20">
         <v>2</v>
@@ -2749,7 +2749,7 @@
         <v>44509</v>
       </c>
       <c r="R21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O24">
         <v>4</v>
@@ -2989,7 +2989,7 @@
         <v>44644</v>
       </c>
       <c r="R24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -3057,7 +3057,7 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3069,7 +3069,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3149,7 +3149,7 @@
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3217,28 +3217,28 @@
         <v>44914</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q27" s="2">
-        <v>44862</v>
+        <v>45005</v>
       </c>
       <c r="R27">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27" s="2" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>1</v>
+      </c>
+      <c r="U27" s="2">
+        <v>45005</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>44938</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>44938</v>
       </c>
       <c r="Y28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -3377,7 +3377,7 @@
         <v>44855</v>
       </c>
       <c r="N29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -3389,7 +3389,7 @@
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -3532,18 +3532,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N30">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F3:F29">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>3</formula>
@@ -3561,8 +3549,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q29">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="N30">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3584,9 +3572,19 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:X29">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="U3:U29">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3597,8 +3595,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U29">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="X3:X29">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45110BC2-7098-453B-8A66-61F5CA73B0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57EDC1A-ECF0-406F-9D56-6B4353FF9CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
     <sheet name="PO List" sheetId="1" r:id="rId2"/>
     <sheet name="PO GBW List" sheetId="4" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Assignment!$A$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -93,7 +96,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
+  <futureMetadata name="XLRICHVALUE" count="3">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -108,18 +111,28 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="2">
+  <valueMetadata count="3">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -478,7 +491,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -500,6 +523,4711 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Assignment"/>
+      <sheetName val="PO List"/>
+      <sheetName val="PO GBW List"/>
+      <sheetName val="Project List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Catherine Wong</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Ng Kay Beng</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Richard Lim</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Vance Kang</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Michael Sien</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Lim Meng May</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Brian Phua</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Lee Xuan Yen</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Yau Yen Nee</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Lim Leng Boon</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Victor Tay</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Yan Chong Hui</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Kang Mi</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Bong Sell Feng</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Santoso</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Thung Sek Kwang</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Tran Chi Trung</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Zhao Zhe</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Jimmy Wong</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Willie Chai</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Chris Chong</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Joanne</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Chang Heng Choy</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="3">
+          <cell r="B3">
+            <v>44754</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="K3">
+            <v>1</v>
+          </cell>
+          <cell r="N3">
+            <v>0.84383561643835614</v>
+          </cell>
+          <cell r="O3">
+            <v>1</v>
+          </cell>
+          <cell r="P3">
+            <v>0</v>
+          </cell>
+          <cell r="Q3">
+            <v>0</v>
+          </cell>
+          <cell r="R3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>44567</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>Chang Heng Choy</v>
+          </cell>
+          <cell r="K4">
+            <v>1</v>
+          </cell>
+          <cell r="N4">
+            <v>1.3561643835616439</v>
+          </cell>
+          <cell r="O4">
+            <v>1</v>
+          </cell>
+          <cell r="P4">
+            <v>0</v>
+          </cell>
+          <cell r="Q4">
+            <v>0</v>
+          </cell>
+          <cell r="R4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>44739</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>Bong Sell Feng</v>
+          </cell>
+          <cell r="K5">
+            <v>0</v>
+          </cell>
+          <cell r="N5">
+            <v>0.8849315068493151</v>
+          </cell>
+          <cell r="O5">
+            <v>1</v>
+          </cell>
+          <cell r="P5">
+            <v>0</v>
+          </cell>
+          <cell r="Q5">
+            <v>0</v>
+          </cell>
+          <cell r="R5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>44448</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>Richard Lim</v>
+          </cell>
+          <cell r="N6">
+            <v>1.6821917808219178</v>
+          </cell>
+          <cell r="O6">
+            <v>1</v>
+          </cell>
+          <cell r="P6">
+            <v>0</v>
+          </cell>
+          <cell r="Q6">
+            <v>0</v>
+          </cell>
+          <cell r="R6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>44426</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="K7">
+            <v>1</v>
+          </cell>
+          <cell r="N7">
+            <v>1.7424657534246575</v>
+          </cell>
+          <cell r="O7">
+            <v>1</v>
+          </cell>
+          <cell r="P7">
+            <v>0</v>
+          </cell>
+          <cell r="Q7">
+            <v>0</v>
+          </cell>
+          <cell r="R7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>44509</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>Santoso</v>
+          </cell>
+          <cell r="N8">
+            <v>1.515068493150685</v>
+          </cell>
+          <cell r="O8">
+            <v>1</v>
+          </cell>
+          <cell r="P8">
+            <v>0</v>
+          </cell>
+          <cell r="Q8">
+            <v>0</v>
+          </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>44460</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>Ng Kay Beng</v>
+          </cell>
+          <cell r="K9">
+            <v>1</v>
+          </cell>
+          <cell r="N9">
+            <v>1.6493150684931508</v>
+          </cell>
+          <cell r="O9">
+            <v>1</v>
+          </cell>
+          <cell r="P9">
+            <v>0</v>
+          </cell>
+          <cell r="Q9">
+            <v>0</v>
+          </cell>
+          <cell r="R9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>44498</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+          <cell r="N10">
+            <v>1.5452054794520549</v>
+          </cell>
+          <cell r="O10">
+            <v>1</v>
+          </cell>
+          <cell r="P10">
+            <v>0</v>
+          </cell>
+          <cell r="Q10">
+            <v>0</v>
+          </cell>
+          <cell r="R10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>44369</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>Catherine Wong</v>
+          </cell>
+          <cell r="N11">
+            <v>1.8986301369863015</v>
+          </cell>
+          <cell r="O11">
+            <v>1</v>
+          </cell>
+          <cell r="P11">
+            <v>0</v>
+          </cell>
+          <cell r="Q11">
+            <v>0</v>
+          </cell>
+          <cell r="R11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>44573</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>Michael Sien</v>
+          </cell>
+          <cell r="N12">
+            <v>1.3397260273972602</v>
+          </cell>
+          <cell r="O12">
+            <v>1</v>
+          </cell>
+          <cell r="P12">
+            <v>0</v>
+          </cell>
+          <cell r="Q12">
+            <v>0</v>
+          </cell>
+          <cell r="R12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>44644</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>Zhao Zhe</v>
+          </cell>
+          <cell r="N13">
+            <v>1.1452054794520548</v>
+          </cell>
+          <cell r="O13">
+            <v>1</v>
+          </cell>
+          <cell r="P13">
+            <v>0</v>
+          </cell>
+          <cell r="Q13">
+            <v>0</v>
+          </cell>
+          <cell r="R13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>44207</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>Goh Hooi Theng</v>
+          </cell>
+          <cell r="K14">
+            <v>1</v>
+          </cell>
+          <cell r="N14">
+            <v>2.3424657534246576</v>
+          </cell>
+          <cell r="O14">
+            <v>1</v>
+          </cell>
+          <cell r="P14">
+            <v>0</v>
+          </cell>
+          <cell r="Q14">
+            <v>0</v>
+          </cell>
+          <cell r="R14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>44657</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>Catherine Wong</v>
+          </cell>
+          <cell r="K15">
+            <v>1</v>
+          </cell>
+          <cell r="N15">
+            <v>1.1095890410958904</v>
+          </cell>
+          <cell r="O15">
+            <v>1</v>
+          </cell>
+          <cell r="P15">
+            <v>0</v>
+          </cell>
+          <cell r="Q15">
+            <v>0</v>
+          </cell>
+          <cell r="R15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>44733</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>Lim Meng May</v>
+          </cell>
+          <cell r="K16">
+            <v>1</v>
+          </cell>
+          <cell r="N16">
+            <v>0.90136986301369859</v>
+          </cell>
+          <cell r="O16">
+            <v>1</v>
+          </cell>
+          <cell r="P16">
+            <v>0</v>
+          </cell>
+          <cell r="Q16">
+            <v>0</v>
+          </cell>
+          <cell r="R16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>44770</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>Lim Leng Boon</v>
+          </cell>
+          <cell r="N17">
+            <v>0.8</v>
+          </cell>
+          <cell r="O17">
+            <v>1</v>
+          </cell>
+          <cell r="P17">
+            <v>0</v>
+          </cell>
+          <cell r="Q17">
+            <v>0</v>
+          </cell>
+          <cell r="R17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>44098</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>Victor Tay</v>
+          </cell>
+          <cell r="K18">
+            <v>1</v>
+          </cell>
+          <cell r="N18">
+            <v>2.6410958904109587</v>
+          </cell>
+          <cell r="O18">
+            <v>1</v>
+          </cell>
+          <cell r="P18">
+            <v>0</v>
+          </cell>
+          <cell r="Q18">
+            <v>0</v>
+          </cell>
+          <cell r="R18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>44042</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>Steve Ang</v>
+          </cell>
+          <cell r="N19">
+            <v>2.7945205479452055</v>
+          </cell>
+          <cell r="O19">
+            <v>1</v>
+          </cell>
+          <cell r="P19">
+            <v>0</v>
+          </cell>
+          <cell r="Q19">
+            <v>0</v>
+          </cell>
+          <cell r="R19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>44120</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>Victor Tay</v>
+          </cell>
+          <cell r="N20">
+            <v>2.580821917808219</v>
+          </cell>
+          <cell r="O20">
+            <v>1</v>
+          </cell>
+          <cell r="P20">
+            <v>0</v>
+          </cell>
+          <cell r="Q20">
+            <v>0</v>
+          </cell>
+          <cell r="R20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>44049</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v>Jimmy Wong</v>
+          </cell>
+          <cell r="K21">
+            <v>1</v>
+          </cell>
+          <cell r="N21">
+            <v>2.7753424657534245</v>
+          </cell>
+          <cell r="O21">
+            <v>1</v>
+          </cell>
+          <cell r="P21">
+            <v>0</v>
+          </cell>
+          <cell r="Q21">
+            <v>0</v>
+          </cell>
+          <cell r="R21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>44178</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>Lim Meng May</v>
+          </cell>
+          <cell r="N22">
+            <v>2.4219178082191779</v>
+          </cell>
+          <cell r="O22">
+            <v>1</v>
+          </cell>
+          <cell r="P22">
+            <v>0</v>
+          </cell>
+          <cell r="Q22">
+            <v>0</v>
+          </cell>
+          <cell r="R22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>44050</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>Goh Hooi Theng</v>
+          </cell>
+          <cell r="N23">
+            <v>2.7726027397260276</v>
+          </cell>
+          <cell r="O23">
+            <v>1</v>
+          </cell>
+          <cell r="P23">
+            <v>0</v>
+          </cell>
+          <cell r="Q23">
+            <v>0</v>
+          </cell>
+          <cell r="R23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>43935</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>Chin Wee Keong</v>
+          </cell>
+          <cell r="N24">
+            <v>3.0876712328767124</v>
+          </cell>
+          <cell r="O24">
+            <v>1</v>
+          </cell>
+          <cell r="P24">
+            <v>0</v>
+          </cell>
+          <cell r="Q24">
+            <v>0</v>
+          </cell>
+          <cell r="R24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>44125</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="L25">
+            <v>1</v>
+          </cell>
+          <cell r="N25">
+            <v>2.5671232876712327</v>
+          </cell>
+          <cell r="O25">
+            <v>1</v>
+          </cell>
+          <cell r="P25">
+            <v>0</v>
+          </cell>
+          <cell r="Q25">
+            <v>0</v>
+          </cell>
+          <cell r="R25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>44060</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>Yan Chong Hui</v>
+          </cell>
+          <cell r="N26">
+            <v>2.7452054794520548</v>
+          </cell>
+          <cell r="O26">
+            <v>1</v>
+          </cell>
+          <cell r="P26">
+            <v>0</v>
+          </cell>
+          <cell r="Q26">
+            <v>0</v>
+          </cell>
+          <cell r="R26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>44309</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>Ng Kay Beng</v>
+          </cell>
+          <cell r="K27">
+            <v>1</v>
+          </cell>
+          <cell r="N27">
+            <v>2.0630136986301371</v>
+          </cell>
+          <cell r="O27">
+            <v>1</v>
+          </cell>
+          <cell r="P27">
+            <v>0</v>
+          </cell>
+          <cell r="Q27">
+            <v>0</v>
+          </cell>
+          <cell r="R27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>44265</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v>Tran Chi Trung</v>
+          </cell>
+          <cell r="K28">
+            <v>1</v>
+          </cell>
+          <cell r="N28">
+            <v>2.1835616438356165</v>
+          </cell>
+          <cell r="O28">
+            <v>1</v>
+          </cell>
+          <cell r="P28">
+            <v>0</v>
+          </cell>
+          <cell r="Q28">
+            <v>0</v>
+          </cell>
+          <cell r="R28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>44368</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="N29">
+            <v>1.9013698630136986</v>
+          </cell>
+          <cell r="O29">
+            <v>1</v>
+          </cell>
+          <cell r="P29">
+            <v>0</v>
+          </cell>
+          <cell r="Q29">
+            <v>0</v>
+          </cell>
+          <cell r="R29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>43860</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>Catherine Wong</v>
+          </cell>
+          <cell r="K30">
+            <v>1</v>
+          </cell>
+          <cell r="N30">
+            <v>3.2931506849315069</v>
+          </cell>
+          <cell r="O30">
+            <v>1</v>
+          </cell>
+          <cell r="P30">
+            <v>0</v>
+          </cell>
+          <cell r="Q30">
+            <v>0</v>
+          </cell>
+          <cell r="R30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>43615</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="K31">
+            <v>1</v>
+          </cell>
+          <cell r="N31">
+            <v>3.9643835616438357</v>
+          </cell>
+          <cell r="O31">
+            <v>1</v>
+          </cell>
+          <cell r="P31">
+            <v>0</v>
+          </cell>
+          <cell r="Q31">
+            <v>0</v>
+          </cell>
+          <cell r="R31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>44008</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="K32">
+            <v>1</v>
+          </cell>
+          <cell r="L32">
+            <v>1</v>
+          </cell>
+          <cell r="N32">
+            <v>2.8876712328767122</v>
+          </cell>
+          <cell r="O32">
+            <v>1</v>
+          </cell>
+          <cell r="P32">
+            <v>0</v>
+          </cell>
+          <cell r="Q32">
+            <v>0</v>
+          </cell>
+          <cell r="R32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>43588</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>Jimmy Wong</v>
+          </cell>
+          <cell r="K33">
+            <v>1</v>
+          </cell>
+          <cell r="N33">
+            <v>4.0383561643835613</v>
+          </cell>
+          <cell r="O33">
+            <v>1</v>
+          </cell>
+          <cell r="P33">
+            <v>0</v>
+          </cell>
+          <cell r="Q33">
+            <v>0</v>
+          </cell>
+          <cell r="R33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>44008</v>
+          </cell>
+          <cell r="I34" t="str">
+            <v>Zhao Zhe</v>
+          </cell>
+          <cell r="K34">
+            <v>1</v>
+          </cell>
+          <cell r="N34">
+            <v>2.8876712328767122</v>
+          </cell>
+          <cell r="O34">
+            <v>1</v>
+          </cell>
+          <cell r="P34">
+            <v>0</v>
+          </cell>
+          <cell r="Q34">
+            <v>0</v>
+          </cell>
+          <cell r="R34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>43717</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>Ng Kay Beng</v>
+          </cell>
+          <cell r="N35">
+            <v>3.6849315068493151</v>
+          </cell>
+          <cell r="O35">
+            <v>1</v>
+          </cell>
+          <cell r="P35">
+            <v>0</v>
+          </cell>
+          <cell r="Q35">
+            <v>0</v>
+          </cell>
+          <cell r="R35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>43903</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>Chris Chong</v>
+          </cell>
+          <cell r="N36">
+            <v>3.1753424657534248</v>
+          </cell>
+          <cell r="O36">
+            <v>1</v>
+          </cell>
+          <cell r="P36">
+            <v>0</v>
+          </cell>
+          <cell r="Q36">
+            <v>0</v>
+          </cell>
+          <cell r="R36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>43747</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>Chang Heng Choy</v>
+          </cell>
+          <cell r="K37">
+            <v>1</v>
+          </cell>
+          <cell r="N37">
+            <v>3.6027397260273974</v>
+          </cell>
+          <cell r="O37">
+            <v>1</v>
+          </cell>
+          <cell r="P37">
+            <v>0</v>
+          </cell>
+          <cell r="Q37">
+            <v>0</v>
+          </cell>
+          <cell r="R37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>43453</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="L38">
+            <v>1</v>
+          </cell>
+          <cell r="N38">
+            <v>4.4082191780821915</v>
+          </cell>
+          <cell r="O38">
+            <v>1</v>
+          </cell>
+          <cell r="P38">
+            <v>0</v>
+          </cell>
+          <cell r="Q38">
+            <v>0</v>
+          </cell>
+          <cell r="R38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>43908</v>
+          </cell>
+          <cell r="I39" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+          <cell r="L39">
+            <v>1</v>
+          </cell>
+          <cell r="N39">
+            <v>3.1616438356164385</v>
+          </cell>
+          <cell r="O39">
+            <v>1</v>
+          </cell>
+          <cell r="P39">
+            <v>0</v>
+          </cell>
+          <cell r="Q39">
+            <v>0</v>
+          </cell>
+          <cell r="R39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>44040</v>
+          </cell>
+          <cell r="I40" t="str">
+            <v>Thung Sek Kwang</v>
+          </cell>
+          <cell r="K40">
+            <v>1</v>
+          </cell>
+          <cell r="N40">
+            <v>2.8</v>
+          </cell>
+          <cell r="O40">
+            <v>1</v>
+          </cell>
+          <cell r="P40">
+            <v>0</v>
+          </cell>
+          <cell r="Q40">
+            <v>0</v>
+          </cell>
+          <cell r="R40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>44020</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="L41">
+            <v>1</v>
+          </cell>
+          <cell r="N41">
+            <v>2.8547945205479452</v>
+          </cell>
+          <cell r="O41">
+            <v>1</v>
+          </cell>
+          <cell r="P41">
+            <v>0</v>
+          </cell>
+          <cell r="Q41">
+            <v>0</v>
+          </cell>
+          <cell r="R41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>44749</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>Michael Sien</v>
+          </cell>
+          <cell r="L42">
+            <v>1</v>
+          </cell>
+          <cell r="N42">
+            <v>0.8575342465753425</v>
+          </cell>
+          <cell r="O42">
+            <v>0</v>
+          </cell>
+          <cell r="P42">
+            <v>1</v>
+          </cell>
+          <cell r="Q42">
+            <v>1</v>
+          </cell>
+          <cell r="R42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>44770</v>
+          </cell>
+          <cell r="I43" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="L43">
+            <v>1</v>
+          </cell>
+          <cell r="N43">
+            <v>0.8</v>
+          </cell>
+          <cell r="O43">
+            <v>0</v>
+          </cell>
+          <cell r="P43">
+            <v>1</v>
+          </cell>
+          <cell r="Q43">
+            <v>1</v>
+          </cell>
+          <cell r="R43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>44707</v>
+          </cell>
+          <cell r="I44" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="L44">
+            <v>1</v>
+          </cell>
+          <cell r="N44">
+            <v>0.9726027397260274</v>
+          </cell>
+          <cell r="O44">
+            <v>0</v>
+          </cell>
+          <cell r="P44">
+            <v>1</v>
+          </cell>
+          <cell r="Q44">
+            <v>1</v>
+          </cell>
+          <cell r="R44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>44796</v>
+          </cell>
+          <cell r="I45" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="L45">
+            <v>1</v>
+          </cell>
+          <cell r="N45">
+            <v>0.72876712328767124</v>
+          </cell>
+          <cell r="O45">
+            <v>0</v>
+          </cell>
+          <cell r="P45">
+            <v>1</v>
+          </cell>
+          <cell r="Q45">
+            <v>1</v>
+          </cell>
+          <cell r="R45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>44692</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="L46">
+            <v>1</v>
+          </cell>
+          <cell r="N46">
+            <v>1.0136986301369864</v>
+          </cell>
+          <cell r="O46">
+            <v>0</v>
+          </cell>
+          <cell r="P46">
+            <v>1</v>
+          </cell>
+          <cell r="Q46">
+            <v>1</v>
+          </cell>
+          <cell r="R46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>44621</v>
+          </cell>
+          <cell r="I47" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="L47">
+            <v>1</v>
+          </cell>
+          <cell r="N47">
+            <v>1.2082191780821918</v>
+          </cell>
+          <cell r="O47">
+            <v>0</v>
+          </cell>
+          <cell r="P47">
+            <v>1</v>
+          </cell>
+          <cell r="Q47">
+            <v>1</v>
+          </cell>
+          <cell r="R47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>44620</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="L48">
+            <v>1</v>
+          </cell>
+          <cell r="N48">
+            <v>1.210958904109589</v>
+          </cell>
+          <cell r="O48">
+            <v>0</v>
+          </cell>
+          <cell r="P48">
+            <v>1</v>
+          </cell>
+          <cell r="Q48">
+            <v>1</v>
+          </cell>
+          <cell r="R48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>44657</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="L49">
+            <v>1</v>
+          </cell>
+          <cell r="N49">
+            <v>1.1095890410958904</v>
+          </cell>
+          <cell r="O49">
+            <v>0</v>
+          </cell>
+          <cell r="P49">
+            <v>1</v>
+          </cell>
+          <cell r="Q49">
+            <v>1</v>
+          </cell>
+          <cell r="R49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>44628</v>
+          </cell>
+          <cell r="I50" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="L50">
+            <v>1</v>
+          </cell>
+          <cell r="N50">
+            <v>1.189041095890411</v>
+          </cell>
+          <cell r="O50">
+            <v>0</v>
+          </cell>
+          <cell r="P50">
+            <v>1</v>
+          </cell>
+          <cell r="Q50">
+            <v>1</v>
+          </cell>
+          <cell r="R50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>44606</v>
+          </cell>
+          <cell r="I51" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="L51">
+            <v>1</v>
+          </cell>
+          <cell r="N51">
+            <v>1.2493150684931507</v>
+          </cell>
+          <cell r="O51">
+            <v>0</v>
+          </cell>
+          <cell r="P51">
+            <v>1</v>
+          </cell>
+          <cell r="Q51">
+            <v>1</v>
+          </cell>
+          <cell r="R51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>44514</v>
+          </cell>
+          <cell r="I52" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="L52">
+            <v>1</v>
+          </cell>
+          <cell r="N52">
+            <v>1.5013698630136987</v>
+          </cell>
+          <cell r="O52">
+            <v>0</v>
+          </cell>
+          <cell r="P52">
+            <v>1</v>
+          </cell>
+          <cell r="Q52">
+            <v>1</v>
+          </cell>
+          <cell r="R52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>44433</v>
+          </cell>
+          <cell r="I53" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="K53">
+            <v>1</v>
+          </cell>
+          <cell r="L53">
+            <v>1</v>
+          </cell>
+          <cell r="N53">
+            <v>1.7232876712328766</v>
+          </cell>
+          <cell r="O53">
+            <v>1</v>
+          </cell>
+          <cell r="P53">
+            <v>0</v>
+          </cell>
+          <cell r="Q53">
+            <v>1</v>
+          </cell>
+          <cell r="R53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>44602</v>
+          </cell>
+          <cell r="I54" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="L54">
+            <v>1</v>
+          </cell>
+          <cell r="N54">
+            <v>1.2602739726027397</v>
+          </cell>
+          <cell r="O54">
+            <v>0</v>
+          </cell>
+          <cell r="P54">
+            <v>1</v>
+          </cell>
+          <cell r="Q54">
+            <v>1</v>
+          </cell>
+          <cell r="R54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>44561</v>
+          </cell>
+          <cell r="I55" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="L55">
+            <v>1</v>
+          </cell>
+          <cell r="N55">
+            <v>1.3726027397260274</v>
+          </cell>
+          <cell r="O55">
+            <v>0</v>
+          </cell>
+          <cell r="P55">
+            <v>1</v>
+          </cell>
+          <cell r="Q55">
+            <v>1</v>
+          </cell>
+          <cell r="R55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>44496</v>
+          </cell>
+          <cell r="I56" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="L56">
+            <v>1</v>
+          </cell>
+          <cell r="N56">
+            <v>1.5506849315068494</v>
+          </cell>
+          <cell r="O56">
+            <v>0</v>
+          </cell>
+          <cell r="P56">
+            <v>1</v>
+          </cell>
+          <cell r="Q56">
+            <v>1</v>
+          </cell>
+          <cell r="R56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>44774</v>
+          </cell>
+          <cell r="I57" t="str">
+            <v>Richard Lim</v>
+          </cell>
+          <cell r="K57">
+            <v>1</v>
+          </cell>
+          <cell r="N57">
+            <v>0.78904109589041094</v>
+          </cell>
+          <cell r="O57">
+            <v>1</v>
+          </cell>
+          <cell r="P57">
+            <v>0</v>
+          </cell>
+          <cell r="Q57">
+            <v>1</v>
+          </cell>
+          <cell r="R57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>44377</v>
+          </cell>
+          <cell r="I58" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+          <cell r="L58">
+            <v>1</v>
+          </cell>
+          <cell r="N58">
+            <v>1.8767123287671232</v>
+          </cell>
+          <cell r="O58">
+            <v>0</v>
+          </cell>
+          <cell r="P58">
+            <v>1</v>
+          </cell>
+          <cell r="Q58">
+            <v>1</v>
+          </cell>
+          <cell r="R58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>44370</v>
+          </cell>
+          <cell r="I59" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="L59">
+            <v>1</v>
+          </cell>
+          <cell r="N59">
+            <v>1.8958904109589041</v>
+          </cell>
+          <cell r="O59">
+            <v>0</v>
+          </cell>
+          <cell r="P59">
+            <v>1</v>
+          </cell>
+          <cell r="Q59">
+            <v>1</v>
+          </cell>
+          <cell r="R59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>44375</v>
+          </cell>
+          <cell r="I60" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="L60">
+            <v>1</v>
+          </cell>
+          <cell r="N60">
+            <v>1.8821917808219177</v>
+          </cell>
+          <cell r="O60">
+            <v>0</v>
+          </cell>
+          <cell r="P60">
+            <v>1</v>
+          </cell>
+          <cell r="Q60">
+            <v>1</v>
+          </cell>
+          <cell r="R60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>44453</v>
+          </cell>
+          <cell r="I61" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="L61">
+            <v>1</v>
+          </cell>
+          <cell r="N61">
+            <v>1.6684931506849314</v>
+          </cell>
+          <cell r="O61">
+            <v>0</v>
+          </cell>
+          <cell r="P61">
+            <v>1</v>
+          </cell>
+          <cell r="Q61">
+            <v>1</v>
+          </cell>
+          <cell r="R61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>44377</v>
+          </cell>
+          <cell r="I62" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="L62">
+            <v>1</v>
+          </cell>
+          <cell r="N62">
+            <v>1.8767123287671232</v>
+          </cell>
+          <cell r="O62">
+            <v>0</v>
+          </cell>
+          <cell r="P62">
+            <v>1</v>
+          </cell>
+          <cell r="Q62">
+            <v>1</v>
+          </cell>
+          <cell r="R62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>44307</v>
+          </cell>
+          <cell r="I63" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="L63">
+            <v>1</v>
+          </cell>
+          <cell r="N63">
+            <v>2.0684931506849313</v>
+          </cell>
+          <cell r="O63">
+            <v>0</v>
+          </cell>
+          <cell r="P63">
+            <v>1</v>
+          </cell>
+          <cell r="Q63">
+            <v>1</v>
+          </cell>
+          <cell r="R63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>44595</v>
+          </cell>
+          <cell r="I64" t="str">
+            <v>Richard Lim</v>
+          </cell>
+          <cell r="K64">
+            <v>1</v>
+          </cell>
+          <cell r="N64">
+            <v>1.2794520547945205</v>
+          </cell>
+          <cell r="O64">
+            <v>1</v>
+          </cell>
+          <cell r="P64">
+            <v>0</v>
+          </cell>
+          <cell r="Q64">
+            <v>1</v>
+          </cell>
+          <cell r="R64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>43850</v>
+          </cell>
+          <cell r="I65" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+          <cell r="K65">
+            <v>1</v>
+          </cell>
+          <cell r="L65">
+            <v>1</v>
+          </cell>
+          <cell r="N65">
+            <v>3.3205479452054796</v>
+          </cell>
+          <cell r="O65">
+            <v>1</v>
+          </cell>
+          <cell r="P65">
+            <v>0</v>
+          </cell>
+          <cell r="Q65">
+            <v>1</v>
+          </cell>
+          <cell r="R65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>44015</v>
+          </cell>
+          <cell r="I66" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="L66">
+            <v>1</v>
+          </cell>
+          <cell r="N66">
+            <v>2.8684931506849316</v>
+          </cell>
+          <cell r="O66">
+            <v>0</v>
+          </cell>
+          <cell r="P66">
+            <v>1</v>
+          </cell>
+          <cell r="Q66">
+            <v>1</v>
+          </cell>
+          <cell r="R66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>44048</v>
+          </cell>
+          <cell r="I67" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="K67">
+            <v>1</v>
+          </cell>
+          <cell r="L67">
+            <v>1</v>
+          </cell>
+          <cell r="N67">
+            <v>2.7780821917808218</v>
+          </cell>
+          <cell r="O67">
+            <v>1</v>
+          </cell>
+          <cell r="P67">
+            <v>0</v>
+          </cell>
+          <cell r="Q67">
+            <v>1</v>
+          </cell>
+          <cell r="R67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>44286</v>
+          </cell>
+          <cell r="I68" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="L68">
+            <v>1</v>
+          </cell>
+          <cell r="N68">
+            <v>2.1260273972602741</v>
+          </cell>
+          <cell r="O68">
+            <v>0</v>
+          </cell>
+          <cell r="P68">
+            <v>1</v>
+          </cell>
+          <cell r="Q68">
+            <v>1</v>
+          </cell>
+          <cell r="R68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>44327</v>
+          </cell>
+          <cell r="I69" t="str">
+            <v>Goh Hooi Theng</v>
+          </cell>
+          <cell r="K69">
+            <v>1</v>
+          </cell>
+          <cell r="N69">
+            <v>2.0136986301369864</v>
+          </cell>
+          <cell r="O69">
+            <v>1</v>
+          </cell>
+          <cell r="P69">
+            <v>0</v>
+          </cell>
+          <cell r="Q69">
+            <v>1</v>
+          </cell>
+          <cell r="R69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>44418</v>
+          </cell>
+          <cell r="I70" t="str">
+            <v>Yan Chong Hui</v>
+          </cell>
+          <cell r="K70">
+            <v>1</v>
+          </cell>
+          <cell r="N70">
+            <v>1.7643835616438357</v>
+          </cell>
+          <cell r="O70">
+            <v>1</v>
+          </cell>
+          <cell r="P70">
+            <v>0</v>
+          </cell>
+          <cell r="Q70">
+            <v>1</v>
+          </cell>
+          <cell r="R70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>44229</v>
+          </cell>
+          <cell r="I71" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="L71">
+            <v>1</v>
+          </cell>
+          <cell r="N71">
+            <v>2.2821917808219179</v>
+          </cell>
+          <cell r="O71">
+            <v>0</v>
+          </cell>
+          <cell r="P71">
+            <v>1</v>
+          </cell>
+          <cell r="Q71">
+            <v>1</v>
+          </cell>
+          <cell r="R71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>44420</v>
+          </cell>
+          <cell r="I72" t="str">
+            <v>Bong Sell Feng</v>
+          </cell>
+          <cell r="N72">
+            <v>1.7589041095890412</v>
+          </cell>
+          <cell r="O72">
+            <v>0</v>
+          </cell>
+          <cell r="P72">
+            <v>1</v>
+          </cell>
+          <cell r="Q72">
+            <v>1</v>
+          </cell>
+          <cell r="R72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>44265</v>
+          </cell>
+          <cell r="I73" t="str">
+            <v>Zhao Zhe</v>
+          </cell>
+          <cell r="K73">
+            <v>1</v>
+          </cell>
+          <cell r="N73">
+            <v>2.1835616438356165</v>
+          </cell>
+          <cell r="O73">
+            <v>1</v>
+          </cell>
+          <cell r="P73">
+            <v>0</v>
+          </cell>
+          <cell r="Q73">
+            <v>1</v>
+          </cell>
+          <cell r="R73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>44774</v>
+          </cell>
+          <cell r="I74" t="str">
+            <v>Willie Chai</v>
+          </cell>
+          <cell r="N74">
+            <v>0.78904109589041094</v>
+          </cell>
+          <cell r="O74">
+            <v>0</v>
+          </cell>
+          <cell r="P74">
+            <v>1</v>
+          </cell>
+          <cell r="Q74">
+            <v>1</v>
+          </cell>
+          <cell r="R74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>44277</v>
+          </cell>
+          <cell r="I75" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="L75">
+            <v>1</v>
+          </cell>
+          <cell r="N75">
+            <v>2.1506849315068495</v>
+          </cell>
+          <cell r="O75">
+            <v>0</v>
+          </cell>
+          <cell r="P75">
+            <v>1</v>
+          </cell>
+          <cell r="Q75">
+            <v>1</v>
+          </cell>
+          <cell r="R75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>44484</v>
+          </cell>
+          <cell r="I76" t="str">
+            <v>Ng Kay Beng</v>
+          </cell>
+          <cell r="N76">
+            <v>1.5835616438356164</v>
+          </cell>
+          <cell r="O76">
+            <v>0</v>
+          </cell>
+          <cell r="P76">
+            <v>1</v>
+          </cell>
+          <cell r="Q76">
+            <v>1</v>
+          </cell>
+          <cell r="R76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>44490</v>
+          </cell>
+          <cell r="I77" t="str">
+            <v>Vance Kang</v>
+          </cell>
+          <cell r="N77">
+            <v>1.5671232876712329</v>
+          </cell>
+          <cell r="O77">
+            <v>0</v>
+          </cell>
+          <cell r="P77">
+            <v>1</v>
+          </cell>
+          <cell r="Q77">
+            <v>1</v>
+          </cell>
+          <cell r="R77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>44385</v>
+          </cell>
+          <cell r="I78" t="str">
+            <v>Richard Lim</v>
+          </cell>
+          <cell r="N78">
+            <v>1.8547945205479452</v>
+          </cell>
+          <cell r="O78">
+            <v>0</v>
+          </cell>
+          <cell r="P78">
+            <v>1</v>
+          </cell>
+          <cell r="Q78">
+            <v>1</v>
+          </cell>
+          <cell r="R78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>43615</v>
+          </cell>
+          <cell r="I79" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+          <cell r="L79">
+            <v>1</v>
+          </cell>
+          <cell r="N79">
+            <v>3.9643835616438357</v>
+          </cell>
+          <cell r="O79">
+            <v>0</v>
+          </cell>
+          <cell r="P79">
+            <v>1</v>
+          </cell>
+          <cell r="Q79">
+            <v>1</v>
+          </cell>
+          <cell r="R79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>43822</v>
+          </cell>
+          <cell r="I80" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="L80">
+            <v>1</v>
+          </cell>
+          <cell r="N80">
+            <v>3.3972602739726026</v>
+          </cell>
+          <cell r="O80">
+            <v>0</v>
+          </cell>
+          <cell r="P80">
+            <v>1</v>
+          </cell>
+          <cell r="Q80">
+            <v>1</v>
+          </cell>
+          <cell r="R80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>43850</v>
+          </cell>
+          <cell r="I81" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="L81">
+            <v>1</v>
+          </cell>
+          <cell r="N81">
+            <v>3.3205479452054796</v>
+          </cell>
+          <cell r="O81">
+            <v>0</v>
+          </cell>
+          <cell r="P81">
+            <v>1</v>
+          </cell>
+          <cell r="Q81">
+            <v>1</v>
+          </cell>
+          <cell r="R81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>44368</v>
+          </cell>
+          <cell r="I82" t="str">
+            <v>Teoh How Meng</v>
+          </cell>
+          <cell r="N82">
+            <v>1.9013698630136986</v>
+          </cell>
+          <cell r="O82">
+            <v>0</v>
+          </cell>
+          <cell r="P82">
+            <v>1</v>
+          </cell>
+          <cell r="Q82">
+            <v>1</v>
+          </cell>
+          <cell r="R82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>44362</v>
+          </cell>
+          <cell r="I83" t="str">
+            <v>Lee Xuan Yen</v>
+          </cell>
+          <cell r="N83">
+            <v>1.9178082191780821</v>
+          </cell>
+          <cell r="O83">
+            <v>0</v>
+          </cell>
+          <cell r="P83">
+            <v>1</v>
+          </cell>
+          <cell r="Q83">
+            <v>1</v>
+          </cell>
+          <cell r="R83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>44620</v>
+          </cell>
+          <cell r="I84" t="str">
+            <v>Yau Yen Nee</v>
+          </cell>
+          <cell r="N84">
+            <v>1.210958904109589</v>
+          </cell>
+          <cell r="O84">
+            <v>0</v>
+          </cell>
+          <cell r="P84">
+            <v>1</v>
+          </cell>
+          <cell r="Q84">
+            <v>1</v>
+          </cell>
+          <cell r="R84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>44289</v>
+          </cell>
+          <cell r="I85" t="str">
+            <v>Lim Leng Boon</v>
+          </cell>
+          <cell r="K85">
+            <v>1</v>
+          </cell>
+          <cell r="N85">
+            <v>2.117808219178082</v>
+          </cell>
+          <cell r="O85">
+            <v>1</v>
+          </cell>
+          <cell r="P85">
+            <v>0</v>
+          </cell>
+          <cell r="Q85">
+            <v>1</v>
+          </cell>
+          <cell r="R85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>43788</v>
+          </cell>
+          <cell r="I86" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="L86">
+            <v>1</v>
+          </cell>
+          <cell r="N86">
+            <v>3.4904109589041097</v>
+          </cell>
+          <cell r="O86">
+            <v>0</v>
+          </cell>
+          <cell r="P86">
+            <v>1</v>
+          </cell>
+          <cell r="Q86">
+            <v>1</v>
+          </cell>
+          <cell r="R86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>44322</v>
+          </cell>
+          <cell r="I87" t="str">
+            <v>Victor Tay</v>
+          </cell>
+          <cell r="K87">
+            <v>1</v>
+          </cell>
+          <cell r="N87">
+            <v>2.0273972602739727</v>
+          </cell>
+          <cell r="O87">
+            <v>1</v>
+          </cell>
+          <cell r="P87">
+            <v>0</v>
+          </cell>
+          <cell r="Q87">
+            <v>1</v>
+          </cell>
+          <cell r="R87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>44265</v>
+          </cell>
+          <cell r="I88" t="str">
+            <v>Goh Hooi Theng</v>
+          </cell>
+          <cell r="N88">
+            <v>2.1835616438356165</v>
+          </cell>
+          <cell r="O88">
+            <v>0</v>
+          </cell>
+          <cell r="P88">
+            <v>1</v>
+          </cell>
+          <cell r="Q88">
+            <v>1</v>
+          </cell>
+          <cell r="R88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>44328</v>
+          </cell>
+          <cell r="I89" t="str">
+            <v>Yan Chong Hui</v>
+          </cell>
+          <cell r="N89">
+            <v>2.010958904109589</v>
+          </cell>
+          <cell r="O89">
+            <v>0</v>
+          </cell>
+          <cell r="P89">
+            <v>1</v>
+          </cell>
+          <cell r="Q89">
+            <v>1</v>
+          </cell>
+          <cell r="R89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>44055</v>
+          </cell>
+          <cell r="I90" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="L90">
+            <v>1</v>
+          </cell>
+          <cell r="N90">
+            <v>2.7589041095890412</v>
+          </cell>
+          <cell r="O90">
+            <v>0</v>
+          </cell>
+          <cell r="P90">
+            <v>1</v>
+          </cell>
+          <cell r="Q90">
+            <v>1</v>
+          </cell>
+          <cell r="R90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>44291</v>
+          </cell>
+          <cell r="I91" t="str">
+            <v>Bong Sell Feng</v>
+          </cell>
+          <cell r="N91">
+            <v>2.1123287671232878</v>
+          </cell>
+          <cell r="O91">
+            <v>0</v>
+          </cell>
+          <cell r="P91">
+            <v>1</v>
+          </cell>
+          <cell r="Q91">
+            <v>1</v>
+          </cell>
+          <cell r="R91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>44376</v>
+          </cell>
+          <cell r="I92" t="str">
+            <v>Santoso</v>
+          </cell>
+          <cell r="N92">
+            <v>1.8794520547945206</v>
+          </cell>
+          <cell r="O92">
+            <v>0</v>
+          </cell>
+          <cell r="P92">
+            <v>1</v>
+          </cell>
+          <cell r="Q92">
+            <v>1</v>
+          </cell>
+          <cell r="R92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>44274</v>
+          </cell>
+          <cell r="I93" t="str">
+            <v>Zhao Zhe</v>
+          </cell>
+          <cell r="N93">
+            <v>2.1589041095890411</v>
+          </cell>
+          <cell r="O93">
+            <v>0</v>
+          </cell>
+          <cell r="P93">
+            <v>1</v>
+          </cell>
+          <cell r="Q93">
+            <v>1</v>
+          </cell>
+          <cell r="R93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>44375</v>
+          </cell>
+          <cell r="I94" t="str">
+            <v>Jimmy Wong</v>
+          </cell>
+          <cell r="N94">
+            <v>1.8821917808219177</v>
+          </cell>
+          <cell r="O94">
+            <v>0</v>
+          </cell>
+          <cell r="P94">
+            <v>1</v>
+          </cell>
+          <cell r="Q94">
+            <v>1</v>
+          </cell>
+          <cell r="R94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>44375</v>
+          </cell>
+          <cell r="I95" t="str">
+            <v>Rita Wong</v>
+          </cell>
+          <cell r="N95">
+            <v>1.8821917808219177</v>
+          </cell>
+          <cell r="O95">
+            <v>0</v>
+          </cell>
+          <cell r="P95">
+            <v>1</v>
+          </cell>
+          <cell r="Q95">
+            <v>1</v>
+          </cell>
+          <cell r="R95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>44375</v>
+          </cell>
+          <cell r="I96" t="str">
+            <v>Willie Chai</v>
+          </cell>
+          <cell r="N96">
+            <v>1.8821917808219177</v>
+          </cell>
+          <cell r="O96">
+            <v>0</v>
+          </cell>
+          <cell r="P96">
+            <v>1</v>
+          </cell>
+          <cell r="Q96">
+            <v>1</v>
+          </cell>
+          <cell r="R96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>44290</v>
+          </cell>
+          <cell r="I97" t="str">
+            <v>Chris Chong</v>
+          </cell>
+          <cell r="N97">
+            <v>2.1150684931506851</v>
+          </cell>
+          <cell r="O97">
+            <v>0</v>
+          </cell>
+          <cell r="P97">
+            <v>1</v>
+          </cell>
+          <cell r="Q97">
+            <v>1</v>
+          </cell>
+          <cell r="R97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>44257</v>
+          </cell>
+          <cell r="I98" t="str">
+            <v>Catherine Wong</v>
+          </cell>
+          <cell r="N98">
+            <v>2.2054794520547945</v>
+          </cell>
+          <cell r="O98">
+            <v>0</v>
+          </cell>
+          <cell r="P98">
+            <v>1</v>
+          </cell>
+          <cell r="Q98">
+            <v>1</v>
+          </cell>
+          <cell r="R98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>44013</v>
+          </cell>
+          <cell r="I99" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="L99">
+            <v>1</v>
+          </cell>
+          <cell r="N99">
+            <v>2.8739726027397259</v>
+          </cell>
+          <cell r="O99">
+            <v>0</v>
+          </cell>
+          <cell r="P99">
+            <v>1</v>
+          </cell>
+          <cell r="Q99">
+            <v>1</v>
+          </cell>
+          <cell r="R99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>44210</v>
+          </cell>
+          <cell r="I100" t="str">
+            <v>Ng Kay Beng</v>
+          </cell>
+          <cell r="K100">
+            <v>1</v>
+          </cell>
+          <cell r="N100">
+            <v>2.3342465753424659</v>
+          </cell>
+          <cell r="O100">
+            <v>1</v>
+          </cell>
+          <cell r="P100">
+            <v>0</v>
+          </cell>
+          <cell r="Q100">
+            <v>1</v>
+          </cell>
+          <cell r="R100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>43973</v>
+          </cell>
+          <cell r="I101" t="str">
+            <v>Chin Wee Keong</v>
+          </cell>
+          <cell r="N101">
+            <v>2.9835616438356163</v>
+          </cell>
+          <cell r="O101">
+            <v>0</v>
+          </cell>
+          <cell r="P101">
+            <v>1</v>
+          </cell>
+          <cell r="Q101">
+            <v>1</v>
+          </cell>
+          <cell r="R101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>43334</v>
+          </cell>
+          <cell r="I102" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+          <cell r="N102">
+            <v>4.7342465753424658</v>
+          </cell>
+          <cell r="O102">
+            <v>0</v>
+          </cell>
+          <cell r="P102">
+            <v>1</v>
+          </cell>
+          <cell r="Q102">
+            <v>1</v>
+          </cell>
+          <cell r="R102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>44188</v>
+          </cell>
+          <cell r="I103" t="str">
+            <v>Vance Kang</v>
+          </cell>
+          <cell r="N103">
+            <v>2.3945205479452056</v>
+          </cell>
+          <cell r="O103">
+            <v>0</v>
+          </cell>
+          <cell r="P103">
+            <v>1</v>
+          </cell>
+          <cell r="Q103">
+            <v>1</v>
+          </cell>
+          <cell r="R103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>44208</v>
+          </cell>
+          <cell r="I104" t="str">
+            <v>Lim Meng May</v>
+          </cell>
+          <cell r="N104">
+            <v>2.3397260273972602</v>
+          </cell>
+          <cell r="O104">
+            <v>0</v>
+          </cell>
+          <cell r="P104">
+            <v>1</v>
+          </cell>
+          <cell r="Q104">
+            <v>1</v>
+          </cell>
+          <cell r="R104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>43509</v>
+          </cell>
+          <cell r="I105" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="K105">
+            <v>1</v>
+          </cell>
+          <cell r="L105">
+            <v>1</v>
+          </cell>
+          <cell r="N105">
+            <v>4.2547945205479456</v>
+          </cell>
+          <cell r="O105">
+            <v>1</v>
+          </cell>
+          <cell r="P105">
+            <v>0</v>
+          </cell>
+          <cell r="Q105">
+            <v>1</v>
+          </cell>
+          <cell r="R105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>43759</v>
+          </cell>
+          <cell r="I106" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="N106">
+            <v>3.56986301369863</v>
+          </cell>
+          <cell r="O106">
+            <v>0</v>
+          </cell>
+          <cell r="P106">
+            <v>1</v>
+          </cell>
+          <cell r="Q106">
+            <v>1</v>
+          </cell>
+          <cell r="R106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>44033</v>
+          </cell>
+          <cell r="I107" t="str">
+            <v>Teoh How Meng</v>
+          </cell>
+          <cell r="K107">
+            <v>1</v>
+          </cell>
+          <cell r="N107">
+            <v>2.8191780821917809</v>
+          </cell>
+          <cell r="O107">
+            <v>1</v>
+          </cell>
+          <cell r="P107">
+            <v>0</v>
+          </cell>
+          <cell r="Q107">
+            <v>1</v>
+          </cell>
+          <cell r="R107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>44182</v>
+          </cell>
+          <cell r="I108" t="str">
+            <v>Lim Leng Boon</v>
+          </cell>
+          <cell r="N108">
+            <v>2.4109589041095889</v>
+          </cell>
+          <cell r="O108">
+            <v>0</v>
+          </cell>
+          <cell r="P108">
+            <v>1</v>
+          </cell>
+          <cell r="Q108">
+            <v>1</v>
+          </cell>
+          <cell r="R108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>44130</v>
+          </cell>
+          <cell r="I109" t="str">
+            <v>Steve Ang</v>
+          </cell>
+          <cell r="N109">
+            <v>2.5534246575342467</v>
+          </cell>
+          <cell r="O109">
+            <v>0</v>
+          </cell>
+          <cell r="P109">
+            <v>1</v>
+          </cell>
+          <cell r="Q109">
+            <v>1</v>
+          </cell>
+          <cell r="R109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>43503</v>
+          </cell>
+          <cell r="I110" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="L110">
+            <v>1</v>
+          </cell>
+          <cell r="N110">
+            <v>4.2712328767123289</v>
+          </cell>
+          <cell r="O110">
+            <v>0</v>
+          </cell>
+          <cell r="P110">
+            <v>1</v>
+          </cell>
+          <cell r="Q110">
+            <v>1</v>
+          </cell>
+          <cell r="R110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>44260</v>
+          </cell>
+          <cell r="I111" t="str">
+            <v>Victor Tay</v>
+          </cell>
+          <cell r="N111">
+            <v>2.1972602739726028</v>
+          </cell>
+          <cell r="O111">
+            <v>0</v>
+          </cell>
+          <cell r="P111">
+            <v>1</v>
+          </cell>
+          <cell r="Q111">
+            <v>1</v>
+          </cell>
+          <cell r="R111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>44009</v>
+          </cell>
+          <cell r="I112" t="str">
+            <v>Goh Hooi Theng</v>
+          </cell>
+          <cell r="N112">
+            <v>2.8849315068493149</v>
+          </cell>
+          <cell r="O112">
+            <v>0</v>
+          </cell>
+          <cell r="P112">
+            <v>1</v>
+          </cell>
+          <cell r="Q112">
+            <v>1</v>
+          </cell>
+          <cell r="R112">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>44019</v>
+          </cell>
+          <cell r="I113" t="str">
+            <v>Yan Chong Hui</v>
+          </cell>
+          <cell r="K113">
+            <v>1</v>
+          </cell>
+          <cell r="N113">
+            <v>2.8575342465753426</v>
+          </cell>
+          <cell r="O113">
+            <v>1</v>
+          </cell>
+          <cell r="P113">
+            <v>0</v>
+          </cell>
+          <cell r="Q113">
+            <v>1</v>
+          </cell>
+          <cell r="R113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>43808</v>
+          </cell>
+          <cell r="I114" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="L114">
+            <v>1</v>
+          </cell>
+          <cell r="N114">
+            <v>3.4356164383561643</v>
+          </cell>
+          <cell r="O114">
+            <v>0</v>
+          </cell>
+          <cell r="P114">
+            <v>1</v>
+          </cell>
+          <cell r="Q114">
+            <v>1</v>
+          </cell>
+          <cell r="R114">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>44048</v>
+          </cell>
+          <cell r="I115" t="str">
+            <v>Bong Sell Feng</v>
+          </cell>
+          <cell r="N115">
+            <v>2.7780821917808218</v>
+          </cell>
+          <cell r="O115">
+            <v>0</v>
+          </cell>
+          <cell r="P115">
+            <v>1</v>
+          </cell>
+          <cell r="Q115">
+            <v>1</v>
+          </cell>
+          <cell r="R115">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>44189</v>
+          </cell>
+          <cell r="I116" t="str">
+            <v>Santoso</v>
+          </cell>
+          <cell r="N116">
+            <v>2.3917808219178083</v>
+          </cell>
+          <cell r="O116">
+            <v>0</v>
+          </cell>
+          <cell r="P116">
+            <v>1</v>
+          </cell>
+          <cell r="Q116">
+            <v>1</v>
+          </cell>
+          <cell r="R116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>44243</v>
+          </cell>
+          <cell r="I117" t="str">
+            <v>Kelvin Ong</v>
+          </cell>
+          <cell r="N117">
+            <v>2.2438356164383562</v>
+          </cell>
+          <cell r="O117">
+            <v>0</v>
+          </cell>
+          <cell r="P117">
+            <v>1</v>
+          </cell>
+          <cell r="Q117">
+            <v>1</v>
+          </cell>
+          <cell r="R117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>44165</v>
+          </cell>
+          <cell r="I118" t="str">
+            <v>Tran Chi Trung</v>
+          </cell>
+          <cell r="K118">
+            <v>1</v>
+          </cell>
+          <cell r="N118">
+            <v>2.4575342465753423</v>
+          </cell>
+          <cell r="O118">
+            <v>1</v>
+          </cell>
+          <cell r="P118">
+            <v>0</v>
+          </cell>
+          <cell r="Q118">
+            <v>1</v>
+          </cell>
+          <cell r="R118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>43781</v>
+          </cell>
+          <cell r="I119" t="str">
+            <v>Zhao Zhe</v>
+          </cell>
+          <cell r="K119">
+            <v>1</v>
+          </cell>
+          <cell r="N119">
+            <v>3.5095890410958903</v>
+          </cell>
+          <cell r="O119">
+            <v>1</v>
+          </cell>
+          <cell r="P119">
+            <v>0</v>
+          </cell>
+          <cell r="Q119">
+            <v>1</v>
+          </cell>
+          <cell r="R119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>44133</v>
+          </cell>
+          <cell r="I120" t="str">
+            <v>Jimmy Wong</v>
+          </cell>
+          <cell r="N120">
+            <v>2.5452054794520547</v>
+          </cell>
+          <cell r="O120">
+            <v>0</v>
+          </cell>
+          <cell r="P120">
+            <v>1</v>
+          </cell>
+          <cell r="Q120">
+            <v>1</v>
+          </cell>
+          <cell r="R120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>44160</v>
+          </cell>
+          <cell r="I121" t="str">
+            <v>Rita Wong</v>
+          </cell>
+          <cell r="N121">
+            <v>2.4712328767123286</v>
+          </cell>
+          <cell r="O121">
+            <v>0</v>
+          </cell>
+          <cell r="P121">
+            <v>1</v>
+          </cell>
+          <cell r="Q121">
+            <v>1</v>
+          </cell>
+          <cell r="R121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>44166</v>
+          </cell>
+          <cell r="I122" t="str">
+            <v>Chris Chong</v>
+          </cell>
+          <cell r="N122">
+            <v>2.4547945205479453</v>
+          </cell>
+          <cell r="O122">
+            <v>0</v>
+          </cell>
+          <cell r="P122">
+            <v>1</v>
+          </cell>
+          <cell r="Q122">
+            <v>1</v>
+          </cell>
+          <cell r="R122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>44182</v>
+          </cell>
+          <cell r="I123" t="str">
+            <v>Willie Chai</v>
+          </cell>
+          <cell r="N123">
+            <v>2.4109589041095889</v>
+          </cell>
+          <cell r="O123">
+            <v>0</v>
+          </cell>
+          <cell r="P123">
+            <v>1</v>
+          </cell>
+          <cell r="Q123">
+            <v>1</v>
+          </cell>
+          <cell r="R123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>44817</v>
+          </cell>
+          <cell r="I124" t="str">
+            <v>Catherine Wong</v>
+          </cell>
+          <cell r="K124">
+            <v>1</v>
+          </cell>
+          <cell r="N124">
+            <v>0.67123287671232879</v>
+          </cell>
+          <cell r="O124">
+            <v>1</v>
+          </cell>
+          <cell r="P124">
+            <v>0</v>
+          </cell>
+          <cell r="Q124">
+            <v>1</v>
+          </cell>
+          <cell r="R124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>44809</v>
+          </cell>
+          <cell r="I125" t="str">
+            <v>Victor Tay</v>
+          </cell>
+          <cell r="K125">
+            <v>1</v>
+          </cell>
+          <cell r="N125">
+            <v>0.69315068493150689</v>
+          </cell>
+          <cell r="O125">
+            <v>1</v>
+          </cell>
+          <cell r="P125">
+            <v>0</v>
+          </cell>
+          <cell r="Q125">
+            <v>1</v>
+          </cell>
+          <cell r="R125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>44819</v>
+          </cell>
+          <cell r="I126" t="str">
+            <v>Lim Leng Boon</v>
+          </cell>
+          <cell r="K126">
+            <v>1</v>
+          </cell>
+          <cell r="N126">
+            <v>0.66575342465753429</v>
+          </cell>
+          <cell r="O126">
+            <v>1</v>
+          </cell>
+          <cell r="P126">
+            <v>0</v>
+          </cell>
+          <cell r="Q126">
+            <v>1</v>
+          </cell>
+          <cell r="R126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>44834</v>
+          </cell>
+          <cell r="I127" t="str">
+            <v>Lim Meng May</v>
+          </cell>
+          <cell r="K127">
+            <v>1</v>
+          </cell>
+          <cell r="N127">
+            <v>0.62465753424657533</v>
+          </cell>
+          <cell r="O127">
+            <v>1</v>
+          </cell>
+          <cell r="P127">
+            <v>0</v>
+          </cell>
+          <cell r="Q127">
+            <v>1</v>
+          </cell>
+          <cell r="R127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>44837</v>
+          </cell>
+          <cell r="I128" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="L128">
+            <v>1</v>
+          </cell>
+          <cell r="N128">
+            <v>0.61643835616438358</v>
+          </cell>
+          <cell r="O128">
+            <v>0</v>
+          </cell>
+          <cell r="P128">
+            <v>1</v>
+          </cell>
+          <cell r="Q128">
+            <v>1</v>
+          </cell>
+          <cell r="R128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>44851</v>
+          </cell>
+          <cell r="I129" t="str">
+            <v>Willie Chai</v>
+          </cell>
+          <cell r="N129">
+            <v>0.57808219178082187</v>
+          </cell>
+          <cell r="O129">
+            <v>1</v>
+          </cell>
+          <cell r="P129">
+            <v>0</v>
+          </cell>
+          <cell r="Q129">
+            <v>0</v>
+          </cell>
+          <cell r="R129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>44855</v>
+          </cell>
+          <cell r="I130" t="str">
+            <v>Chang Heng Choy</v>
+          </cell>
+          <cell r="N130">
+            <v>0.56712328767123288</v>
+          </cell>
+          <cell r="O130">
+            <v>0</v>
+          </cell>
+          <cell r="P130">
+            <v>1</v>
+          </cell>
+          <cell r="Q130">
+            <v>1</v>
+          </cell>
+          <cell r="R130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>44861</v>
+          </cell>
+          <cell r="I131" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="K131">
+            <v>1</v>
+          </cell>
+          <cell r="L131">
+            <v>1</v>
+          </cell>
+          <cell r="N131">
+            <v>0.55068493150684927</v>
+          </cell>
+          <cell r="O131">
+            <v>1</v>
+          </cell>
+          <cell r="P131">
+            <v>0</v>
+          </cell>
+          <cell r="Q131">
+            <v>0</v>
+          </cell>
+          <cell r="R131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>44862</v>
+          </cell>
+          <cell r="I132" t="str">
+            <v>Chris Chong</v>
+          </cell>
+          <cell r="N132">
+            <v>0.54794520547945202</v>
+          </cell>
+          <cell r="O132">
+            <v>1</v>
+          </cell>
+          <cell r="P132">
+            <v>0</v>
+          </cell>
+          <cell r="Q132">
+            <v>0</v>
+          </cell>
+          <cell r="R132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>44872</v>
+          </cell>
+          <cell r="I133" t="str">
+            <v>Zhao Zhe</v>
+          </cell>
+          <cell r="N133">
+            <v>0.52054794520547942</v>
+          </cell>
+          <cell r="O133">
+            <v>0</v>
+          </cell>
+          <cell r="P133">
+            <v>1</v>
+          </cell>
+          <cell r="Q133">
+            <v>1</v>
+          </cell>
+          <cell r="R133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>44873</v>
+          </cell>
+          <cell r="I134" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="L134">
+            <v>1</v>
+          </cell>
+          <cell r="N134">
+            <v>0.51780821917808217</v>
+          </cell>
+          <cell r="O134">
+            <v>0</v>
+          </cell>
+          <cell r="P134">
+            <v>1</v>
+          </cell>
+          <cell r="Q134">
+            <v>1</v>
+          </cell>
+          <cell r="R134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>44879</v>
+          </cell>
+          <cell r="I135" t="str">
+            <v>Lee Xuan Yen</v>
+          </cell>
+          <cell r="N135">
+            <v>0.50136986301369868</v>
+          </cell>
+          <cell r="O135">
+            <v>0</v>
+          </cell>
+          <cell r="P135">
+            <v>1</v>
+          </cell>
+          <cell r="Q135">
+            <v>1</v>
+          </cell>
+          <cell r="R135">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>44879</v>
+          </cell>
+          <cell r="I136" t="str">
+            <v>Yan Chong Hui</v>
+          </cell>
+          <cell r="K136">
+            <v>1</v>
+          </cell>
+          <cell r="N136">
+            <v>0.50136986301369868</v>
+          </cell>
+          <cell r="O136">
+            <v>1</v>
+          </cell>
+          <cell r="P136">
+            <v>0</v>
+          </cell>
+          <cell r="Q136">
+            <v>0</v>
+          </cell>
+          <cell r="R136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>44890</v>
+          </cell>
+          <cell r="I137" t="str">
+            <v>Chang Heng Choy</v>
+          </cell>
+          <cell r="N137">
+            <v>0.47123287671232877</v>
+          </cell>
+          <cell r="O137">
+            <v>1</v>
+          </cell>
+          <cell r="P137">
+            <v>0</v>
+          </cell>
+          <cell r="Q137">
+            <v>0</v>
+          </cell>
+          <cell r="R137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>44890</v>
+          </cell>
+          <cell r="I138" t="str">
+            <v>Ng Kay Beng</v>
+          </cell>
+          <cell r="K138">
+            <v>1</v>
+          </cell>
+          <cell r="N138">
+            <v>0.47123287671232877</v>
+          </cell>
+          <cell r="O138">
+            <v>1</v>
+          </cell>
+          <cell r="P138">
+            <v>0</v>
+          </cell>
+          <cell r="Q138">
+            <v>0</v>
+          </cell>
+          <cell r="R138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>44900</v>
+          </cell>
+          <cell r="I139" t="str">
+            <v>Michael Sien</v>
+          </cell>
+          <cell r="K139">
+            <v>1</v>
+          </cell>
+          <cell r="L139">
+            <v>1</v>
+          </cell>
+          <cell r="N139">
+            <v>0.44383561643835617</v>
+          </cell>
+          <cell r="O139">
+            <v>1</v>
+          </cell>
+          <cell r="P139">
+            <v>0</v>
+          </cell>
+          <cell r="Q139">
+            <v>1</v>
+          </cell>
+          <cell r="R139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>44902</v>
+          </cell>
+          <cell r="I140" t="str">
+            <v>Jimmy Wong</v>
+          </cell>
+          <cell r="N140">
+            <v>0.43835616438356162</v>
+          </cell>
+          <cell r="O140">
+            <v>0</v>
+          </cell>
+          <cell r="P140">
+            <v>1</v>
+          </cell>
+          <cell r="Q140">
+            <v>1</v>
+          </cell>
+          <cell r="R140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>44909</v>
+          </cell>
+          <cell r="I141" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="L141">
+            <v>1</v>
+          </cell>
+          <cell r="N141">
+            <v>0.41917808219178082</v>
+          </cell>
+          <cell r="O141">
+            <v>0</v>
+          </cell>
+          <cell r="P141">
+            <v>1</v>
+          </cell>
+          <cell r="Q141">
+            <v>1</v>
+          </cell>
+          <cell r="R141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>44645</v>
+          </cell>
+          <cell r="I142" t="str">
+            <v>Bong Sell Feng</v>
+          </cell>
+          <cell r="K142">
+            <v>1</v>
+          </cell>
+          <cell r="N142">
+            <v>1.1424657534246576</v>
+          </cell>
+          <cell r="O142">
+            <v>0</v>
+          </cell>
+          <cell r="P142">
+            <v>1</v>
+          </cell>
+          <cell r="Q142">
+            <v>0</v>
+          </cell>
+          <cell r="R142">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>44728</v>
+          </cell>
+          <cell r="I143" t="str">
+            <v>Kang Mi</v>
+          </cell>
+          <cell r="K143">
+            <v>1</v>
+          </cell>
+          <cell r="N143">
+            <v>0.91506849315068495</v>
+          </cell>
+          <cell r="O143">
+            <v>0</v>
+          </cell>
+          <cell r="P143">
+            <v>1</v>
+          </cell>
+          <cell r="Q143">
+            <v>0</v>
+          </cell>
+          <cell r="R143">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>44713</v>
+          </cell>
+          <cell r="I144" t="str">
+            <v>Chang Heng Choy</v>
+          </cell>
+          <cell r="K144">
+            <v>1</v>
+          </cell>
+          <cell r="N144">
+            <v>0.95616438356164379</v>
+          </cell>
+          <cell r="O144">
+            <v>0</v>
+          </cell>
+          <cell r="P144">
+            <v>1</v>
+          </cell>
+          <cell r="Q144">
+            <v>0</v>
+          </cell>
+          <cell r="R144">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>44869</v>
+          </cell>
+          <cell r="I145" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="K145">
+            <v>1</v>
+          </cell>
+          <cell r="N145">
+            <v>0.52876712328767128</v>
+          </cell>
+          <cell r="O145">
+            <v>0</v>
+          </cell>
+          <cell r="P145">
+            <v>1</v>
+          </cell>
+          <cell r="Q145">
+            <v>0</v>
+          </cell>
+          <cell r="R145">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>44829</v>
+          </cell>
+          <cell r="I146" t="str">
+            <v>Catherine Wong</v>
+          </cell>
+          <cell r="K146">
+            <v>1</v>
+          </cell>
+          <cell r="N146">
+            <v>0.63835616438356169</v>
+          </cell>
+          <cell r="O146">
+            <v>0</v>
+          </cell>
+          <cell r="P146">
+            <v>1</v>
+          </cell>
+          <cell r="Q146">
+            <v>0</v>
+          </cell>
+          <cell r="R146">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>44743</v>
+          </cell>
+          <cell r="I147" t="str">
+            <v>Santoso</v>
+          </cell>
+          <cell r="K147">
+            <v>1</v>
+          </cell>
+          <cell r="N147">
+            <v>0.87397260273972599</v>
+          </cell>
+          <cell r="O147">
+            <v>0</v>
+          </cell>
+          <cell r="P147">
+            <v>1</v>
+          </cell>
+          <cell r="Q147">
+            <v>0</v>
+          </cell>
+          <cell r="R147">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>44840</v>
+          </cell>
+          <cell r="I148" t="str">
+            <v>Lim Meng May</v>
+          </cell>
+          <cell r="K148">
+            <v>1</v>
+          </cell>
+          <cell r="N148">
+            <v>0.60821917808219184</v>
+          </cell>
+          <cell r="O148">
+            <v>0</v>
+          </cell>
+          <cell r="P148">
+            <v>1</v>
+          </cell>
+          <cell r="Q148">
+            <v>0</v>
+          </cell>
+          <cell r="R148">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>44797</v>
+          </cell>
+          <cell r="I149" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="K149">
+            <v>1</v>
+          </cell>
+          <cell r="N149">
+            <v>0.72602739726027399</v>
+          </cell>
+          <cell r="O149">
+            <v>0</v>
+          </cell>
+          <cell r="P149">
+            <v>1</v>
+          </cell>
+          <cell r="Q149">
+            <v>0</v>
+          </cell>
+          <cell r="R149">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>44914</v>
+          </cell>
+          <cell r="I150" t="str">
+            <v>Chris Chong</v>
+          </cell>
+          <cell r="N150">
+            <v>0.40547945205479452</v>
+          </cell>
+          <cell r="O150">
+            <v>0</v>
+          </cell>
+          <cell r="P150">
+            <v>1</v>
+          </cell>
+          <cell r="Q150">
+            <v>1</v>
+          </cell>
+          <cell r="R150">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>44918</v>
+          </cell>
+          <cell r="I151" t="str">
+            <v>Jimmy Wong</v>
+          </cell>
+          <cell r="N151">
+            <v>0.39452054794520547</v>
+          </cell>
+          <cell r="O151">
+            <v>1</v>
+          </cell>
+          <cell r="P151">
+            <v>0</v>
+          </cell>
+          <cell r="Q151">
+            <v>0</v>
+          </cell>
+          <cell r="R151">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>44923</v>
+          </cell>
+          <cell r="I152" t="str">
+            <v>Bong Sell Feng</v>
+          </cell>
+          <cell r="K152">
+            <v>1</v>
+          </cell>
+          <cell r="N152">
+            <v>0.38082191780821917</v>
+          </cell>
+          <cell r="O152">
+            <v>0</v>
+          </cell>
+          <cell r="P152">
+            <v>1</v>
+          </cell>
+          <cell r="Q152">
+            <v>0</v>
+          </cell>
+          <cell r="R152">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>44923</v>
+          </cell>
+          <cell r="I153" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+          <cell r="N153">
+            <v>0.38082191780821917</v>
+          </cell>
+          <cell r="O153">
+            <v>0</v>
+          </cell>
+          <cell r="P153">
+            <v>1</v>
+          </cell>
+          <cell r="Q153">
+            <v>1</v>
+          </cell>
+          <cell r="R153">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>44938</v>
+          </cell>
+          <cell r="I154" t="str">
+            <v>Joanne</v>
+          </cell>
+          <cell r="L154">
+            <v>1</v>
+          </cell>
+          <cell r="N154">
+            <v>0.33972602739726027</v>
+          </cell>
+          <cell r="O154">
+            <v>0</v>
+          </cell>
+          <cell r="P154">
+            <v>1</v>
+          </cell>
+          <cell r="Q154">
+            <v>1</v>
+          </cell>
+          <cell r="R154">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>44942</v>
+          </cell>
+          <cell r="I155" t="str">
+            <v>Vance Kang</v>
+          </cell>
+          <cell r="N155">
+            <v>0.32876712328767121</v>
+          </cell>
+          <cell r="O155">
+            <v>1</v>
+          </cell>
+          <cell r="P155">
+            <v>0</v>
+          </cell>
+          <cell r="Q155">
+            <v>0</v>
+          </cell>
+          <cell r="R155">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>44946</v>
+          </cell>
+          <cell r="I156" t="str">
+            <v>Lim Kheng Guan</v>
+          </cell>
+          <cell r="K156">
+            <v>1</v>
+          </cell>
+          <cell r="N156">
+            <v>0.31780821917808222</v>
+          </cell>
+          <cell r="O156">
+            <v>1</v>
+          </cell>
+          <cell r="P156">
+            <v>0</v>
+          </cell>
+          <cell r="Q156">
+            <v>0</v>
+          </cell>
+          <cell r="R156">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>44951</v>
+          </cell>
+          <cell r="I157" t="str">
+            <v>Woo Kwan Wye</v>
+          </cell>
+          <cell r="K157">
+            <v>1</v>
+          </cell>
+          <cell r="L157">
+            <v>1</v>
+          </cell>
+          <cell r="N157">
+            <v>0.30410958904109592</v>
+          </cell>
+          <cell r="O157">
+            <v>1</v>
+          </cell>
+          <cell r="P157">
+            <v>0</v>
+          </cell>
+          <cell r="Q157">
+            <v>1</v>
+          </cell>
+          <cell r="R157">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>44963</v>
+          </cell>
+          <cell r="I158" t="str">
+            <v>Tan Chong Lin</v>
+          </cell>
+          <cell r="K158">
+            <v>1</v>
+          </cell>
+          <cell r="L158">
+            <v>1</v>
+          </cell>
+          <cell r="N158">
+            <v>0.27123287671232876</v>
+          </cell>
+          <cell r="O158">
+            <v>1</v>
+          </cell>
+          <cell r="P158">
+            <v>0</v>
+          </cell>
+          <cell r="Q158">
+            <v>1</v>
+          </cell>
+          <cell r="R158">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>44967</v>
+          </cell>
+          <cell r="I159" t="str">
+            <v>Charmaine Fang</v>
+          </cell>
+          <cell r="K159">
+            <v>1</v>
+          </cell>
+          <cell r="L159">
+            <v>1</v>
+          </cell>
+          <cell r="N159">
+            <v>0.26027397260273971</v>
+          </cell>
+          <cell r="O159">
+            <v>1</v>
+          </cell>
+          <cell r="P159">
+            <v>0</v>
+          </cell>
+          <cell r="Q159">
+            <v>1</v>
+          </cell>
+          <cell r="R159">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>44984</v>
+          </cell>
+          <cell r="I160" t="str">
+            <v>Yan Chong Hui</v>
+          </cell>
+          <cell r="N160">
+            <v>0.21369863013698631</v>
+          </cell>
+          <cell r="O160">
+            <v>0</v>
+          </cell>
+          <cell r="P160">
+            <v>1</v>
+          </cell>
+          <cell r="Q160">
+            <v>1</v>
+          </cell>
+          <cell r="R160">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>44988</v>
+          </cell>
+          <cell r="I161" t="str">
+            <v>Ng Kay Beng</v>
+          </cell>
+          <cell r="K161">
+            <v>1</v>
+          </cell>
+          <cell r="N161">
+            <v>0.20273972602739726</v>
+          </cell>
+          <cell r="O161">
+            <v>1</v>
+          </cell>
+          <cell r="P161">
+            <v>0</v>
+          </cell>
+          <cell r="Q161">
+            <v>1</v>
+          </cell>
+          <cell r="R161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>44981</v>
+          </cell>
+          <cell r="I162" t="str">
+            <v>Brian Phua</v>
+          </cell>
+          <cell r="K162">
+            <v>1</v>
+          </cell>
+          <cell r="L162">
+            <v>1</v>
+          </cell>
+          <cell r="N162">
+            <v>0.22191780821917809</v>
+          </cell>
+          <cell r="O162">
+            <v>1</v>
+          </cell>
+          <cell r="P162">
+            <v>0</v>
+          </cell>
+          <cell r="Q162">
+            <v>1</v>
+          </cell>
+          <cell r="R162">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>45005</v>
+          </cell>
+          <cell r="I163" t="str">
+            <v>Chris Chong</v>
+          </cell>
+          <cell r="K163">
+            <v>1</v>
+          </cell>
+          <cell r="N163">
+            <v>0.15616438356164383</v>
+          </cell>
+          <cell r="O163">
+            <v>1</v>
+          </cell>
+          <cell r="P163">
+            <v>0</v>
+          </cell>
+          <cell r="Q163">
+            <v>0</v>
+          </cell>
+          <cell r="R163">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164">
+            <v>45007</v>
+          </cell>
+          <cell r="I164" t="str">
+            <v>Bong Sell Feng</v>
+          </cell>
+          <cell r="L164">
+            <v>1</v>
+          </cell>
+          <cell r="N164">
+            <v>0.15068493150684931</v>
+          </cell>
+          <cell r="O164">
+            <v>0</v>
+          </cell>
+          <cell r="P164">
+            <v>1</v>
+          </cell>
+          <cell r="Q164">
+            <v>1</v>
+          </cell>
+          <cell r="R164">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165">
+            <v>45020</v>
+          </cell>
+          <cell r="I165" t="str">
+            <v>Lee Xuan Yen</v>
+          </cell>
+          <cell r="N165">
+            <v>0.11506849315068493</v>
+          </cell>
+          <cell r="O165">
+            <v>1</v>
+          </cell>
+          <cell r="P165">
+            <v>0</v>
+          </cell>
+          <cell r="Q165">
+            <v>0</v>
+          </cell>
+          <cell r="R165">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166">
+            <v>45021</v>
+          </cell>
+          <cell r="I166" t="str">
+            <v>Santoso</v>
+          </cell>
+          <cell r="N166">
+            <v>0.11232876712328767</v>
+          </cell>
+          <cell r="O166">
+            <v>1</v>
+          </cell>
+          <cell r="P166">
+            <v>0</v>
+          </cell>
+          <cell r="Q166">
+            <v>0</v>
+          </cell>
+          <cell r="R166">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167">
+            <v>45026</v>
+          </cell>
+          <cell r="I167" t="str">
+            <v>Zhao Zhe</v>
+          </cell>
+          <cell r="K167">
+            <v>1</v>
+          </cell>
+          <cell r="N167">
+            <v>9.8630136986301367E-2</v>
+          </cell>
+          <cell r="O167">
+            <v>1</v>
+          </cell>
+          <cell r="P167">
+            <v>0</v>
+          </cell>
+          <cell r="Q167">
+            <v>1</v>
+          </cell>
+          <cell r="R167">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168">
+            <v>45030</v>
+          </cell>
+          <cell r="I168" t="str">
+            <v>Richard Lim</v>
+          </cell>
+          <cell r="N168">
+            <v>8.7671232876712329E-2</v>
+          </cell>
+          <cell r="O168">
+            <v>1</v>
+          </cell>
+          <cell r="P168">
+            <v>0</v>
+          </cell>
+          <cell r="Q168">
+            <v>0</v>
+          </cell>
+          <cell r="R168">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169">
+            <v>45034</v>
+          </cell>
+          <cell r="I169" t="str">
+            <v>Catherine Wong</v>
+          </cell>
+          <cell r="N169">
+            <v>7.6712328767123292E-2</v>
+          </cell>
+          <cell r="O169">
+            <v>1</v>
+          </cell>
+          <cell r="P169">
+            <v>0</v>
+          </cell>
+          <cell r="Q169">
+            <v>0</v>
+          </cell>
+          <cell r="R169">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170">
+            <v>45044</v>
+          </cell>
+          <cell r="I170" t="str">
+            <v>Lim Meng May</v>
+          </cell>
+          <cell r="N170">
+            <v>4.9315068493150684E-2</v>
+          </cell>
+          <cell r="O170">
+            <v>0</v>
+          </cell>
+          <cell r="P170">
+            <v>1</v>
+          </cell>
+          <cell r="Q170">
+            <v>1</v>
+          </cell>
+          <cell r="R170">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171">
+            <v>45054</v>
+          </cell>
+          <cell r="I171" t="str">
+            <v>Yan Chong Hui</v>
+          </cell>
+          <cell r="N171">
+            <v>2.1917808219178082E-2</v>
+          </cell>
+          <cell r="O171">
+            <v>0</v>
+          </cell>
+          <cell r="P171">
+            <v>1</v>
+          </cell>
+          <cell r="Q171">
+            <v>1</v>
+          </cell>
+          <cell r="R171">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="N172">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O172">
+            <v>0</v>
+          </cell>
+          <cell r="P172">
+            <v>1</v>
+          </cell>
+          <cell r="Q172">
+            <v>0</v>
+          </cell>
+          <cell r="R172">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="N173">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O173">
+            <v>0</v>
+          </cell>
+          <cell r="P173">
+            <v>1</v>
+          </cell>
+          <cell r="Q173">
+            <v>0</v>
+          </cell>
+          <cell r="R173">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="N174">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O174">
+            <v>0</v>
+          </cell>
+          <cell r="P174">
+            <v>1</v>
+          </cell>
+          <cell r="Q174">
+            <v>0</v>
+          </cell>
+          <cell r="R174">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="N175">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O175">
+            <v>0</v>
+          </cell>
+          <cell r="P175">
+            <v>1</v>
+          </cell>
+          <cell r="Q175">
+            <v>0</v>
+          </cell>
+          <cell r="R175">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="N176">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O176">
+            <v>0</v>
+          </cell>
+          <cell r="P176">
+            <v>1</v>
+          </cell>
+          <cell r="Q176">
+            <v>0</v>
+          </cell>
+          <cell r="R176">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="N177">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O177">
+            <v>0</v>
+          </cell>
+          <cell r="P177">
+            <v>1</v>
+          </cell>
+          <cell r="Q177">
+            <v>0</v>
+          </cell>
+          <cell r="R177">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="N178">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O178">
+            <v>0</v>
+          </cell>
+          <cell r="P178">
+            <v>1</v>
+          </cell>
+          <cell r="Q178">
+            <v>0</v>
+          </cell>
+          <cell r="R178">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="N179">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O179">
+            <v>0</v>
+          </cell>
+          <cell r="P179">
+            <v>1</v>
+          </cell>
+          <cell r="Q179">
+            <v>0</v>
+          </cell>
+          <cell r="R179">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="N180">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O180">
+            <v>0</v>
+          </cell>
+          <cell r="P180">
+            <v>1</v>
+          </cell>
+          <cell r="Q180">
+            <v>0</v>
+          </cell>
+          <cell r="R180">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="N181">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O181">
+            <v>0</v>
+          </cell>
+          <cell r="P181">
+            <v>1</v>
+          </cell>
+          <cell r="Q181">
+            <v>0</v>
+          </cell>
+          <cell r="R181">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="N182">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O182">
+            <v>0</v>
+          </cell>
+          <cell r="P182">
+            <v>1</v>
+          </cell>
+          <cell r="Q182">
+            <v>0</v>
+          </cell>
+          <cell r="R182">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="N183">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O183">
+            <v>0</v>
+          </cell>
+          <cell r="P183">
+            <v>1</v>
+          </cell>
+          <cell r="Q183">
+            <v>0</v>
+          </cell>
+          <cell r="R183">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="N184">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O184">
+            <v>0</v>
+          </cell>
+          <cell r="P184">
+            <v>1</v>
+          </cell>
+          <cell r="Q184">
+            <v>0</v>
+          </cell>
+          <cell r="R184">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="N185">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O185">
+            <v>0</v>
+          </cell>
+          <cell r="P185">
+            <v>1</v>
+          </cell>
+          <cell r="Q185">
+            <v>0</v>
+          </cell>
+          <cell r="R185">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="N186">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O186">
+            <v>0</v>
+          </cell>
+          <cell r="P186">
+            <v>1</v>
+          </cell>
+          <cell r="Q186">
+            <v>0</v>
+          </cell>
+          <cell r="R186">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="N187">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O187">
+            <v>0</v>
+          </cell>
+          <cell r="P187">
+            <v>1</v>
+          </cell>
+          <cell r="Q187">
+            <v>0</v>
+          </cell>
+          <cell r="R187">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="N188">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O188">
+            <v>0</v>
+          </cell>
+          <cell r="P188">
+            <v>1</v>
+          </cell>
+          <cell r="Q188">
+            <v>0</v>
+          </cell>
+          <cell r="R188">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="N189">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O189">
+            <v>0</v>
+          </cell>
+          <cell r="P189">
+            <v>1</v>
+          </cell>
+          <cell r="Q189">
+            <v>0</v>
+          </cell>
+          <cell r="R189">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="N190">
+            <v>123.45753424657535</v>
+          </cell>
+          <cell r="O190">
+            <v>0</v>
+          </cell>
+          <cell r="P190">
+            <v>1</v>
+          </cell>
+          <cell r="Q190">
+            <v>0</v>
+          </cell>
+          <cell r="R190">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -543,12 +5271,18 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <rv s="0">
-    <v>13</v>
+    <v>8</v>
     <v>1</v>
   </rv>
   <rv s="1">
+    <v>0</v>
+    <v>8</v>
+    <v>3</v>
+    <v>1</v>
+  </rv>
+  <rv s="2">
     <v>13</v>
     <v>3</v>
   </rv>
@@ -556,10 +5290,16 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="propagated" t="b"/>
+  </s>
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
   </s>
   <s t="_error">
     <k n="errorType" t="i"/>
@@ -865,7 +5605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
-  <dimension ref="B1:H29"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -904,31 +5644,31 @@
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="e" vm="1">
-        <f xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
+        <f ca="1" xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" t="e" vm="1">
-        <f>VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
+        <f ca="1">VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2" s="2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F2" s="2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G2" s="2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
+        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -938,11 +5678,11 @@
         <v>N/A</v>
       </c>
       <c r="F3" s="2" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
+        <f ca="1">VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H3" t="e" vm="1">
-        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
+        <f ca="1">VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -987,11 +5727,11 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="str" cm="1">
-        <f t="array" ref="B10:B11" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
-        <v>Thung Sek Kwang</v>
+        <f t="array" aca="1" ref="B10:B11" ca="1" xml:space="preserve"> IF(C5 = "Y", _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1)*  ('PO List'!$F$3:$F$29 &gt; 3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!$F$3:$F$29 &gt; 3)), _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$K$3:$K$29 = MAX(_xlfn._xlws.FILTER('PO List'!$K$3:$K$29,  ('PO List'!$W$3:$W$29=1))) * ('PO List'!$W$3:$W$29 = 1)))</f>
+        <v>Bong Sell Feng</v>
       </c>
       <c r="C10" t="e" cm="1" vm="2">
-        <f t="array" ref="C10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
+        <f t="array" aca="1" ref="C10" ca="1" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D10" t="str" cm="1">
@@ -999,118 +5739,131 @@
         <v>N/A</v>
       </c>
       <c r="E10" t="str" cm="1">
-        <f t="array" ref="E10:E29" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
+        <f t="array" aca="1" ref="E10:E28" ca="1" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
         <v>Catherine Wong</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
-        <v>Joanne</v>
+        <f ca="1"/>
+        <v>Thung Sek Kwang</v>
       </c>
       <c r="E11" s="2" t="str">
+        <f ca="1"/>
         <v>Ng Kay Beng</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E12" s="2" t="str">
+        <f ca="1"/>
         <v>Richard Lim</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C16" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
-        <v>Lee Xuan Yen</v>
+        <f t="array" aca="1" ref="C13:C15" ca="1" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <v>Yau Yen Nee</v>
       </c>
       <c r="E13" s="2" t="str">
+        <f ca="1"/>
         <v>Vance Kang</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" t="str">
-        <v>Yau Yen Nee</v>
+        <f ca="1"/>
+        <v>Kang Mi</v>
       </c>
       <c r="E14" s="2" t="str">
+        <f ca="1"/>
         <v>Lim Meng May</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" t="str">
-        <v>Kang Mi</v>
+        <f ca="1"/>
+        <v>Bong Sell Feng</v>
       </c>
       <c r="E15" s="2" t="str">
+        <f ca="1"/>
         <v>Lee Xuan Yen</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C16" t="str">
-        <v>Joanne</v>
-      </c>
       <c r="E16" s="2" t="str">
+        <f ca="1"/>
         <v>Yau Yen Nee</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E17" s="2" t="str">
+        <f ca="1"/>
         <v>Lim Leng Boon</v>
       </c>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E18" s="2" t="str">
+        <f ca="1"/>
         <v>Victor Tay</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E19" s="2" t="str">
+        <f ca="1"/>
         <v>Yan Chong Hui</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="str">
-        <v>Bong Sell Feng</v>
+        <f ca="1"/>
+        <v>Santoso</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E21" s="2" t="str">
-        <v>Santoso</v>
+        <f ca="1"/>
+        <v>Thung Sek Kwang</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E22" s="2" t="str">
-        <v>Thung Sek Kwang</v>
+        <f ca="1"/>
+        <v>Tran Chi Trung</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E23" s="2" t="str">
-        <v>Tran Chi Trung</v>
+        <f ca="1"/>
+        <v>Zhao Zhe</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E24" s="2" t="str">
-        <v>Zhao Zhe</v>
+        <f ca="1"/>
+        <v>Jimmy Wong</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E25" s="2" t="str">
-        <v>Jimmy Wong</v>
+        <f ca="1"/>
+        <v>Willie Chai</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E26" s="2" t="str">
-        <v>Willie Chai</v>
+        <f ca="1"/>
+        <v>Chris Chong</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E27" s="2" t="str">
-        <v>Chris Chong</v>
+        <f ca="1"/>
+        <v>Joanne</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E28" s="2" t="str">
-        <v>Joanne</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E29" s="2" t="str">
+        <f ca="1"/>
         <v>Chang Heng Choy</v>
       </c>
     </row>
@@ -1124,7 +5877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1273,6 +6026,7 @@
         <v>37428</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:F29" ca="1" si="0">INT((TODAY()-E3)/365)</f>
         <v>20</v>
       </c>
       <c r="G3">
@@ -1282,55 +6036,72 @@
         <v>1</v>
       </c>
       <c r="I3">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B3)</f>
         <v>1</v>
       </c>
       <c r="J3">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B3, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>1</v>
       </c>
       <c r="K3">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B3)</f>
         <v>2</v>
       </c>
       <c r="L3">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B3, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="2" cm="1">
+        <f t="array" ref="M3">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B3) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44829</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <f>IFERROR(RANK(M3, $M$3:$M$29), 30)</f>
+        <v>14</v>
       </c>
       <c r="O3">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B3,'[1]Project List'!$O$3:$O$500)</f>
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B3, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>5</v>
+      </c>
+      <c r="Q3" s="2" cm="1">
+        <f t="array" ref="Q3">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B3) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45034</v>
+      </c>
+      <c r="R3">
+        <f>IFERROR(RANK(Q3, $Q$3:$Q$29), 30)</f>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B3,'[1]Project List'!$K$3:$K$500)</f>
         <v>4</v>
       </c>
-      <c r="P3">
+      <c r="T3">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B3, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="2">
-        <v>44817</v>
-      </c>
-      <c r="R3">
-        <v>16</v>
-      </c>
-      <c r="S3">
-        <v>4</v>
-      </c>
-      <c r="T3">
-        <v>4</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="U3" s="2" cm="1">
+        <f t="array" ref="U3">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B3) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44829</v>
       </c>
       <c r="V3">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B3,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B3, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" cm="1">
+        <f t="array" ref="X3">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B3) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y3">
-        <v>9</v>
+        <f>IFERROR(RANK(X3, $X$3:$X$29), 30)</f>
+        <v>10</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -1353,6 +6124,7 @@
         <v>42537</v>
       </c>
       <c r="F4">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="G4">
@@ -1362,54 +6134,71 @@
         <v>1</v>
       </c>
       <c r="I4">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B4)</f>
         <v>0</v>
       </c>
       <c r="J4">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B4, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K4">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B4)</f>
         <v>7</v>
       </c>
       <c r="L4">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B4, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>7</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="2" cm="1">
+        <f t="array" ref="M4">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B4) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44692</v>
       </c>
       <c r="N4">
+        <f t="shared" ref="N4:N21" si="1">IFERROR(RANK(M4, $M$3:$M$29), 30)</f>
         <v>19</v>
       </c>
       <c r="O4">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B4,'[1]Project List'!$O$3:$O$500)</f>
         <v>3</v>
       </c>
       <c r="P4">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B4, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="2" cm="1">
+        <f t="array" ref="Q4">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B4) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44967</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <f t="shared" ref="R4:R29" si="2">IFERROR(RANK(Q4, $Q$3:$Q$29), 30)</f>
+        <v>9</v>
       </c>
       <c r="S4">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B4,'[1]Project List'!$K$3:$K$500)</f>
         <v>2</v>
       </c>
       <c r="T4">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B4, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="2" cm="1">
+        <f t="array" ref="U4">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B4) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44967</v>
       </c>
       <c r="V4">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B4,'[1]Project List'!$L$3:$L$500)</f>
         <v>9</v>
       </c>
       <c r="W4">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B4, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>9</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="2" cm="1">
+        <f t="array" ref="X4">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B4) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44967</v>
       </c>
       <c r="Y4">
+        <f t="shared" ref="Y4:Y29" si="3">IFERROR(RANK(X4, $X$3:$X$29), 30)</f>
         <v>3</v>
       </c>
       <c r="Z4">
@@ -1433,6 +6222,7 @@
         <v>35626</v>
       </c>
       <c r="F5">
+        <f t="shared" ca="1" si="0"/>
         <v>25</v>
       </c>
       <c r="G5">
@@ -1442,55 +6232,72 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B5)</f>
         <v>0</v>
       </c>
       <c r="J5">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B5, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K5">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B5)</f>
         <v>3</v>
       </c>
       <c r="L5">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B5, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="2" cm="1">
+        <f t="array" ref="M5">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B5) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44484</v>
       </c>
       <c r="N5">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="O5">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B5,'[1]Project List'!$O$3:$O$500)</f>
         <v>6</v>
       </c>
       <c r="P5">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B5, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>6</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="2" cm="1">
+        <f t="array" ref="Q5">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B5) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44988</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="S5">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B5,'[1]Project List'!$K$3:$K$500)</f>
         <v>5</v>
       </c>
       <c r="T5">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B5, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>5</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="2" cm="1">
+        <f t="array" ref="U5">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B5) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44988</v>
       </c>
       <c r="V5">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B5,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B5, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" cm="1">
+        <f t="array" ref="X5">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B5) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y5">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -1513,6 +6320,7 @@
         <v>43057</v>
       </c>
       <c r="F6">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G6">
@@ -1522,55 +6330,72 @@
         <v>1</v>
       </c>
       <c r="I6">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B6)</f>
         <v>0</v>
       </c>
       <c r="J6">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B6, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K6">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B6)</f>
         <v>3</v>
       </c>
       <c r="L6">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B6, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="2" cm="1">
+        <f t="array" ref="M6">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B6) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44385</v>
       </c>
       <c r="N6">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B6,'[1]Project List'!$O$3:$O$500)</f>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B6, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2" cm="1">
+        <f t="array" ref="Q6">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B6) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45030</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B6,'[1]Project List'!$K$3:$K$500)</f>
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B6, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>2</v>
+      </c>
+      <c r="U6" s="2" cm="1">
+        <f t="array" ref="U6">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B6) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44774</v>
       </c>
-      <c r="R6">
-        <v>18</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
-      <c r="U6" s="2">
-        <v>44774</v>
-      </c>
       <c r="V6">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B6,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B6, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="2" cm="1">
+        <f t="array" ref="X6">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B6) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y6">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -1593,6 +6418,7 @@
         <v>42013</v>
       </c>
       <c r="F7">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="G7">
@@ -1602,55 +6428,72 @@
         <v>1</v>
       </c>
       <c r="I7">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B7)</f>
         <v>0</v>
       </c>
       <c r="J7">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B7, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K7">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B7)</f>
         <v>5</v>
       </c>
       <c r="L7">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B7, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>5</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="2" cm="1">
+        <f t="array" ref="M7">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B7) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44923</v>
       </c>
       <c r="N7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B7,'[1]Project List'!$O$3:$O$500)</f>
         <v>4</v>
       </c>
-      <c r="O7">
+      <c r="P7">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B7, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>4</v>
       </c>
-      <c r="P7">
+      <c r="Q7" s="2" cm="1">
+        <f t="array" ref="Q7">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B7) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>44946</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B7,'[1]Project List'!$K$3:$K$500)</f>
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B7, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>2</v>
+      </c>
+      <c r="U7" s="2" cm="1">
+        <f t="array" ref="U7">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B7) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
+        <v>44946</v>
+      </c>
+      <c r="V7">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B7,'[1]Project List'!$L$3:$L$500)</f>
         <v>4</v>
       </c>
-      <c r="Q7" s="2">
-        <v>44946</v>
-      </c>
-      <c r="R7">
-        <v>7</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7" s="2">
-        <v>44946</v>
-      </c>
-      <c r="V7">
+      <c r="W7">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B7, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>4</v>
       </c>
-      <c r="W7">
-        <v>4</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="X7" s="2" cm="1">
+        <f t="array" ref="X7">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B7) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44377</v>
       </c>
       <c r="Y7">
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1673,6 +6516,7 @@
         <v>43664</v>
       </c>
       <c r="F8">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="G8">
@@ -1682,55 +6526,72 @@
         <v>1</v>
       </c>
       <c r="I8">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8)</f>
         <v>0</v>
       </c>
       <c r="J8">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B8, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K8">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8)</f>
         <v>2</v>
       </c>
       <c r="L8">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B8, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="2" cm="1">
+        <f t="array" ref="M8">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B8) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44490</v>
       </c>
       <c r="N8">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="O8">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8,'[1]Project List'!$O$3:$O$500)</f>
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2" cm="1">
+        <f t="array" ref="Q8">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B8) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="S8">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8,'[1]Project List'!$K$3:$K$500)</f>
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2" t="e" vm="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="2" t="e" cm="1" vm="3">
+        <f t="array" ref="U8">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B8) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
       <c r="V8">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" cm="1">
+        <f t="array" ref="X8">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B8) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1753,6 +6614,7 @@
         <v>41564</v>
       </c>
       <c r="F9">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="G9">
@@ -1762,55 +6624,72 @@
         <v>1</v>
       </c>
       <c r="I9">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B9)</f>
         <v>0</v>
       </c>
       <c r="J9">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B9, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K9">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B9)</f>
         <v>2</v>
       </c>
       <c r="L9">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B9, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="2" cm="1">
+        <f t="array" ref="M9">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B9) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44749</v>
       </c>
       <c r="N9">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="O9">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B9,'[1]Project List'!$O$3:$O$500)</f>
         <v>2</v>
       </c>
       <c r="P9">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B9, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="2" cm="1">
+        <f t="array" ref="Q9">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B9) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44900</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="S9">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B9,'[1]Project List'!$K$3:$K$500)</f>
         <v>1</v>
       </c>
       <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B9, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="U9" s="2" cm="1">
+        <f t="array" ref="U9">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B9) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44900</v>
       </c>
       <c r="V9">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B9,'[1]Project List'!$L$3:$L$500)</f>
         <v>2</v>
       </c>
       <c r="W9">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B9, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="2" cm="1">
+        <f t="array" ref="X9">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B9) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44900</v>
       </c>
       <c r="Y9">
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1833,6 +6712,7 @@
         <v>42635</v>
       </c>
       <c r="F10">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="G10">
@@ -1842,55 +6722,72 @@
         <v>1</v>
       </c>
       <c r="I10">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B10)</f>
         <v>1</v>
       </c>
       <c r="J10">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B10, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>1</v>
       </c>
       <c r="K10">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B10)</f>
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B10, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>3</v>
+      </c>
+      <c r="M10" s="2" cm="1">
+        <f t="array" ref="M10">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B10) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45044</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="O10">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B10,'[1]Project List'!$O$3:$O$500)</f>
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B10, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="2" cm="1">
+        <f t="array" ref="Q10">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B10) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>44834</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="S10">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B10,'[1]Project List'!$K$3:$K$500)</f>
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B10, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>3</v>
+      </c>
+      <c r="U10" s="2" cm="1">
+        <f t="array" ref="U10">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B10) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44840</v>
       </c>
-      <c r="N10">
-        <v>14</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>44834</v>
-      </c>
-      <c r="R10">
-        <v>14</v>
-      </c>
-      <c r="S10">
-        <v>3</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
-      <c r="U10" s="2">
-        <v>44840</v>
-      </c>
       <c r="V10">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B10,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B10, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="2" cm="1">
+        <f t="array" ref="X10">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B10) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1913,6 +6810,7 @@
         <v>40836</v>
       </c>
       <c r="F11">
+        <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="G11">
@@ -1922,55 +6820,72 @@
         <v>1</v>
       </c>
       <c r="I11">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B11)</f>
         <v>1</v>
       </c>
       <c r="J11">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B11, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>1</v>
       </c>
       <c r="K11">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B11)</f>
         <v>8</v>
       </c>
       <c r="L11">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B11, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>8</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="2" cm="1">
+        <f t="array" ref="M11">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B11) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44869</v>
       </c>
       <c r="N11">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="O11">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B11,'[1]Project List'!$O$3:$O$500)</f>
         <v>3</v>
       </c>
       <c r="P11">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B11, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="2" cm="1">
+        <f t="array" ref="Q11">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B11) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44951</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
       <c r="S11">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B11,'[1]Project List'!$K$3:$K$500)</f>
         <v>3</v>
       </c>
       <c r="T11">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B11, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="2" cm="1">
+        <f t="array" ref="U11">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B11) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44951</v>
       </c>
       <c r="V11">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B11,'[1]Project List'!$L$3:$L$500)</f>
         <v>9</v>
       </c>
       <c r="W11">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B11, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>9</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="2" cm="1">
+        <f t="array" ref="X11">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B11) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44951</v>
       </c>
       <c r="Y11">
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1993,6 +6908,7 @@
         <v>42143</v>
       </c>
       <c r="F12">
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G12">
@@ -2002,54 +6918,71 @@
         <v>1</v>
       </c>
       <c r="I12">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B12)</f>
         <v>0</v>
       </c>
       <c r="J12">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B12, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K12">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B12)</f>
         <v>9</v>
       </c>
       <c r="L12">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B12, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>9</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="2" cm="1">
+        <f t="array" ref="M12">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B12) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44873</v>
       </c>
       <c r="N12">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O12">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B12,'[1]Project List'!$O$3:$O$500)</f>
         <v>5</v>
       </c>
       <c r="P12">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B12, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>5</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="2" cm="1">
+        <f t="array" ref="Q12">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B12) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44981</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="S12">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B12,'[1]Project List'!$K$3:$K$500)</f>
         <v>4</v>
       </c>
       <c r="T12">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B12, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>4</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="2" cm="1">
+        <f t="array" ref="U12">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B12) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44981</v>
       </c>
       <c r="V12">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B12,'[1]Project List'!$L$3:$L$500)</f>
         <v>8</v>
       </c>
       <c r="W12">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B12, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>8</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="2" cm="1">
+        <f t="array" ref="X12">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B12) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44981</v>
       </c>
       <c r="Y12">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="Z12">
@@ -2073,6 +7006,7 @@
         <v>43804</v>
       </c>
       <c r="F13">
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="G13">
@@ -2082,55 +7016,72 @@
         <v>1</v>
       </c>
       <c r="I13">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13)</f>
         <v>0</v>
       </c>
       <c r="J13">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B13, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K13">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13)</f>
         <v>2</v>
       </c>
       <c r="L13">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B13, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="2" cm="1">
+        <f t="array" ref="M13">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B13) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44879</v>
       </c>
       <c r="N13">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13,'[1]Project List'!$O$3:$O$500)</f>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2" cm="1">
+        <f t="array" ref="Q13">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B13) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45020</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13,'[1]Project List'!$K$3:$K$500)</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="2" t="e" cm="1" vm="3">
+        <f t="array" ref="U13">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B13) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V13">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13,'[1]Project List'!$L$3:$L$500)</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="2" cm="1">
+        <f t="array" ref="X13">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B13) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
-      <c r="R13">
-        <v>24</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>31140</v>
-      </c>
       <c r="Y13">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -2153,6 +7104,7 @@
         <v>44280</v>
       </c>
       <c r="F14">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="G14">
@@ -2162,55 +7114,72 @@
         <v>1</v>
       </c>
       <c r="I14">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14)</f>
         <v>0</v>
       </c>
       <c r="J14">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B14, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K14">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14)</f>
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B14, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="2" cm="1">
+        <f t="array" ref="M14">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B14) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44620</v>
       </c>
       <c r="N14">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="O14">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14,'[1]Project List'!$O$3:$O$500)</f>
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" cm="1">
+        <f t="array" ref="Q14">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B14) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="R14">
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="S14">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14,'[1]Project List'!$K$3:$K$500)</f>
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2" t="e" vm="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="e" cm="1" vm="3">
+        <f t="array" ref="U14">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B14) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
       <c r="V14">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="2" cm="1">
+        <f t="array" ref="X14">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B14) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y14">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -2233,6 +7202,7 @@
         <v>42537</v>
       </c>
       <c r="F15">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="G15">
@@ -2242,55 +7212,72 @@
         <v>1</v>
       </c>
       <c r="I15">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B15)</f>
         <v>0</v>
       </c>
       <c r="J15">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B15, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K15">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B15)</f>
         <v>3</v>
       </c>
       <c r="L15">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B15, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="2" cm="1">
+        <f t="array" ref="M15">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B15) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44182</v>
       </c>
       <c r="N15">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O15">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B15,'[1]Project List'!$O$3:$O$500)</f>
         <v>3</v>
       </c>
       <c r="P15">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B15, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="2" cm="1">
+        <f t="array" ref="Q15">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B15) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44819</v>
       </c>
       <c r="R15">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="S15">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B15,'[1]Project List'!$K$3:$K$500)</f>
         <v>2</v>
       </c>
       <c r="T15">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B15, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="2" cm="1">
+        <f t="array" ref="U15">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B15) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44819</v>
       </c>
       <c r="V15">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B15,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B15, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" cm="1">
+        <f t="array" ref="X15">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B15) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y15">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2313,6 +7300,7 @@
         <v>37124</v>
       </c>
       <c r="F16">
+        <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
       <c r="G16">
@@ -2322,55 +7310,72 @@
         <v>1</v>
       </c>
       <c r="I16">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B16)</f>
         <v>1</v>
       </c>
       <c r="J16">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B16, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>1</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B16)</f>
+        <v>8</v>
       </c>
       <c r="L16">
-        <v>9</v>
-      </c>
-      <c r="M16" s="2">
-        <v>45007</v>
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B16, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>8</v>
+      </c>
+      <c r="M16" s="2" cm="1">
+        <f t="array" ref="M16">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B16) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>44797</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="O16">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B16,'[1]Project List'!$O$3:$O$500)</f>
         <v>5</v>
       </c>
       <c r="P16">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B16, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>5</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="2" cm="1">
+        <f t="array" ref="Q16">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B16) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44963</v>
       </c>
       <c r="R16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B16,'[1]Project List'!$K$3:$K$500)</f>
         <v>5</v>
       </c>
-      <c r="S16">
+      <c r="T16">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B16, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>5</v>
       </c>
-      <c r="T16">
-        <v>5</v>
-      </c>
-      <c r="U16" s="2">
+      <c r="U16" s="2" cm="1">
+        <f t="array" ref="U16">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B16) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44963</v>
       </c>
       <c r="V16">
-        <v>11</v>
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B16,'[1]Project List'!$L$3:$L$500)</f>
+        <v>10</v>
       </c>
       <c r="W16">
-        <v>11</v>
-      </c>
-      <c r="X16" s="2">
-        <v>45007</v>
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B16, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>10</v>
+      </c>
+      <c r="X16" s="2" cm="1">
+        <f t="array" ref="X16">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B16) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>44963</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2393,6 +7398,7 @@
         <v>38979</v>
       </c>
       <c r="F17">
+        <f t="shared" ca="1" si="0"/>
         <v>16</v>
       </c>
       <c r="G17">
@@ -2402,58 +7408,75 @@
         <v>1</v>
       </c>
       <c r="I17">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B17)</f>
         <v>0</v>
       </c>
       <c r="J17">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B17, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K17">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B17)</f>
         <v>3</v>
       </c>
       <c r="L17">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B17, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="2" cm="1">
+        <f t="array" ref="M17">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B17) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44260</v>
       </c>
       <c r="N17">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="O17">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B17,'[1]Project List'!$O$3:$O$500)</f>
         <v>4</v>
       </c>
       <c r="P17">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B17, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>4</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="2" cm="1">
+        <f t="array" ref="Q17">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B17) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44809</v>
       </c>
       <c r="R17">
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="S17">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B17,'[1]Project List'!$K$3:$K$500)</f>
         <v>3</v>
       </c>
       <c r="T17">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B17, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="2" cm="1">
+        <f t="array" ref="U17">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B17) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44809</v>
       </c>
       <c r="V17">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B17,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B17, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="2" cm="1">
+        <f t="array" ref="X17">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B17) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y17">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
@@ -2473,6 +7496,7 @@
         <v>42572</v>
       </c>
       <c r="F18">
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="G18">
@@ -2482,58 +7506,75 @@
         <v>1</v>
       </c>
       <c r="I18">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B18)</f>
         <v>0</v>
       </c>
       <c r="J18">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B18, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K18">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B18)</f>
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B18, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>5</v>
+      </c>
+      <c r="M18" s="2" cm="1">
+        <f t="array" ref="M18">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B18) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45054</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B18,'[1]Project List'!$O$3:$O$500)</f>
         <v>4</v>
       </c>
-      <c r="L18">
+      <c r="P18">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B18, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>4</v>
       </c>
-      <c r="M18" s="2">
-        <v>44984</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="2" cm="1">
+        <f t="array" ref="Q18">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B18) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44879</v>
       </c>
       <c r="R18">
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="S18">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B18,'[1]Project List'!$K$3:$K$500)</f>
         <v>3</v>
       </c>
       <c r="T18">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B18, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="2" cm="1">
+        <f t="array" ref="U18">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B18) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44879</v>
       </c>
       <c r="V18">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B18,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B18, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" cm="1">
+        <f t="array" ref="X18">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B18) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y18">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
@@ -2553,6 +7594,7 @@
         <v>43448</v>
       </c>
       <c r="F19">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="G19">
@@ -2562,55 +7604,72 @@
         <v>1</v>
       </c>
       <c r="I19">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B19)</f>
         <v>1</v>
       </c>
       <c r="J19">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B19, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>1</v>
       </c>
       <c r="K19">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B19)</f>
         <v>8</v>
       </c>
       <c r="L19">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B19, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>8</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="2" cm="1">
+        <f t="array" ref="M19">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B19) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44909</v>
       </c>
       <c r="N19">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O19">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B19,'[1]Project List'!$O$3:$O$500)</f>
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B19, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2" cm="1">
+        <f t="array" ref="Q19">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B19) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="R19">
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="S19">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B19,'[1]Project List'!$K$3:$K$500)</f>
         <v>1</v>
       </c>
       <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B19, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="U19" s="2" cm="1">
+        <f t="array" ref="U19">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B19) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44728</v>
       </c>
       <c r="V19">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B19,'[1]Project List'!$L$3:$L$500)</f>
         <v>8</v>
       </c>
       <c r="W19">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B19, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>8</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="2" cm="1">
+        <f t="array" ref="X19">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B19) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44909</v>
       </c>
       <c r="Y19">
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2633,6 +7692,7 @@
         <v>43363</v>
       </c>
       <c r="F20">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="G20">
@@ -2642,55 +7702,72 @@
         <v>1</v>
       </c>
       <c r="I20">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B20)</f>
         <v>2</v>
       </c>
       <c r="J20">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B20, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
       <c r="K20">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B20)</f>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B20, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>4</v>
+      </c>
+      <c r="M20" s="2" cm="1">
+        <f t="array" ref="M20">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B20) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45007</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="O20">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B20,'[1]Project List'!$O$3:$O$500)</f>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B20, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" cm="1">
+        <f t="array" ref="Q20">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B20) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>44739</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="S20">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B20,'[1]Project List'!$K$3:$K$500)</f>
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B20, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>2</v>
+      </c>
+      <c r="U20" s="2" cm="1">
+        <f t="array" ref="U20">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B20) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44923</v>
       </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>44739</v>
-      </c>
-      <c r="R20">
-        <v>19</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20" s="2">
-        <v>44923</v>
-      </c>
       <c r="V20">
-        <v>0</v>
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B20,'[1]Project List'!$L$3:$L$500)</f>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>31140</v>
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B20, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="2" cm="1">
+        <f t="array" ref="X20">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B20) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45007</v>
       </c>
       <c r="Y20">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2713,6 +7790,7 @@
         <v>43389</v>
       </c>
       <c r="F21">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="G21">
@@ -2722,55 +7800,72 @@
         <v>1</v>
       </c>
       <c r="I21">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B21)</f>
         <v>1</v>
       </c>
       <c r="J21">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B21, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>1</v>
       </c>
       <c r="K21">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B21)</f>
         <v>2</v>
       </c>
       <c r="L21">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B21, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="2" cm="1">
+        <f t="array" ref="M21">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B21) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44743</v>
       </c>
       <c r="N21">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B21,'[1]Project List'!$O$3:$O$500)</f>
+        <v>2</v>
       </c>
       <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>44509</v>
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B21, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="2" cm="1">
+        <f t="array" ref="Q21">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B21) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45021</v>
       </c>
       <c r="R21">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="S21">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B21,'[1]Project List'!$K$3:$K$500)</f>
         <v>1</v>
       </c>
       <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B21, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="2" cm="1">
+        <f t="array" ref="U21">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B21) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44743</v>
       </c>
       <c r="V21">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B21,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B21, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" cm="1">
+        <f t="array" ref="X21">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B21) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y21">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -2793,6 +7888,7 @@
         <v>34381</v>
       </c>
       <c r="F22">
+        <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
       <c r="G22">
@@ -2802,55 +7898,72 @@
         <v>0</v>
       </c>
       <c r="I22">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B22)</f>
         <v>0</v>
       </c>
       <c r="J22">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B22, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K22">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B22)</f>
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B22, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" cm="1">
+        <f t="array" ref="M22">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B22) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="N22">
+        <f>IFERROR(RANK(M22, $M$3:$M$29), 30)</f>
         <v>26</v>
       </c>
       <c r="O22">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B22,'[1]Project List'!$O$3:$O$500)</f>
         <v>1</v>
       </c>
       <c r="P22">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B22, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="2" cm="1">
+        <f t="array" ref="Q22">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B22) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44040</v>
       </c>
       <c r="R22">
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="S22">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B22,'[1]Project List'!$K$3:$K$500)</f>
         <v>1</v>
       </c>
       <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B22, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="2" cm="1">
+        <f t="array" ref="U22">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B22) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44040</v>
       </c>
       <c r="V22">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B22,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B22, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="2" cm="1">
+        <f t="array" ref="X22">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B22) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y22">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2873,6 +7986,7 @@
         <v>41564</v>
       </c>
       <c r="F23">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="G23">
@@ -2882,55 +7996,72 @@
         <v>0</v>
       </c>
       <c r="I23">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B23)</f>
         <v>0</v>
       </c>
       <c r="J23">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B23, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K23">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B23)</f>
         <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B23, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" cm="1">
+        <f t="array" ref="M23">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B23) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="N23">
+        <f t="shared" ref="N23:N29" si="4">IFERROR(RANK(M23, $M$3:$M$29), 30)</f>
         <v>26</v>
       </c>
       <c r="O23">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B23,'[1]Project List'!$O$3:$O$500)</f>
         <v>2</v>
       </c>
       <c r="P23">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B23, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="2" cm="1">
+        <f t="array" ref="Q23">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B23) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44265</v>
       </c>
       <c r="R23">
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="S23">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B23,'[1]Project List'!$K$3:$K$500)</f>
         <v>2</v>
       </c>
       <c r="T23">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B23, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="2" cm="1">
+        <f t="array" ref="U23">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B23) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44265</v>
       </c>
       <c r="V23">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B23,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B23, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="2" cm="1">
+        <f t="array" ref="X23">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B23) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y23">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -2953,6 +8084,7 @@
         <v>42173</v>
       </c>
       <c r="F24">
+        <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
       <c r="G24">
@@ -2962,55 +8094,72 @@
         <v>0</v>
       </c>
       <c r="I24">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B24)</f>
         <v>0</v>
       </c>
       <c r="J24">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B24, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K24">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B24)</f>
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B24, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>5</v>
+      </c>
+      <c r="M24" s="2" cm="1">
+        <f t="array" ref="M24">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B24) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>44872</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="O24">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B24,'[1]Project List'!$O$3:$O$500)</f>
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B24, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>5</v>
+      </c>
+      <c r="Q24" s="2" cm="1">
+        <f t="array" ref="Q24">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B24) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
+        <v>45026</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B24,'[1]Project List'!$K$3:$K$500)</f>
         <v>4</v>
       </c>
-      <c r="L24">
+      <c r="T24">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B24, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>4</v>
       </c>
-      <c r="M24" s="2">
-        <v>44872</v>
-      </c>
-      <c r="N24">
-        <v>11</v>
-      </c>
-      <c r="O24">
-        <v>4</v>
-      </c>
-      <c r="P24">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>44644</v>
-      </c>
-      <c r="R24">
-        <v>20</v>
-      </c>
-      <c r="S24">
-        <v>3</v>
-      </c>
-      <c r="T24">
-        <v>3</v>
-      </c>
-      <c r="U24" s="2">
-        <v>44265</v>
+      <c r="U24" s="2" cm="1">
+        <f t="array" ref="U24">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B24) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
+        <v>45026</v>
       </c>
       <c r="V24">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B24,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B24, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="2" cm="1">
+        <f t="array" ref="X24">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B24) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y24">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z24">
         <v>1</v>
@@ -3033,6 +8182,7 @@
         <v>41933</v>
       </c>
       <c r="F25">
+        <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
       <c r="G25">
@@ -3042,58 +8192,75 @@
         <v>0</v>
       </c>
       <c r="I25">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B25)</f>
         <v>0</v>
       </c>
       <c r="J25">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B25, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K25">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B25)</f>
         <v>3</v>
       </c>
       <c r="L25">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B25, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="2" cm="1">
+        <f t="array" ref="M25">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B25) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44902</v>
       </c>
       <c r="N25">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="O25">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B25,'[1]Project List'!$O$3:$O$500)</f>
         <v>3</v>
       </c>
       <c r="P25">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B25, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="2" cm="1">
+        <f t="array" ref="Q25">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B25) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="S25">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B25,'[1]Project List'!$K$3:$K$500)</f>
         <v>2</v>
       </c>
       <c r="T25">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B25, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>2</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="2" cm="1">
+        <f t="array" ref="U25">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B25) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44049</v>
       </c>
       <c r="V25">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B25,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B25, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="2" cm="1">
+        <f t="array" ref="X25">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B25) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y25">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
@@ -3113,6 +8280,7 @@
         <v>43272</v>
       </c>
       <c r="F26">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="G26">
@@ -3122,55 +8290,72 @@
         <v>0</v>
       </c>
       <c r="I26">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26)</f>
         <v>0</v>
       </c>
       <c r="J26">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B26, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K26">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26)</f>
         <v>3</v>
       </c>
       <c r="L26">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B26, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="2" cm="1">
+        <f t="array" ref="M26">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B26) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44774</v>
       </c>
       <c r="N26">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="O26">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26,'[1]Project List'!$O$3:$O$500)</f>
         <v>1</v>
       </c>
       <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2" cm="1">
+        <f t="array" ref="Q26">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B26) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44851</v>
       </c>
       <c r="R26">
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="S26">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26,'[1]Project List'!$K$3:$K$500)</f>
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2" t="e" vm="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2" t="e" cm="1" vm="3">
+        <f t="array" ref="U26">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B26) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
       <c r="V26">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="2" cm="1">
+        <f t="array" ref="X26">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B26) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y26">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -3193,6 +8378,7 @@
         <v>42877</v>
       </c>
       <c r="F27">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="G27">
@@ -3202,55 +8388,72 @@
         <v>0</v>
       </c>
       <c r="I27">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B27)</f>
         <v>0</v>
       </c>
       <c r="J27">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B27, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K27">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B27)</f>
         <v>3</v>
       </c>
       <c r="L27">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B27, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="2" cm="1">
+        <f t="array" ref="M27">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B27) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44914</v>
       </c>
       <c r="N27">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="O27">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B27,'[1]Project List'!$O$3:$O$500)</f>
         <v>3</v>
       </c>
       <c r="P27">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B27, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="2" cm="1">
+        <f t="array" ref="Q27">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B27) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>45005</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="S27">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B27,'[1]Project List'!$K$3:$K$500)</f>
         <v>1</v>
       </c>
       <c r="T27">
-        <v>1</v>
-      </c>
-      <c r="U27" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B27, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="U27" s="2" cm="1">
+        <f t="array" ref="U27">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B27) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>45005</v>
       </c>
       <c r="V27">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B27,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B27, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="2" cm="1">
+        <f t="array" ref="X27">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B27) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y27">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -3273,7 +8476,8 @@
         <v>39191</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -3282,55 +8486,72 @@
         <v>1</v>
       </c>
       <c r="I28">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28)</f>
         <v>0</v>
       </c>
       <c r="J28">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B28, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
       <c r="K28">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28)</f>
         <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B28, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" cm="1">
+        <f t="array" ref="M28">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B28) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44938</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="O28">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28,'[1]Project List'!$O$3:$O$500)</f>
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" cm="1">
+        <f t="array" ref="Q28">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B28) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="R28">
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="S28">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28,'[1]Project List'!$K$3:$K$500)</f>
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28" s="2" t="e" vm="2">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="2" t="e" cm="1" vm="3">
+        <f t="array" ref="U28">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B28) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
       <c r="V28">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28,'[1]Project List'!$L$3:$L$500)</f>
         <v>1</v>
       </c>
       <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="X28" s="2" cm="1">
+        <f t="array" ref="X28">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B28) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44938</v>
       </c>
       <c r="Y28">
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -3353,6 +8574,7 @@
         <v>37124</v>
       </c>
       <c r="F29">
+        <f t="shared" ca="1" si="0"/>
         <v>21</v>
       </c>
       <c r="G29">
@@ -3362,55 +8584,72 @@
         <v>1</v>
       </c>
       <c r="I29">
+        <f>SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B29)</f>
         <v>1</v>
       </c>
       <c r="J29">
+        <f ca="1">SUMIFS('[1]Project List'!$R$3:$R$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B29, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>1</v>
       </c>
       <c r="K29">
+        <f>SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B29)</f>
         <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$Q$3:$Q$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!B29, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" cm="1">
+        <f t="array" ref="M29">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B29) * ('[1]Project List'!$P$3:$P$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44855</v>
       </c>
       <c r="N29">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="O29">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B29,'[1]Project List'!$O$3:$O$500)</f>
         <v>3</v>
       </c>
       <c r="P29">
+        <f ca="1">SUMIFS('[1]Project List'!$O$3:$O$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B29, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="2" cm="1">
+        <f t="array" ref="Q29">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B29) * ('[1]Project List'!$O$3:$O$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>44890</v>
       </c>
       <c r="R29">
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="S29">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B29,'[1]Project List'!$K$3:$K$500)</f>
         <v>3</v>
       </c>
       <c r="T29">
+        <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B29, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>3</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="2" cm="1">
+        <f t="array" ref="U29">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B29) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>44713</v>
       </c>
       <c r="V29">
+        <f>SUMIF('[1]Project List'!$I$3:$I$500, '[1]PO List'!$B29,'[1]Project List'!$L$3:$L$500)</f>
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29" s="2">
+        <f ca="1">SUMIFS('[1]Project List'!$L$3:$L$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B29, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="2" cm="1">
+        <f t="array" ref="X29">IFERROR(MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B29) * ('[1]Project List'!$L$3:$L$500 =1)))), DATEVALUE("3-Apr-85"))</f>
         <v>31140</v>
       </c>
       <c r="Y29">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="Z29">
         <v>1</v>
@@ -3532,6 +8771,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3:F29">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>3</formula>
@@ -3549,18 +8800,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -3572,6 +8811,8 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3616,7 +8857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3721,7 +8962,7 @@
         <v>44861</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3741,22 +8982,22 @@
         <v>42416</v>
       </c>
       <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
       <c r="I4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="3">
-        <v>44754</v>
+        <v>45030</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3791,7 +9032,7 @@
         <v>44946</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3826,7 +9067,7 @@
         <v>44879</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3846,7 +9087,7 @@
         <v>39156</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -3861,7 +9102,7 @@
         <v>44851</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3896,7 +9137,7 @@
         <v>44890</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3922,16 +9163,16 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3">
-        <v>44739</v>
+        <v>45021</v>
       </c>
       <c r="K9">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3951,7 +9192,7 @@
         <v>39919</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -3966,7 +9207,7 @@
         <v>44918</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4001,7 +9242,7 @@
         <v>44890</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4021,7 +9262,7 @@
         <v>39108</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -4036,7 +9277,7 @@
         <v>44862</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4071,7 +9312,7 @@
         <v>44942</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4097,16 +9338,16 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="3">
-        <v>44770</v>
+        <v>45034</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -4132,16 +9373,16 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>44657</v>
+        <v>45020</v>
       </c>
       <c r="K15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57EDC1A-ECF0-406F-9D56-6B4353FF9CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2DAE4F-3DFB-4407-A546-9E08942031FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -96,7 +96,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -111,28 +111,18 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -491,17 +481,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5271,18 +5251,12 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
-    <v>8</v>
+    <v>13</v>
     <v>1</v>
   </rv>
   <rv s="1">
-    <v>0</v>
-    <v>8</v>
-    <v>3</v>
-    <v>1</v>
-  </rv>
-  <rv s="2">
     <v>13</v>
     <v>3</v>
   </rv>
@@ -5290,16 +5264,10 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="propagated" t="b"/>
-  </s>
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
   </s>
   <s t="_error">
     <k n="errorType" t="i"/>
@@ -5605,7 +5573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C4DD88-2A77-44D6-815A-E390E324E7C8}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
@@ -5739,7 +5707,7 @@
         <v>N/A</v>
       </c>
       <c r="E10" t="str" cm="1">
-        <f t="array" aca="1" ref="E10:E28" ca="1" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
+        <f t="array" aca="1" ref="E10:E29" ca="1" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$V$3:$V$29 = MAX(_xlfn._xlws.FILTER('PO List'!$V$3:$V$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!G3:G29=1))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!G3:G29=1))</f>
         <v>Catherine Wong</v>
       </c>
     </row>
@@ -5816,53 +5784,59 @@
     <row r="20" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="str">
         <f ca="1"/>
-        <v>Santoso</v>
+        <v>Bong Sell Feng</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E21" s="2" t="str">
         <f ca="1"/>
-        <v>Thung Sek Kwang</v>
+        <v>Santoso</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E22" s="2" t="str">
         <f ca="1"/>
-        <v>Tran Chi Trung</v>
+        <v>Thung Sek Kwang</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E23" s="2" t="str">
         <f ca="1"/>
-        <v>Zhao Zhe</v>
+        <v>Tran Chi Trung</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E24" s="2" t="str">
         <f ca="1"/>
-        <v>Jimmy Wong</v>
+        <v>Zhao Zhe</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E25" s="2" t="str">
         <f ca="1"/>
-        <v>Willie Chai</v>
+        <v>Jimmy Wong</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E26" s="2" t="str">
         <f ca="1"/>
-        <v>Chris Chong</v>
+        <v>Willie Chai</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E27" s="2" t="str">
         <f ca="1"/>
-        <v>Joanne</v>
+        <v>Chris Chong</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E28" s="2" t="str">
+        <f ca="1"/>
+        <v>Joanne</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="2" t="str">
         <f ca="1"/>
         <v>Chang Heng Choy</v>
       </c>
@@ -5877,11 +5851,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6573,7 +6547,7 @@
         <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B8, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
-      <c r="U8" s="2" t="e" cm="1" vm="3">
+      <c r="U8" s="2" t="e" cm="1" vm="2">
         <f t="array" ref="U8">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B8) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
@@ -6594,7 +6568,7 @@
         <v>10</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
@@ -7063,7 +7037,7 @@
         <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B13, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="2" t="e" cm="1" vm="3">
+      <c r="U13" s="2" t="e" cm="1" vm="2">
         <f t="array" ref="U13">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B13) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
@@ -7161,7 +7135,7 @@
         <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B14, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="2" t="e" cm="1" vm="3">
+      <c r="U14" s="2" t="e" cm="1" vm="2">
         <f t="array" ref="U14">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B14) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
@@ -7672,7 +7646,7 @@
         <v>7</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
@@ -7696,7 +7670,7 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -8337,7 +8311,7 @@
         <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B26, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="2" t="e" cm="1" vm="3">
+      <c r="U26" s="2" t="e" cm="1" vm="2">
         <f t="array" ref="U26">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B26) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
@@ -8533,7 +8507,7 @@
         <f ca="1">SUMIFS('[1]Project List'!$K$3:$K$500, '[1]Project List'!$I$3:$I$500, '[1]PO List'!$B28, '[1]Project List'!$N$3:$N$500, "&lt;"&amp;$F$1)</f>
         <v>0</v>
       </c>
-      <c r="U28" s="2" t="e" cm="1" vm="3">
+      <c r="U28" s="2" t="e" cm="1" vm="2">
         <f t="array" ref="U28">MAX(_xlfn._xlws.FILTER('[1]Project List'!$B$3:$B$500,(('[1]Project List'!$I$3:$I$500='[1]PO List'!$B28) * ('[1]Project List'!$K$3:$K$500 =1))))</f>
         <v>#VALUE!</v>
       </c>
@@ -8857,7 +8831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242870B7-25D5-4803-8A75-A2A39FB7FE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121710E-E695-4CDC-94C7-5690206E9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
@@ -93,7 +93,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -108,28 +108,18 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
     </bk>
     <bk>
       <rc t="2" v="1"/>
-    </bk>
-    <bk>
-      <rc t="2" v="2"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -553,18 +543,12 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
-    <v>8</v>
+    <v>13</v>
     <v>1</v>
   </rv>
   <rv s="1">
-    <v>0</v>
-    <v>8</v>
-    <v>3</v>
-    <v>1</v>
-  </rv>
-  <rv s="2">
     <v>13</v>
     <v>3</v>
   </rv>
@@ -572,16 +556,10 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="propagated" t="b"/>
-  </s>
-  <s t="_error">
-    <k n="colOffset" t="i"/>
-    <k n="errorType" t="i"/>
-    <k n="rwOffset" t="i"/>
-    <k n="subType" t="i"/>
   </s>
   <s t="_error">
     <k n="errorType" t="i"/>
@@ -926,31 +904,31 @@
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="e" vm="1">
-        <f ca="1" xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
+        <f xml:space="preserve"> IF(C6 = "Y", E10, IF(C7="Y",B10, IF(C5= "Y", C10, B10)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" t="e" vm="1">
-        <f ca="1">VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
+        <f>VLOOKUP(B2,'PO List'!B3:W29,5,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,6, FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2" s="2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 9,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F2" s="2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29, 13,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G2" s="2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,20,FALSE)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
+        <f>VLOOKUP($B$2,'PO List'!$B$3:$W$29,22, FALSE)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -960,11 +938,11 @@
         <v>N/A</v>
       </c>
       <c r="F3" s="2" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
+        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 9)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H3" t="e" vm="1">
-        <f ca="1">VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
+        <f>VLOOKUP($B$2,'PO GBW List'!$B$3:$W$29, 11)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1013,7 +991,7 @@
         <v>Bong Sell Feng</v>
       </c>
       <c r="C10" t="e" cm="1" vm="2">
-        <f t="array" aca="1" ref="C10" ca="1" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
+        <f t="array" ref="C10" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3) * ('PO List'!G3:G29=0))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D10" t="str" cm="1">
@@ -1040,7 +1018,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" t="str" cm="1">
-        <f t="array" ref="C13:C15" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
+        <f t="array" ref="C13:C16" xml:space="preserve"> _xlfn._xlws.FILTER('PO List'!$B$3:$B$29, 'PO List'!$O$3:$O$29 = MAX(_xlfn._xlws.FILTER('PO List'!$O$3:$O$29,  ('PO List'!$W$3:$W$29=1) * ('PO List'!F3:F29&gt;=3))) * ('PO List'!$W$3:$W$29 = 1) * ('PO List'!F3:F29&gt;=3))</f>
         <v>Yau Yen Nee</v>
       </c>
       <c r="E13" s="2" t="str">
@@ -1064,6 +1042,9 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C16" t="str">
+        <v>Joanne</v>
+      </c>
       <c r="E16" s="2" t="str">
         <v>Yau Yen Nee</v>
       </c>
@@ -1085,42 +1066,42 @@
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="str">
-        <v>Santoso</v>
+        <v>Bong Sell Feng</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E21" s="2" t="str">
-        <v>Thung Sek Kwang</v>
+        <v>Santoso</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E22" s="2" t="str">
-        <v>Tran Chi Trung</v>
+        <v>Thung Sek Kwang</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E23" s="2" t="str">
-        <v>Zhao Zhe</v>
+        <v>Tran Chi Trung</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E24" s="2" t="str">
-        <v>Jimmy Wong</v>
+        <v>Zhao Zhe</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E25" s="2" t="str">
-        <v>Willie Chai</v>
+        <v>Jimmy Wong</v>
       </c>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E26" s="2" t="str">
-        <v>Chris Chong</v>
+        <v>Willie Chai</v>
       </c>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E27" s="2" t="str">
-        <v>Joanne</v>
+        <v>Chris Chong</v>
       </c>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.35">
@@ -1142,7 +1123,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:Z29"/>
+      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1287,7 +1268,7 @@
         <v>37428</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1302,28 +1283,28 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3" s="2">
-        <v>44829</v>
+        <v>45197</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="2">
-        <v>45034</v>
+        <v>45169</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -1367,7 +1348,7 @@
         <v>42537</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1391,7 +1372,7 @@
         <v>44692</v>
       </c>
       <c r="N4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -1403,7 +1384,7 @@
         <v>44967</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S4">
         <v>2</v>
@@ -1424,7 +1405,7 @@
         <v>44967</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1447,7 +1428,7 @@
         <v>35626</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1462,37 +1443,37 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>45077</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>45187</v>
+      </c>
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" s="2">
-        <v>44484</v>
-      </c>
-      <c r="N5">
-        <v>22</v>
-      </c>
-      <c r="O5">
+      <c r="S5">
         <v>6</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>6</v>
       </c>
-      <c r="Q5" s="2">
-        <v>44988</v>
-      </c>
-      <c r="R5">
-        <v>8</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
       <c r="U5" s="2">
-        <v>44988</v>
+        <v>45187</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1551,7 +1532,7 @@
         <v>45070</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O6">
         <v>4</v>
@@ -1563,7 +1544,7 @@
         <v>45030</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S6">
         <v>2</v>
@@ -1587,7 +1568,7 @@
         <v>10</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
@@ -1622,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" s="2">
-        <v>44377</v>
+        <v>45166</v>
       </c>
       <c r="N7">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="2">
-        <v>44946</v>
+        <v>45122</v>
       </c>
       <c r="R7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" s="2">
-        <v>44946</v>
+        <v>45122</v>
       </c>
       <c r="V7">
         <v>4</v>
@@ -1687,7 +1668,7 @@
         <v>43664</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1711,7 +1692,7 @@
         <v>44490</v>
       </c>
       <c r="N8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1723,7 +1704,7 @@
         <v>44942</v>
       </c>
       <c r="R8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1731,7 +1712,7 @@
       <c r="T8">
         <v>0</v>
       </c>
-      <c r="U8" s="2" t="e" vm="3">
+      <c r="U8" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V8">
@@ -1747,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
@@ -1788,10 +1769,10 @@
         <v>3</v>
       </c>
       <c r="M9" s="2">
-        <v>44923</v>
+        <v>45070</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -1803,7 +1784,7 @@
         <v>44900</v>
       </c>
       <c r="R9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="S9">
         <v>1</v>
@@ -1821,10 +1802,10 @@
         <v>3</v>
       </c>
       <c r="X9" s="2">
-        <v>44923</v>
+        <v>45070</v>
       </c>
       <c r="Y9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1847,7 +1828,7 @@
         <v>42635</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1856,43 +1837,43 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" s="2">
-        <v>45044</v>
+        <v>45202</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="2">
-        <v>44834</v>
+        <v>45194</v>
       </c>
       <c r="R10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U10" s="2">
-        <v>44840</v>
+        <v>45194</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1951,7 +1932,7 @@
         <v>44869</v>
       </c>
       <c r="N11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -1963,7 +1944,7 @@
         <v>44951</v>
       </c>
       <c r="R11">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -1984,7 +1965,7 @@
         <v>44951</v>
       </c>
       <c r="Y11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -2022,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12" s="2">
-        <v>44873</v>
+        <v>45197</v>
       </c>
       <c r="N12">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -2043,7 +2024,7 @@
         <v>44981</v>
       </c>
       <c r="R12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S12">
         <v>4</v>
@@ -2055,16 +2036,16 @@
         <v>44981</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X12" s="2">
-        <v>44981</v>
+        <v>45197</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2111,19 +2092,19 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q13" s="2">
-        <v>45020</v>
+        <v>45146</v>
       </c>
       <c r="R13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2131,7 +2112,7 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13" s="2" t="e" vm="3">
+      <c r="U13" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V13">
@@ -2182,16 +2163,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2">
-        <v>44620</v>
+        <v>45140</v>
       </c>
       <c r="N14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2211,7 +2192,7 @@
       <c r="T14">
         <v>0</v>
       </c>
-      <c r="U14" s="2" t="e" vm="3">
+      <c r="U14" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V14">
@@ -2247,7 +2228,7 @@
         <v>42537</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2283,7 +2264,7 @@
         <v>45065</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2307,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
@@ -2327,7 +2308,7 @@
         <v>37124</v>
       </c>
       <c r="F16">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2342,16 +2323,16 @@
         <v>1</v>
       </c>
       <c r="K16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M16" s="2">
-        <v>44797</v>
+        <v>45197</v>
       </c>
       <c r="N16">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -2363,7 +2344,7 @@
         <v>44963</v>
       </c>
       <c r="R16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S16">
         <v>5</v>
@@ -2375,16 +2356,16 @@
         <v>44963</v>
       </c>
       <c r="V16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X16" s="2">
-        <v>44963</v>
+        <v>45197</v>
       </c>
       <c r="Y16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2407,7 +2388,7 @@
         <v>38979</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2416,10 +2397,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -2428,31 +2409,31 @@
         <v>3</v>
       </c>
       <c r="M17" s="2">
-        <v>44260</v>
+        <v>45155</v>
       </c>
       <c r="N17">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" s="2">
-        <v>44809</v>
+        <v>45118</v>
       </c>
       <c r="R17">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U17" s="2">
-        <v>44809</v>
+        <v>45155</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2467,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
@@ -2487,7 +2468,7 @@
         <v>42572</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2496,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2508,31 +2489,31 @@
         <v>5</v>
       </c>
       <c r="M18" s="2">
-        <v>45054</v>
+        <v>45199</v>
       </c>
       <c r="N18">
         <v>2</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="2">
-        <v>44879</v>
+        <v>45100</v>
       </c>
       <c r="R18">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U18" s="2">
-        <v>44879</v>
+        <v>45199</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2591,7 +2572,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2627,7 +2608,7 @@
         <v>8</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
@@ -2647,10 +2628,10 @@
         <v>43363</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2662,16 +2643,16 @@
         <v>2</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" s="2">
-        <v>45007</v>
+        <v>45131</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -2704,7 +2685,7 @@
         <v>45007</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -2751,7 +2732,7 @@
         <v>44743</v>
       </c>
       <c r="N21">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O21">
         <v>2</v>
@@ -2763,7 +2744,7 @@
         <v>45021</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -2967,7 +2948,7 @@
         <v>42173</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2991,7 +2972,7 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O24">
         <v>5</v>
@@ -3003,7 +2984,7 @@
         <v>45026</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S24">
         <v>4</v>
@@ -3071,7 +3052,7 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3083,7 +3064,7 @@
         <v>44918</v>
       </c>
       <c r="R25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S25">
         <v>2</v>
@@ -3127,7 +3108,7 @@
         <v>43272</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3142,37 +3123,37 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M26" s="2">
         <v>44774</v>
       </c>
       <c r="N26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="2">
-        <v>44851</v>
+        <v>45201</v>
       </c>
       <c r="R26">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26" s="2" t="e" vm="3">
-        <v>#VALUE!</v>
+        <v>2</v>
+      </c>
+      <c r="U26" s="2">
+        <v>45201</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3222,37 +3203,37 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" s="2">
         <v>44914</v>
       </c>
       <c r="N27">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q27" s="2">
-        <v>45005</v>
+        <v>45146</v>
       </c>
       <c r="R27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U27" s="2">
-        <v>45005</v>
+        <v>45146</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3302,16 +3283,16 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="2">
-        <v>44938</v>
+        <v>45152</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3331,20 +3312,20 @@
       <c r="T28">
         <v>0</v>
       </c>
-      <c r="U28" s="2" t="e" vm="3">
+      <c r="U28" s="2" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X28" s="2">
-        <v>44938</v>
+        <v>45152</v>
       </c>
       <c r="Y28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z28">
         <v>1</v>
@@ -3367,7 +3348,7 @@
         <v>37124</v>
       </c>
       <c r="F29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3376,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3388,31 +3369,31 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>44855</v>
+        <v>45181</v>
       </c>
       <c r="N29">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q29" s="2">
-        <v>44890</v>
+        <v>45111</v>
       </c>
       <c r="R29">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U29" s="2">
-        <v>44713</v>
+        <v>45181</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3546,18 +3527,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N30">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F3:F29">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
       <formula>3</formula>
@@ -3575,6 +3544,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -3586,8 +3567,6 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3636,7 +3615,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:L15"/>
+      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3722,22 +3701,22 @@
         <v>36424</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3">
-        <v>44861</v>
+        <v>45100</v>
       </c>
       <c r="K3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3772,7 +3751,7 @@
         <v>45030</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -3807,7 +3786,7 @@
         <v>44946</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3827,22 +3806,22 @@
         <v>40809</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
-        <v>44879</v>
+        <v>45146</v>
       </c>
       <c r="K6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -3877,7 +3856,7 @@
         <v>45065</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -3897,22 +3876,22 @@
         <v>43272</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="3">
-        <v>44890</v>
+        <v>45146</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -3932,7 +3911,7 @@
         <v>42234</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -3947,7 +3926,7 @@
         <v>45021</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -3982,7 +3961,7 @@
         <v>44918</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -4008,16 +3987,16 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3">
-        <v>44890</v>
+        <v>45169</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -4043,16 +4022,16 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
-        <v>44862</v>
+        <v>45111</v>
       </c>
       <c r="K12">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -4087,7 +4066,7 @@
         <v>44942</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -4107,7 +4086,7 @@
         <v>43664</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -4122,7 +4101,7 @@
         <v>45034</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -4157,7 +4136,7 @@
         <v>45020</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>1</v>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D121710E-E695-4CDC-94C7-5690206E9153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066D5F3F-5DAE-4257-A6B6-225FF3D50858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment" sheetId="6" r:id="rId1"/>
@@ -1119,11 +1119,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C75C91F-21A3-4E63-A2DC-06DB0809D90B}">
   <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1923,16 +1923,16 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M11" s="2">
-        <v>44869</v>
+        <v>44984</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O11">
         <v>3</v>
@@ -2092,7 +2092,7 @@
         <v>44879</v>
       </c>
       <c r="N13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O13">
         <v>2</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18" s="2">
         <v>45199</v>
@@ -2572,7 +2572,7 @@
         <v>44909</v>
       </c>
       <c r="N19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2972,7 +2972,7 @@
         <v>44872</v>
       </c>
       <c r="N24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O24">
         <v>5</v>
@@ -3052,7 +3052,7 @@
         <v>44902</v>
       </c>
       <c r="N25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3212,7 +3212,7 @@
         <v>44914</v>
       </c>
       <c r="N27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O27">
         <v>4</v>
@@ -3611,7 +3611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCF2D12-6CFF-4FA5-91BF-1536EECED08C}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Assignment1.xlsx
+++ b/Assignment1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwach\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066D5F3F-5DAE-4257-A6B6-225FF3D50858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F06897A-05E0-4B07-A0F3-83C4C5999821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D32C21BF-4CAF-4924-AD59-CC55455CD400}"/>
   </bookViews>
@@ -1123,7 +1123,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1405,7 +1405,7 @@
         <v>44967</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1956,16 +1956,16 @@
         <v>44951</v>
       </c>
       <c r="V11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X11" s="2">
-        <v>44951</v>
+        <v>44984</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z11">
         <v>1</v>
